--- a/files/Updated time schedule for ICIT 2024.xlsx
+++ b/files/Updated time schedule for ICIT 2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FD32E1-B162-4830-95C7-41F9B136082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A732AD-66AB-4C3C-80B2-698D44323E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 0" sheetId="13" r:id="rId1"/>
@@ -13,21 +13,10 @@
     <sheet name="Day 2" sheetId="11" r:id="rId3"/>
     <sheet name="Day 3" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -220,9 +209,6 @@
     <t>Keynote Speech 3 (Ball room)</t>
   </si>
   <si>
-    <t>17:00 - 21:00</t>
-  </si>
-  <si>
     <t>IClT24-000339</t>
   </si>
   <si>
@@ -2729,6 +2715,10 @@
   </si>
   <si>
     <t>Session topic: Environmental Perception, Planning, and Control of Multi-Robots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00 - 21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2736,7 +2726,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2864,15 +2854,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3194,9 +3177,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3209,6 +3189,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3248,10 +3231,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3359,17 +3342,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3447,10 +3430,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24C0610F-B7A6-411D-90E6-CF03BC0A7A97}" name="表1" displayName="表1" ref="T1:T2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24C0610F-B7A6-411D-90E6-CF03BC0A7A97}" name="表1" displayName="表1" ref="T1:T2" insertRow="1" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="T1:T2" xr:uid="{24C0610F-B7A6-411D-90E6-CF03BC0A7A97}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B6E448CD-DE9E-4462-BA39-197CDCA192FC}" name="列1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B6E448CD-DE9E-4462-BA39-197CDCA192FC}" name="列1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3721,25 +3704,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67372D2F-DEEC-49DB-AA40-0EEFC95CAD54}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62">
         <v>45375</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>56</v>
+        <v>714</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="61"/>
@@ -3761,11 +3744,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7950FE-D522-4BF8-B0AB-A197EB040E32}">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
@@ -3799,12 +3782,12 @@
     <col min="30" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T1" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="21" customHeight="1">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>11</v>
       </c>
@@ -3817,7 +3800,7 @@
       <c r="H3" s="75"/>
       <c r="I3" s="76"/>
     </row>
-    <row r="4" spans="1:24" ht="14.4" customHeight="1">
+    <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>12</v>
       </c>
@@ -3830,7 +3813,7 @@
       <c r="H4" s="78"/>
       <c r="I4" s="79"/>
     </row>
-    <row r="5" spans="1:24" ht="20.399999999999999">
+    <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="97">
         <v>0.35416666666666669</v>
       </c>
@@ -3845,12 +3828,12 @@
       <c r="H5" s="92"/>
       <c r="I5" s="93"/>
     </row>
-    <row r="6" spans="1:24" ht="15.6">
+    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C6" s="83"/>
       <c r="D6" s="84"/>
@@ -3860,7 +3843,7 @@
       <c r="H6" s="95"/>
       <c r="I6" s="96"/>
     </row>
-    <row r="7" spans="1:24" ht="15.6">
+    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -3869,10 +3852,10 @@
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="6" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.6">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="82"/>
       <c r="C8" s="84"/>
@@ -3883,7 +3866,7 @@
       <c r="H8" s="99"/>
       <c r="I8" s="100"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" customHeight="1">
+    <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -3910,7 +3893,7 @@
       <c r="W9" s="80"/>
       <c r="X9" s="80"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -3937,7 +3920,7 @@
       <c r="W10" s="80"/>
       <c r="X10" s="80"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>45</v>
       </c>
@@ -3968,60 +3951,60 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" ht="28.05" customHeight="1">
+    <row r="12" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N12" s="30" t="s">
         <v>36</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="25.05" customHeight="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
@@ -4063,304 +4046,304 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="40.200000000000003" customHeight="1">
+    <row r="14" spans="1:24" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M14" s="65"/>
       <c r="N14" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R14" s="65"/>
       <c r="S14" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="44.4" customHeight="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="65"/>
       <c r="I15" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M15" s="65"/>
       <c r="N15" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="Q15" s="64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R15" s="65"/>
       <c r="S15" s="16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="40.200000000000003" customHeight="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="46" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M16" s="65"/>
       <c r="N16" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="Q16" s="64" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R16" s="65"/>
       <c r="S16" s="16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="48" customHeight="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M17" s="65"/>
       <c r="N17" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="Q17" s="64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R17" s="65"/>
       <c r="S17" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="25.05" customHeight="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H18" s="73"/>
-      <c r="I18" s="54" t="s">
-        <v>92</v>
+      <c r="I18" s="58" t="s">
+        <v>91</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="L18" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M18" s="65"/>
       <c r="N18" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="Q18" s="64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R18" s="65"/>
       <c r="S18" s="16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="52.8" customHeight="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="46" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="L19" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M19" s="65"/>
       <c r="N19" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="Q19" s="64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R19" s="65"/>
       <c r="S19" s="16" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="25.05" customHeight="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M20" s="65"/>
       <c r="N20" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="Q20" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R20" s="65"/>
       <c r="S20" s="16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999">
+    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
@@ -4405,102 +4388,102 @@
         <v>13</v>
       </c>
       <c r="AA22" s="103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AB22" s="103"/>
       <c r="AC22" s="103"/>
     </row>
-    <row r="23" spans="1:30" ht="15.6">
+    <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
       <c r="U23" s="82" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V23" s="83"/>
       <c r="W23" s="83"/>
       <c r="X23" s="84"/>
       <c r="Z23" s="82" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AA23" s="83"/>
       <c r="AB23" s="83"/>
       <c r="AC23" s="84"/>
     </row>
-    <row r="24" spans="1:30" ht="28.05" customHeight="1">
+    <row r="24" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>41</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="1:30" ht="25.05" customHeight="1">
+    <row r="25" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
@@ -4564,391 +4547,391 @@
       </c>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:30" ht="25.05" customHeight="1">
+    <row r="26" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G26" s="64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H26" s="65"/>
       <c r="I26" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M26" s="65"/>
       <c r="N26" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R26" s="65"/>
       <c r="S26" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="V26" s="64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W26" s="65"/>
       <c r="X26" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="45" t="s">
         <v>15</v>
       </c>
       <c r="AA26" s="64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB26" s="65"/>
       <c r="AC26" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AD26" s="45"/>
     </row>
-    <row r="27" spans="1:30" ht="25.05" customHeight="1">
+    <row r="27" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H27" s="65"/>
       <c r="I27" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="65"/>
       <c r="N27" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q27" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R27" s="65"/>
       <c r="S27" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="V27" s="64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W27" s="65"/>
       <c r="X27" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="45" t="s">
         <v>16</v>
       </c>
       <c r="AA27" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB27" s="65"/>
       <c r="AC27" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AD27" s="45"/>
     </row>
-    <row r="28" spans="1:30" ht="25.05" customHeight="1">
+    <row r="28" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H28" s="65"/>
       <c r="I28" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L28" s="64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M28" s="65"/>
       <c r="N28" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="Q28" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R28" s="65"/>
       <c r="S28" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="V28" s="64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W28" s="65"/>
       <c r="X28" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="45" t="s">
         <v>17</v>
       </c>
       <c r="AA28" s="64" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB28" s="65"/>
       <c r="AC28" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AD28" s="45"/>
     </row>
-    <row r="29" spans="1:30" ht="25.05" customHeight="1">
+    <row r="29" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H29" s="65"/>
       <c r="I29" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M29" s="65"/>
       <c r="N29" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Q29" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R29" s="65"/>
       <c r="S29" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="V29" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W29" s="65"/>
       <c r="X29" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="45" t="s">
         <v>18</v>
       </c>
       <c r="AA29" s="64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB29" s="65"/>
       <c r="AC29" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD29" s="45"/>
     </row>
-    <row r="30" spans="1:30" ht="25.05" customHeight="1">
+    <row r="30" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H30" s="65"/>
       <c r="I30" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L30" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M30" s="65"/>
       <c r="N30" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R30" s="65"/>
       <c r="S30" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="V30" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W30" s="65"/>
       <c r="X30" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="45" t="s">
         <v>19</v>
       </c>
       <c r="AA30" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AB30" s="65"/>
       <c r="AC30" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD30" s="45"/>
     </row>
-    <row r="31" spans="1:30" ht="25.05" customHeight="1">
+    <row r="31" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H31" s="65"/>
       <c r="I31" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M31" s="65"/>
       <c r="N31" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R31" s="65"/>
       <c r="S31" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="V31" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W31" s="65"/>
       <c r="X31" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="45" t="s">
         <v>20</v>
       </c>
       <c r="AA31" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB31" s="65"/>
       <c r="AC31" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD31" s="45"/>
     </row>
-    <row r="32" spans="1:30" ht="25.05" customHeight="1">
+    <row r="32" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -5000,83 +4983,83 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="47"/>
     </row>
-    <row r="33" spans="1:30" ht="28.05" customHeight="1">
+    <row r="33" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="P33" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>629</v>
-      </c>
       <c r="Q33" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S33" s="10" t="s">
         <v>39</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W33" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="X33" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="X33" s="54" t="s">
         <v>37</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AA33" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AB33" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AC33" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="1:30" ht="25.05" customHeight="1">
+    <row r="34" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -5140,400 +5123,400 @@
       </c>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:30" ht="24.6" customHeight="1">
+    <row r="35" spans="1:30" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H35" s="65"/>
       <c r="I35" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L35" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M35" s="65"/>
       <c r="N35" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q35" s="64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R35" s="65"/>
       <c r="S35" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="V35" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W35" s="65"/>
       <c r="X35" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="45" t="s">
         <v>5</v>
       </c>
       <c r="AA35" s="64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AB35" s="65"/>
       <c r="AC35" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AD35" s="45"/>
     </row>
-    <row r="36" spans="1:30" ht="25.05" customHeight="1">
+    <row r="36" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G36" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H36" s="65"/>
       <c r="I36" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L36" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M36" s="65"/>
       <c r="N36" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Q36" s="64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R36" s="65"/>
       <c r="S36" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="V36" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W36" s="65"/>
       <c r="X36" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="45" t="s">
         <v>6</v>
       </c>
       <c r="AA36" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AB36" s="65"/>
       <c r="AC36" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AD36" s="45"/>
     </row>
-    <row r="37" spans="1:30" ht="25.05" customHeight="1">
+    <row r="37" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H37" s="65"/>
       <c r="I37" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L37" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M37" s="65"/>
       <c r="N37" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q37" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R37" s="65"/>
       <c r="S37" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="V37" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W37" s="65"/>
       <c r="X37" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="45" t="s">
         <v>7</v>
       </c>
       <c r="AA37" s="64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AB37" s="65"/>
       <c r="AC37" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AD37" s="45"/>
     </row>
-    <row r="38" spans="1:30" ht="25.05" customHeight="1">
+    <row r="38" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="65"/>
       <c r="D38" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H38" s="65"/>
       <c r="I38" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M38" s="65"/>
       <c r="N38" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q38" s="64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R38" s="65"/>
       <c r="S38" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="V38" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W38" s="70"/>
       <c r="X38" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="45" t="s">
         <v>8</v>
       </c>
       <c r="AA38" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AB38" s="65"/>
       <c r="AC38" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD38" s="45"/>
     </row>
-    <row r="39" spans="1:30" ht="25.05" customHeight="1">
+    <row r="39" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H39" s="65"/>
       <c r="I39" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L39" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M39" s="65"/>
       <c r="N39" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Q39" s="64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R39" s="65"/>
       <c r="S39" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V39" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W39" s="70"/>
       <c r="X39" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="45" t="s">
         <v>9</v>
       </c>
       <c r="AA39" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB39" s="65"/>
       <c r="AC39" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD39" s="45"/>
     </row>
-    <row r="40" spans="1:30" ht="25.05" customHeight="1">
+    <row r="40" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H40" s="71"/>
       <c r="I40" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M40" s="65"/>
       <c r="N40" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q40" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R40" s="65"/>
       <c r="S40" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="V40" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W40" s="65"/>
       <c r="X40" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="45" t="s">
         <v>22</v>
       </c>
       <c r="AA40" s="64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AB40" s="65"/>
       <c r="AC40" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AD40" s="45"/>
     </row>
-    <row r="41" spans="1:30" ht="16.8">
+    <row r="41" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
       <c r="I41" s="49"/>
       <c r="K41" s="50"/>
       <c r="U41" s="50"/>
       <c r="Z41" s="51"/>
     </row>
-    <row r="42" spans="1:30" ht="16.8">
+    <row r="42" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
       <c r="U42" s="50"/>
     </row>
-    <row r="43" spans="1:30" ht="49.2">
+    <row r="43" spans="1:30" ht="49.2" x14ac:dyDescent="0.45">
       <c r="A43" s="52" t="s">
         <v>53</v>
       </c>
@@ -5706,10 +5689,10 @@
   <dimension ref="A3:X33"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.21875" style="3" customWidth="1"/>
@@ -5739,7 +5722,7 @@
     <col min="27" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" ht="21" customHeight="1">
+    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>11</v>
       </c>
@@ -5752,7 +5735,7 @@
       <c r="H3" s="75"/>
       <c r="I3" s="76"/>
     </row>
-    <row r="4" spans="1:24" ht="14.4" customHeight="1">
+    <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>12</v>
       </c>
@@ -5765,7 +5748,7 @@
       <c r="H4" s="78"/>
       <c r="I4" s="79"/>
     </row>
-    <row r="5" spans="1:24" ht="20.399999999999999">
+    <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="97">
         <v>0.35416666666666669</v>
       </c>
@@ -5780,12 +5763,12 @@
       <c r="H5" s="92"/>
       <c r="I5" s="93"/>
     </row>
-    <row r="6" spans="1:24" ht="15.6">
+    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C6" s="83"/>
       <c r="D6" s="84"/>
@@ -5795,16 +5778,16 @@
       <c r="H6" s="95"/>
       <c r="I6" s="96"/>
     </row>
-    <row r="7" spans="1:24" ht="15.6" customHeight="1">
+    <row r="7" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E7" s="98"/>
       <c r="F7" s="99"/>
@@ -5812,7 +5795,7 @@
       <c r="H7" s="99"/>
       <c r="I7" s="100"/>
     </row>
-    <row r="8" spans="1:24" ht="15.6">
+    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="82"/>
       <c r="C8" s="84"/>
@@ -5823,12 +5806,12 @@
       <c r="H8" s="99"/>
       <c r="I8" s="100"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" customHeight="1">
+    <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C9" s="83"/>
       <c r="D9" s="84"/>
@@ -5846,12 +5829,12 @@
       <c r="R9" s="80"/>
       <c r="S9" s="80"/>
     </row>
-    <row r="10" spans="1:24" ht="76.8" customHeight="1">
+    <row r="10" spans="1:24" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" s="82" t="s">
         <v>599</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>600</v>
       </c>
       <c r="C10" s="83"/>
       <c r="D10" s="84"/>
@@ -5869,7 +5852,7 @@
       <c r="R10" s="81"/>
       <c r="S10" s="81"/>
     </row>
-    <row r="12" spans="1:24" s="9" customFormat="1" ht="17.399999999999999">
+    <row r="12" spans="1:24" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -5911,7 +5894,7 @@
       <c r="W12" s="66"/>
       <c r="X12" s="66"/>
     </row>
-    <row r="13" spans="1:24" ht="15.6">
+    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
         <v>45</v>
       </c>
@@ -5944,54 +5927,54 @@
       <c r="W13" s="107"/>
       <c r="X13" s="108"/>
     </row>
-    <row r="14" spans="1:24" ht="28.05" customHeight="1">
+    <row r="14" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>639</v>
-      </c>
       <c r="L14" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U14" s="104" t="s">
         <v>29</v>
@@ -6000,7 +5983,7 @@
       <c r="W14" s="80"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="1:24" ht="25.05" customHeight="1">
+    <row r="15" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -6046,275 +6029,275 @@
       </c>
       <c r="X15" s="12"/>
     </row>
-    <row r="16" spans="1:24" ht="25.05" customHeight="1">
+    <row r="16" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M16" s="65"/>
       <c r="N16" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R16" s="65"/>
       <c r="S16" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U16" s="17"/>
       <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:24" ht="25.05" customHeight="1">
+    <row r="17" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M17" s="65"/>
       <c r="N17" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R17" s="65"/>
       <c r="S17" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U17" s="17"/>
       <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="1:24" ht="25.05" customHeight="1">
+    <row r="18" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="56" t="s">
-        <v>184</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M18" s="70"/>
       <c r="N18" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R18" s="65"/>
       <c r="S18" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U18" s="17"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:24" ht="25.05" customHeight="1">
+    <row r="19" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M19" s="65"/>
       <c r="N19" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R19" s="65"/>
       <c r="S19" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U19" s="17"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="1:24" ht="25.05" customHeight="1">
+    <row r="20" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M20" s="65"/>
       <c r="N20" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R20" s="65"/>
       <c r="S20" s="16" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U20" s="17"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:24" ht="25.05" customHeight="1">
+    <row r="21" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B21" s="109" t="s">
+        <v>684</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="56" t="s">
-        <v>186</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M21" s="65"/>
       <c r="N21" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R21" s="65"/>
       <c r="S21" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="U21" s="18"/>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="20"/>
     </row>
-    <row r="22" spans="1:24" ht="25.05" customHeight="1">
+    <row r="22" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B22" s="67" t="s">
         <v>0</v>
@@ -6341,7 +6324,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R22" s="68"/>
       <c r="S22" s="69"/>
@@ -6354,51 +6337,51 @@
       <c r="W22" s="68"/>
       <c r="X22" s="69"/>
     </row>
-    <row r="23" spans="1:24" ht="28.05" customHeight="1">
+    <row r="23" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F23" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>641</v>
-      </c>
       <c r="L23" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S23" s="10" t="s">
         <v>47</v>
@@ -6408,7 +6391,7 @@
       <c r="W23" s="80"/>
       <c r="X23" s="12"/>
     </row>
-    <row r="24" spans="1:24" ht="25.05" customHeight="1">
+    <row r="24" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -6455,46 +6438,46 @@
       </c>
       <c r="X24" s="12"/>
     </row>
-    <row r="25" spans="1:24" ht="25.05" customHeight="1">
+    <row r="25" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L25" s="64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M25" s="65"/>
       <c r="N25" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q25" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R25" s="65"/>
       <c r="S25" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U25" s="105" t="s">
         <v>31</v>
@@ -6503,241 +6486,241 @@
       <c r="W25" s="106"/>
       <c r="X25" s="22"/>
     </row>
-    <row r="26" spans="1:24" ht="25.05" customHeight="1">
+    <row r="26" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H26" s="65"/>
       <c r="I26" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L26" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M26" s="65"/>
       <c r="N26" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Q26" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R26" s="65"/>
       <c r="S26" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V26" s="21" t="s">
         <v>33</v>
       </c>
       <c r="X26" s="12"/>
     </row>
-    <row r="27" spans="1:24" ht="25.05" customHeight="1">
+    <row r="27" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H27" s="65"/>
       <c r="I27" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L27" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M27" s="65"/>
       <c r="N27" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q27" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R27" s="65"/>
       <c r="S27" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V27" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X27" s="12"/>
     </row>
-    <row r="28" spans="1:24" ht="25.05" customHeight="1">
+    <row r="28" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="65"/>
       <c r="I28" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M28" s="65"/>
       <c r="N28" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q28" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R28" s="65"/>
       <c r="S28" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U28" s="17"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" ht="25.05" customHeight="1">
+    <row r="29" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H29" s="65"/>
       <c r="I29" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L29" s="64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M29" s="65"/>
       <c r="N29" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Q29" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R29" s="65"/>
       <c r="S29" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U29" s="17"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" ht="25.05" customHeight="1">
+    <row r="30" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H30" s="65"/>
       <c r="I30" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M30" s="65"/>
       <c r="N30" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q30" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R30" s="65"/>
       <c r="S30" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U30" s="18"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="20"/>
     </row>
-    <row r="33" spans="1:2" s="25" customFormat="1" ht="21">
+    <row r="33" spans="1:2" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B33" s="24">
         <v>0.79166666666666663</v>
@@ -6745,7 +6728,6 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="U25:W25"/>
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="U23:W23"/>
@@ -6790,6 +6772,7 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
@@ -6844,16 +6827,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0A72A6-F728-4273-B217-6595B7D29A78}">
   <dimension ref="A3:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="37.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" ht="21" customHeight="1">
+    <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>11</v>
       </c>
@@ -6866,7 +6849,7 @@
       <c r="H3" s="75"/>
       <c r="I3" s="76"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4" customHeight="1">
+    <row r="4" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>12</v>
       </c>
@@ -6879,7 +6862,7 @@
       <c r="H4" s="78"/>
       <c r="I4" s="79"/>
     </row>
-    <row r="5" spans="1:26" ht="20.399999999999999">
+    <row r="5" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="97">
         <v>0.35416666666666669</v>
       </c>
@@ -6894,12 +6877,12 @@
       <c r="H5" s="92"/>
       <c r="I5" s="93"/>
     </row>
-    <row r="6" spans="1:26" ht="15.6">
+    <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C6" s="83"/>
       <c r="D6" s="84"/>
@@ -6909,7 +6892,7 @@
       <c r="H6" s="95"/>
       <c r="I6" s="96"/>
     </row>
-    <row r="7" spans="1:26" ht="15.6">
+    <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -6918,7 +6901,7 @@
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E7" s="98"/>
       <c r="F7" s="99"/>
@@ -6926,7 +6909,7 @@
       <c r="H7" s="99"/>
       <c r="I7" s="100"/>
     </row>
-    <row r="8" spans="1:26" ht="15.6">
+    <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="82"/>
       <c r="C8" s="84"/>
@@ -6937,7 +6920,7 @@
       <c r="H8" s="99"/>
       <c r="I8" s="100"/>
     </row>
-    <row r="9" spans="1:26" ht="14.4" customHeight="1">
+    <row r="9" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -6964,7 +6947,7 @@
       <c r="W9" s="80"/>
       <c r="X9" s="80"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -6991,7 +6974,7 @@
       <c r="W10" s="80"/>
       <c r="X10" s="80"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>45</v>
       </c>
@@ -7022,57 +7005,57 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" ht="28.05" customHeight="1">
+    <row r="12" spans="1:26" s="29" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="P12" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="L12" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>669</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>653</v>
-      </c>
       <c r="Q12" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="25.05" customHeight="1">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
@@ -7118,138 +7101,138 @@
       <c r="W13" s="32"/>
       <c r="X13" s="32"/>
     </row>
-    <row r="14" spans="1:26" ht="25.05" customHeight="1">
+    <row r="14" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H14" s="65"/>
       <c r="I14" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M14" s="65"/>
       <c r="N14" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R14" s="65"/>
       <c r="S14" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U14" s="34"/>
       <c r="V14" s="113"/>
       <c r="W14" s="113"/>
       <c r="X14" s="113"/>
     </row>
-    <row r="15" spans="1:26" ht="25.05" customHeight="1">
+    <row r="15" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H15" s="65"/>
       <c r="I15" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M15" s="65"/>
       <c r="N15" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="Q15" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R15" s="65"/>
       <c r="S15" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U15" s="34"/>
       <c r="V15" s="36"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
     </row>
-    <row r="16" spans="1:26" ht="25.05" customHeight="1">
+    <row r="16" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M16" s="65"/>
       <c r="N16" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="Q16" s="64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R16" s="65"/>
       <c r="S16" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U16" s="34"/>
       <c r="V16" s="36"/>
@@ -7257,191 +7240,191 @@
       <c r="X16" s="36"/>
       <c r="Z16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="25.05" customHeight="1">
+    <row r="17" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M17" s="65"/>
       <c r="N17" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="Q17" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R17" s="65"/>
       <c r="S17" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U17" s="34"/>
       <c r="V17" s="36"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
     </row>
-    <row r="18" spans="1:30" ht="25.05" customHeight="1">
+    <row r="18" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="L18" s="64" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M18" s="65"/>
       <c r="N18" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
       <c r="Q18" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R18" s="65"/>
       <c r="S18" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U18" s="34"/>
       <c r="V18" s="36"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
-    <row r="19" spans="1:30" ht="25.05" customHeight="1">
+    <row r="19" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="L19" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M19" s="65"/>
       <c r="N19" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="Q19" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R19" s="65"/>
       <c r="S19" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U19" s="34"/>
       <c r="V19" s="36"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
-    <row r="20" spans="1:30" ht="25.05" customHeight="1">
+    <row r="20" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M20" s="65"/>
       <c r="N20" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="Q20" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R20" s="65"/>
       <c r="S20" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U20" s="34"/>
       <c r="V20" s="36"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
-    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999">
+    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
@@ -7491,97 +7474,97 @@
       <c r="AB22" s="103"/>
       <c r="AC22" s="103"/>
     </row>
-    <row r="23" spans="1:30" ht="15.6">
+    <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
       <c r="U23" s="82" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="V23" s="83"/>
       <c r="W23" s="83"/>
       <c r="X23" s="83"/>
       <c r="Z23" s="83" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AA23" s="83"/>
       <c r="AB23" s="83"/>
       <c r="AC23" s="83"/>
     </row>
-    <row r="24" spans="1:30" ht="28.05" customHeight="1">
+    <row r="24" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>666</v>
+        <v>520</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>665</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="W24" s="58" t="s">
-        <v>705</v>
+        <v>550</v>
+      </c>
+      <c r="W24" s="57" t="s">
+        <v>704</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Y24" s="32"/>
       <c r="Z24" s="39" t="s">
-        <v>658</v>
-      </c>
-      <c r="AA24" s="58" t="s">
+        <v>657</v>
+      </c>
+      <c r="AA24" s="57" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB24" s="54" t="s">
+        <v>686</v>
+      </c>
+      <c r="AC24" s="31" t="s">
         <v>700</v>
       </c>
-      <c r="AB24" s="55" t="s">
-        <v>687</v>
-      </c>
-      <c r="AC24" s="31" t="s">
-        <v>701</v>
-      </c>
       <c r="AD24" s="37"/>
     </row>
-    <row r="25" spans="1:30" ht="25.05" customHeight="1">
+    <row r="25" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
@@ -7641,395 +7624,395 @@
       </c>
       <c r="AB25" s="65"/>
       <c r="AC25" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" ht="25.05" customHeight="1">
+    <row r="26" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H26" s="65"/>
       <c r="I26" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M26" s="65"/>
       <c r="N26" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R26" s="65"/>
       <c r="S26" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="V26" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W26" s="65"/>
       <c r="X26" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y26" s="40"/>
       <c r="Z26" s="41" t="s">
         <v>15</v>
       </c>
       <c r="AA26" s="64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AB26" s="65"/>
       <c r="AC26" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AD26" s="36"/>
     </row>
-    <row r="27" spans="1:30" ht="25.05" customHeight="1">
+    <row r="27" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H27" s="65"/>
       <c r="I27" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M27" s="65"/>
       <c r="N27" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q27" s="64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R27" s="65"/>
       <c r="S27" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="V27" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W27" s="65"/>
       <c r="X27" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y27" s="40"/>
       <c r="Z27" s="41" t="s">
         <v>16</v>
       </c>
       <c r="AA27" s="64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AB27" s="65"/>
       <c r="AC27" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AD27" s="36"/>
     </row>
-    <row r="28" spans="1:30" ht="25.05" customHeight="1">
+    <row r="28" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H28" s="65"/>
       <c r="I28" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L28" s="64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M28" s="65"/>
       <c r="N28" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="Q28" s="64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R28" s="65"/>
       <c r="S28" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="V28" s="64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W28" s="65"/>
       <c r="X28" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y28" s="40"/>
       <c r="Z28" s="41" t="s">
         <v>17</v>
       </c>
       <c r="AA28" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AB28" s="65"/>
       <c r="AC28" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AD28" s="36"/>
     </row>
-    <row r="29" spans="1:30" ht="25.05" customHeight="1">
+    <row r="29" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H29" s="65"/>
       <c r="I29" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M29" s="65"/>
       <c r="N29" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Q29" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R29" s="65"/>
       <c r="S29" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V29" s="109" t="s">
+      <c r="V29" s="111" t="s">
+        <v>458</v>
+      </c>
+      <c r="W29" s="112"/>
+      <c r="X29" s="56" t="s">
         <v>459</v>
-      </c>
-      <c r="W29" s="110"/>
-      <c r="X29" s="57" t="s">
-        <v>460</v>
       </c>
       <c r="Y29" s="40"/>
       <c r="Z29" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AA29" s="109" t="s">
+      <c r="AA29" s="111" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="56" t="s">
-        <v>284</v>
-      </c>
       <c r="AD29" s="36"/>
     </row>
-    <row r="30" spans="1:30" ht="25.05" customHeight="1">
+    <row r="30" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H30" s="65"/>
       <c r="I30" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L30" s="64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M30" s="65"/>
       <c r="N30" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R30" s="65"/>
       <c r="S30" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="109" t="s">
+      <c r="V30" s="111" t="s">
+        <v>460</v>
+      </c>
+      <c r="W30" s="112"/>
+      <c r="X30" s="56" t="s">
         <v>461</v>
-      </c>
-      <c r="W30" s="110"/>
-      <c r="X30" s="57" t="s">
-        <v>462</v>
       </c>
       <c r="Y30" s="40"/>
       <c r="Z30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AA30" s="109" t="s">
+      <c r="AA30" s="111" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB30" s="112"/>
+      <c r="AC30" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="56" t="s">
-        <v>286</v>
-      </c>
       <c r="AD30" s="36"/>
     </row>
-    <row r="31" spans="1:30" ht="25.05" customHeight="1">
+    <row r="31" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H31" s="65"/>
       <c r="I31" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M31" s="65"/>
       <c r="N31" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R31" s="65"/>
       <c r="S31" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="109" t="s">
+      <c r="V31" s="111" t="s">
+        <v>702</v>
+      </c>
+      <c r="W31" s="112"/>
+      <c r="X31" s="56" t="s">
         <v>703</v>
-      </c>
-      <c r="W31" s="110"/>
-      <c r="X31" s="57" t="s">
-        <v>704</v>
       </c>
       <c r="Y31" s="40"/>
       <c r="Z31" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="109" t="s">
-        <v>706</v>
-      </c>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="56" t="s">
-        <v>282</v>
+      <c r="AA31" s="111" t="s">
+        <v>705</v>
+      </c>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="55" t="s">
+        <v>281</v>
       </c>
       <c r="AD31" s="36"/>
     </row>
-    <row r="32" spans="1:30" ht="25.05" customHeight="1">
+    <row r="32" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -8081,81 +8064,81 @@
       <c r="AC32" s="42"/>
       <c r="AD32" s="35"/>
     </row>
-    <row r="33" spans="1:30" s="29" customFormat="1" ht="28.05" customHeight="1">
+    <row r="33" spans="1:30" s="29" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F33" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="K33" s="30" t="s">
         <v>649</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>546</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="K33" s="30" t="s">
-        <v>650</v>
-      </c>
       <c r="L33" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>46</v>
       </c>
       <c r="P33" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="S33" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U33" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="V33" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="W33" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="X33" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="Z33" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AA33" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB33" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="AC33" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="AB33" s="27" t="s">
-        <v>674</v>
-      </c>
-      <c r="AC33" s="28" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" ht="25.05" customHeight="1">
+    </row>
+    <row r="34" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -8217,327 +8200,327 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="25.05" customHeight="1">
+    <row r="35" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H35" s="65"/>
       <c r="I35" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L35" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M35" s="65"/>
       <c r="N35" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q35" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R35" s="65"/>
       <c r="S35" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="V35" s="64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W35" s="65"/>
       <c r="X35" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y35" s="40"/>
       <c r="Z35" s="41" t="s">
         <v>5</v>
       </c>
       <c r="AA35" s="64" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AB35" s="65"/>
       <c r="AC35" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AD35" s="36"/>
     </row>
-    <row r="36" spans="1:30" ht="25.05" customHeight="1">
+    <row r="36" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G36" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H36" s="65"/>
       <c r="I36" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L36" s="64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M36" s="65"/>
       <c r="N36" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Q36" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R36" s="65"/>
       <c r="S36" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="V36" s="64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="W36" s="65"/>
       <c r="X36" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y36" s="40"/>
       <c r="Z36" s="41" t="s">
         <v>6</v>
       </c>
       <c r="AA36" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AB36" s="65"/>
       <c r="AC36" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD36" s="36"/>
     </row>
-    <row r="37" spans="1:30" ht="25.05" customHeight="1">
+    <row r="37" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H37" s="65"/>
       <c r="I37" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L37" s="64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M37" s="65"/>
       <c r="N37" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q37" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R37" s="65"/>
       <c r="S37" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="V37" s="64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W37" s="65"/>
       <c r="X37" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y37" s="40"/>
       <c r="Z37" s="41" t="s">
         <v>7</v>
       </c>
       <c r="AA37" s="64" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AB37" s="65"/>
       <c r="AC37" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AD37" s="36"/>
     </row>
-    <row r="38" spans="1:30" ht="25.05" customHeight="1">
+    <row r="38" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C38" s="65"/>
       <c r="D38" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H38" s="65"/>
       <c r="I38" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M38" s="65"/>
       <c r="N38" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="109" t="s">
-        <v>709</v>
-      </c>
-      <c r="R38" s="110"/>
-      <c r="S38" s="56" t="s">
-        <v>234</v>
+      <c r="Q38" s="64" t="s">
+        <v>708</v>
+      </c>
+      <c r="R38" s="65"/>
+      <c r="S38" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="V38" s="64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W38" s="65"/>
       <c r="X38" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Y38" s="40"/>
       <c r="Z38" s="41" t="s">
         <v>8</v>
       </c>
       <c r="AA38" s="64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AB38" s="65"/>
       <c r="AC38" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AD38" s="36"/>
     </row>
-    <row r="39" spans="1:30" ht="25.05" customHeight="1">
+    <row r="39" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H39" s="65"/>
       <c r="I39" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L39" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M39" s="65"/>
       <c r="N39" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="109" t="s">
-        <v>708</v>
-      </c>
-      <c r="R39" s="110"/>
-      <c r="S39" s="56" t="s">
-        <v>239</v>
+      <c r="Q39" s="64" t="s">
+        <v>707</v>
+      </c>
+      <c r="R39" s="65"/>
+      <c r="S39" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V39" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W39" s="65"/>
       <c r="X39" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Y39" s="40"/>
       <c r="Z39" s="41" t="s">
         <v>9</v>
       </c>
       <c r="AA39" s="64" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AB39" s="65"/>
       <c r="AC39" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AD39" s="36"/>
     </row>
-    <row r="40" spans="1:30" ht="34.200000000000003" customHeight="1">
+    <row r="40" spans="1:30" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -8547,8 +8530,8 @@
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="111"/>
-      <c r="H40" s="112"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="110"/>
       <c r="I40" s="44"/>
       <c r="K40" s="2" t="s">
         <v>22</v>
@@ -8573,7 +8556,6 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="U23:X23"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="V26:W26"/>
@@ -8589,7 +8571,13 @@
     <mergeCell ref="Q30:R30"/>
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="L22:N22"/>
@@ -8613,14 +8601,7 @@
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L26:M26"/>
@@ -8629,6 +8610,10 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="P9:S10"/>
     <mergeCell ref="U9:X10"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Z23:AC23"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:I11"/>
@@ -8645,7 +8630,6 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="K9:N10"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B17:C17"/>
@@ -8667,6 +8651,9 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:C5"/>
@@ -8677,10 +8664,6 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:I8"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="V37:W37"/>
@@ -8692,6 +8675,7 @@
     <mergeCell ref="Q34:R34"/>
     <mergeCell ref="Q35:R35"/>
     <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="V31:W31"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="AA40:AB40"/>
     <mergeCell ref="G38:H38"/>
@@ -8708,9 +8692,6 @@
     <mergeCell ref="V39:W39"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="V36:W36"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V31:W31"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="AA34:AB34"/>
     <mergeCell ref="AA35:AB35"/>
@@ -8721,6 +8702,8 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/Updated time schedule for ICIT 2024.xlsx
+++ b/files/Updated time schedule for ICIT 2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A732AD-66AB-4C3C-80B2-698D44323E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36585E3-BEA1-4FCA-A102-27D70C0B3A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 0" sheetId="13" r:id="rId1"/>
@@ -2860,18 +2860,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -3042,7 +3036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3136,9 +3130,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3180,15 +3171,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3213,134 +3195,137 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3348,14 +3333,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3704,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67372D2F-DEEC-49DB-AA40-0EEFC95CAD54}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -3714,18 +3729,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="62">
+      <c r="A1" s="58">
         <v>45375</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="55" t="s">
         <v>714</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3788,164 +3803,164 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="97">
+      <c r="A5" s="95">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="66" t="s">
         <v>582</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="96"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="6" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="84"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="K11" s="82" t="s">
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="K11" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84"/>
-      <c r="P11" s="82" t="s">
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+      <c r="P11" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
@@ -4008,40 +4023,40 @@
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="102"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="65"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="64" t="s">
+      <c r="L13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="65"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="64" t="s">
+      <c r="Q13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="65"/>
+      <c r="R13" s="61"/>
       <c r="S13" s="10" t="s">
         <v>3</v>
       </c>
@@ -4050,40 +4065,40 @@
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="16" t="s">
         <v>488</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="70"/>
+      <c r="H14" s="97"/>
       <c r="I14" s="16" t="s">
         <v>84</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="64" t="s">
+      <c r="L14" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="M14" s="65"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="16" t="s">
         <v>100</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="64" t="s">
+      <c r="Q14" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="R14" s="65"/>
+      <c r="R14" s="61"/>
       <c r="S14" s="16" t="s">
         <v>357</v>
       </c>
@@ -4092,40 +4107,40 @@
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>506</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="45" t="s">
         <v>478</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="65"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="16" t="s">
         <v>86</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="64" t="s">
+      <c r="L15" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="M15" s="65"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="16" t="s">
         <v>102</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="64" t="s">
+      <c r="Q15" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="R15" s="65"/>
+      <c r="R15" s="61"/>
       <c r="S15" s="16" t="s">
         <v>570</v>
       </c>
@@ -4134,40 +4149,40 @@
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="60" t="s">
         <v>505</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="46" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="45" t="s">
         <v>479</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="65"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="16" t="s">
         <v>88</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="64" t="s">
+      <c r="L16" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="65"/>
+      <c r="M16" s="61"/>
       <c r="N16" s="16" t="s">
         <v>104</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="64" t="s">
+      <c r="Q16" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="R16" s="65"/>
+      <c r="R16" s="61"/>
       <c r="S16" s="16" t="s">
         <v>360</v>
       </c>
@@ -4176,40 +4191,40 @@
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="60" t="s">
         <v>501</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="46" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="45" t="s">
         <v>480</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="16" t="s">
         <v>90</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="64" t="s">
+      <c r="L17" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="65"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="16" t="s">
         <v>106</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="64" t="s">
+      <c r="Q17" s="60" t="s">
         <v>361</v>
       </c>
-      <c r="R17" s="65"/>
+      <c r="R17" s="61"/>
       <c r="S17" s="16" t="s">
         <v>362</v>
       </c>
@@ -4218,40 +4233,40 @@
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="60" t="s">
         <v>502</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="46" t="s">
+      <c r="C18" s="61"/>
+      <c r="D18" s="45" t="s">
         <v>509</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="98" t="s">
         <v>694</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="58" t="s">
+      <c r="H18" s="99"/>
+      <c r="I18" s="54" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="64" t="s">
+      <c r="L18" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="M18" s="65"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="16" t="s">
         <v>108</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="64" t="s">
+      <c r="Q18" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="R18" s="65"/>
+      <c r="R18" s="61"/>
       <c r="S18" s="16" t="s">
         <v>364</v>
       </c>
@@ -4260,40 +4275,40 @@
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="60" t="s">
         <v>503</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="46" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="45" t="s">
         <v>481</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="65"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="16" t="s">
         <v>93</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="64" t="s">
+      <c r="L19" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="65"/>
+      <c r="M19" s="61"/>
       <c r="N19" s="16" t="s">
         <v>110</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="64" t="s">
+      <c r="Q19" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="R19" s="65"/>
+      <c r="R19" s="61"/>
       <c r="S19" s="16" t="s">
         <v>568</v>
       </c>
@@ -4302,40 +4317,40 @@
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="61"/>
+      <c r="D20" s="45" t="s">
         <v>482</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="65"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="16" t="s">
         <v>95</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="64" t="s">
+      <c r="L20" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="M20" s="65"/>
+      <c r="M20" s="61"/>
       <c r="N20" s="16" t="s">
         <v>112</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="R20" s="65"/>
+      <c r="R20" s="61"/>
       <c r="S20" s="16" t="s">
         <v>367</v>
       </c>
@@ -4347,65 +4362,65 @@
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
       <c r="K22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="66" t="s">
+      <c r="L22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
       <c r="P22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="66" t="s">
+      <c r="Q22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
       <c r="U22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="103" t="s">
+      <c r="V22" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
       <c r="Z22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA22" s="103" t="s">
+      <c r="AA22" s="65" t="s">
         <v>512</v>
       </c>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
     </row>
     <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="U23" s="82" t="s">
+      <c r="U23" s="66" t="s">
         <v>511</v>
       </c>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="84"/>
-      <c r="Z23" s="82" t="s">
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="68"/>
+      <c r="Z23" s="66" t="s">
         <v>513</v>
       </c>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="84"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="68"/>
     </row>
     <row r="24" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -4497,40 +4512,40 @@
       <c r="F25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="65"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="64" t="s">
+      <c r="L25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="65"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="64" t="s">
+      <c r="Q25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="65"/>
+      <c r="R25" s="61"/>
       <c r="S25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V25" s="64" t="s">
+      <c r="V25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="65"/>
+      <c r="W25" s="61"/>
       <c r="X25" s="10" t="s">
         <v>3</v>
       </c>
@@ -4538,10 +4553,10 @@
       <c r="Z25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA25" s="64" t="s">
+      <c r="AA25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="65"/>
+      <c r="AB25" s="61"/>
       <c r="AC25" s="10" t="s">
         <v>3</v>
       </c>
@@ -4551,437 +4566,437 @@
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="16" t="s">
         <v>483</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="H26" s="65"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="16" t="s">
         <v>264</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="64" t="s">
+      <c r="L26" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="M26" s="65"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="16" t="s">
         <v>166</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="64" t="s">
+      <c r="Q26" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="R26" s="65"/>
+      <c r="R26" s="61"/>
       <c r="S26" s="16" t="s">
         <v>140</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="64" t="s">
+      <c r="V26" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="W26" s="65"/>
+      <c r="W26" s="61"/>
       <c r="X26" s="16" t="s">
         <v>224</v>
       </c>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="45" t="s">
+      <c r="Z26" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="64" t="s">
+      <c r="AA26" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="AB26" s="65"/>
+      <c r="AB26" s="61"/>
       <c r="AC26" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="AD26" s="45"/>
+      <c r="AD26" s="44"/>
     </row>
     <row r="27" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="16" t="s">
         <v>484</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="H27" s="65"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="16" t="s">
         <v>266</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="65"/>
+      <c r="M27" s="61"/>
       <c r="N27" s="16" t="s">
         <v>167</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="64" t="s">
+      <c r="Q27" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="R27" s="65"/>
+      <c r="R27" s="61"/>
       <c r="S27" s="16" t="s">
         <v>142</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="64" t="s">
+      <c r="V27" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="W27" s="65"/>
+      <c r="W27" s="61"/>
       <c r="X27" s="16" t="s">
         <v>226</v>
       </c>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="45" t="s">
+      <c r="Z27" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AA27" s="64" t="s">
+      <c r="AA27" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="AB27" s="65"/>
+      <c r="AB27" s="61"/>
       <c r="AC27" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="AD27" s="45"/>
+      <c r="AD27" s="44"/>
     </row>
     <row r="28" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="16" t="s">
         <v>485</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="16" t="s">
         <v>268</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="64" t="s">
+      <c r="L28" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="M28" s="65"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="16" t="s">
         <v>169</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="64" t="s">
+      <c r="Q28" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="R28" s="65"/>
+      <c r="R28" s="61"/>
       <c r="S28" s="16" t="s">
         <v>144</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="64" t="s">
+      <c r="V28" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="W28" s="65"/>
+      <c r="W28" s="61"/>
       <c r="X28" s="16" t="s">
         <v>228</v>
       </c>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="45" t="s">
+      <c r="Z28" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA28" s="64" t="s">
+      <c r="AA28" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="AB28" s="65"/>
+      <c r="AB28" s="61"/>
       <c r="AC28" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="AD28" s="45"/>
+      <c r="AD28" s="44"/>
     </row>
     <row r="29" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="16" t="s">
         <v>486</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="H29" s="65"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="16" t="s">
         <v>270</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="64" t="s">
+      <c r="L29" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="M29" s="65"/>
+      <c r="M29" s="61"/>
       <c r="N29" s="16" t="s">
         <v>171</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="64" t="s">
+      <c r="Q29" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="R29" s="65"/>
+      <c r="R29" s="61"/>
       <c r="S29" s="16" t="s">
         <v>146</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V29" s="64" t="s">
+      <c r="V29" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="W29" s="65"/>
+      <c r="W29" s="61"/>
       <c r="X29" s="16" t="s">
         <v>126</v>
       </c>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="45" t="s">
+      <c r="Z29" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AA29" s="64" t="s">
+      <c r="AA29" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="AB29" s="65"/>
+      <c r="AB29" s="61"/>
       <c r="AC29" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="AD29" s="45"/>
+      <c r="AD29" s="44"/>
     </row>
     <row r="30" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="16" t="s">
         <v>487</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="H30" s="65"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="16" t="s">
         <v>272</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="64" t="s">
+      <c r="L30" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="M30" s="65"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="16" t="s">
         <v>173</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="64" t="s">
+      <c r="Q30" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="R30" s="65"/>
+      <c r="R30" s="61"/>
       <c r="S30" s="16" t="s">
         <v>148</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="64" t="s">
+      <c r="V30" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="W30" s="65"/>
+      <c r="W30" s="61"/>
       <c r="X30" s="16" t="s">
         <v>128</v>
       </c>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="45" t="s">
+      <c r="Z30" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AA30" s="64" t="s">
+      <c r="AA30" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="AB30" s="65"/>
+      <c r="AB30" s="61"/>
       <c r="AC30" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="AD30" s="45"/>
+      <c r="AD30" s="44"/>
     </row>
     <row r="31" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="H31" s="65"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="16" t="s">
         <v>276</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="64" t="s">
+      <c r="L31" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="M31" s="65"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="16" t="s">
         <v>175</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="64" t="s">
+      <c r="Q31" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="R31" s="65"/>
+      <c r="R31" s="61"/>
       <c r="S31" s="16" t="s">
         <v>150</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="64" t="s">
+      <c r="V31" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="W31" s="65"/>
+      <c r="W31" s="61"/>
       <c r="X31" s="16" t="s">
         <v>130</v>
       </c>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="45" t="s">
+      <c r="Z31" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="64" t="s">
+      <c r="AA31" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="AB31" s="65"/>
+      <c r="AB31" s="61"/>
       <c r="AC31" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="AD31" s="45"/>
+      <c r="AD31" s="44"/>
     </row>
     <row r="32" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="69"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
       <c r="K32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="67" t="s">
+      <c r="L32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="68"/>
-      <c r="N32" s="69"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="64"/>
       <c r="P32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="67" t="s">
+      <c r="Q32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="R32" s="68"/>
-      <c r="S32" s="69"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="64"/>
       <c r="U32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="67" t="s">
+      <c r="V32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="W32" s="68"/>
-      <c r="X32" s="69"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="64"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="67" t="s">
+      <c r="Z32" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="AA32" s="68" t="s">
+      <c r="AA32" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="69"/>
+      <c r="AB32" s="64"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="47"/>
+      <c r="AD32" s="46"/>
     </row>
     <row r="33" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -5041,7 +5056,7 @@
       <c r="W33" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="X33" s="54" t="s">
+      <c r="X33" s="53" t="s">
         <v>37</v>
       </c>
       <c r="Y33" s="10"/>
@@ -5063,50 +5078,50 @@
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="65"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="64" t="s">
+      <c r="L34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="65"/>
+      <c r="M34" s="61"/>
       <c r="N34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="64" t="s">
+      <c r="Q34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="65"/>
+      <c r="R34" s="61"/>
       <c r="S34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V34" s="64" t="s">
+      <c r="V34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="65"/>
+      <c r="W34" s="61"/>
       <c r="X34" s="10" t="s">
         <v>3</v>
       </c>
@@ -5114,10 +5129,10 @@
       <c r="Z34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA34" s="64" t="s">
+      <c r="AA34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AB34" s="65"/>
+      <c r="AB34" s="61"/>
       <c r="AC34" s="10" t="s">
         <v>3</v>
       </c>
@@ -5127,406 +5142,530 @@
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="64" t="s">
+      <c r="G35" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="H35" s="65"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="16" t="s">
         <v>240</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="64" t="s">
+      <c r="L35" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="M35" s="65"/>
+      <c r="M35" s="61"/>
       <c r="N35" s="16" t="s">
         <v>187</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="64" t="s">
+      <c r="Q35" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="R35" s="65"/>
+      <c r="R35" s="61"/>
       <c r="S35" s="16" t="s">
         <v>287</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="64" t="s">
+      <c r="V35" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="W35" s="65"/>
+      <c r="W35" s="61"/>
       <c r="X35" s="16" t="s">
         <v>114</v>
       </c>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="45" t="s">
+      <c r="Z35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="64" t="s">
+      <c r="AA35" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="AB35" s="65"/>
+      <c r="AB35" s="61"/>
       <c r="AC35" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="AD35" s="45"/>
+      <c r="AD35" s="44"/>
     </row>
     <row r="36" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="16" t="s">
         <v>489</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="H36" s="65"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="16" t="s">
         <v>242</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="64" t="s">
+      <c r="L36" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="M36" s="65"/>
+      <c r="M36" s="61"/>
       <c r="N36" s="16" t="s">
         <v>189</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="64" t="s">
+      <c r="Q36" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="R36" s="65"/>
+      <c r="R36" s="61"/>
       <c r="S36" s="16" t="s">
         <v>565</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V36" s="64" t="s">
+      <c r="V36" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="W36" s="65"/>
+      <c r="W36" s="61"/>
       <c r="X36" s="16" t="s">
         <v>116</v>
       </c>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="45" t="s">
+      <c r="Z36" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AA36" s="64" t="s">
+      <c r="AA36" s="60" t="s">
         <v>403</v>
       </c>
-      <c r="AB36" s="65"/>
+      <c r="AB36" s="61"/>
       <c r="AC36" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="AD36" s="45"/>
+      <c r="AD36" s="44"/>
     </row>
     <row r="37" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="65"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="64" t="s">
+      <c r="G37" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="H37" s="65"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="16" t="s">
         <v>244</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="64" t="s">
+      <c r="L37" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="M37" s="65"/>
+      <c r="M37" s="61"/>
       <c r="N37" s="16" t="s">
         <v>191</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q37" s="64" t="s">
+      <c r="Q37" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="R37" s="65"/>
+      <c r="R37" s="61"/>
       <c r="S37" s="16" t="s">
         <v>290</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V37" s="64" t="s">
+      <c r="V37" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="W37" s="65"/>
+      <c r="W37" s="61"/>
       <c r="X37" s="16" t="s">
         <v>118</v>
       </c>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="45" t="s">
+      <c r="Z37" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AA37" s="64" t="s">
+      <c r="AA37" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="AB37" s="65"/>
+      <c r="AB37" s="61"/>
       <c r="AC37" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="AD37" s="45"/>
+      <c r="AD37" s="44"/>
     </row>
     <row r="38" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="65"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="16" t="s">
         <v>490</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="H38" s="65"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="16" t="s">
         <v>246</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="64" t="s">
+      <c r="L38" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="M38" s="65"/>
+      <c r="M38" s="61"/>
       <c r="N38" s="16" t="s">
         <v>193</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="64" t="s">
+      <c r="Q38" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="R38" s="65"/>
+      <c r="R38" s="61"/>
       <c r="S38" s="16" t="s">
         <v>292</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V38" s="64" t="s">
+      <c r="V38" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="W38" s="70"/>
+      <c r="W38" s="97"/>
       <c r="X38" s="16" t="s">
         <v>120</v>
       </c>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="45" t="s">
+      <c r="Z38" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA38" s="64" t="s">
+      <c r="AA38" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="AB38" s="65"/>
+      <c r="AB38" s="61"/>
       <c r="AC38" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="AD38" s="45"/>
+      <c r="AD38" s="44"/>
     </row>
     <row r="39" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="65"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="16" t="s">
         <v>491</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="64" t="s">
+      <c r="G39" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="H39" s="65"/>
+      <c r="H39" s="61"/>
       <c r="I39" s="16" t="s">
         <v>248</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="64" t="s">
+      <c r="L39" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="M39" s="65"/>
+      <c r="M39" s="61"/>
       <c r="N39" s="16" t="s">
         <v>196</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="64" t="s">
+      <c r="Q39" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="R39" s="65"/>
+      <c r="R39" s="61"/>
       <c r="S39" s="16" t="s">
         <v>294</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V39" s="64" t="s">
+      <c r="V39" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="W39" s="70"/>
+      <c r="W39" s="97"/>
       <c r="X39" s="16" t="s">
         <v>122</v>
       </c>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="45" t="s">
+      <c r="Z39" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AA39" s="64" t="s">
+      <c r="AA39" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="AB39" s="65"/>
+      <c r="AB39" s="61"/>
       <c r="AC39" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="AD39" s="45"/>
+      <c r="AD39" s="44"/>
     </row>
     <row r="40" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="65"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="16" t="s">
         <v>492</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="64" t="s">
+      <c r="G40" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="H40" s="71"/>
-      <c r="I40" s="48" t="s">
+      <c r="H40" s="96"/>
+      <c r="I40" s="47" t="s">
         <v>250</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="64" t="s">
+      <c r="L40" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="M40" s="65"/>
+      <c r="M40" s="61"/>
       <c r="N40" s="16" t="s">
         <v>198</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q40" s="64" t="s">
+      <c r="Q40" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="R40" s="65"/>
+      <c r="R40" s="61"/>
       <c r="S40" s="16" t="s">
         <v>374</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V40" s="64" t="s">
+      <c r="V40" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="W40" s="65"/>
+      <c r="W40" s="61"/>
       <c r="X40" s="16" t="s">
         <v>124</v>
       </c>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="45" t="s">
+      <c r="Z40" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AA40" s="64" t="s">
+      <c r="AA40" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="AB40" s="65"/>
+      <c r="AB40" s="61"/>
       <c r="AC40" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="AD40" s="45"/>
+      <c r="AD40" s="44"/>
     </row>
     <row r="41" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="I41" s="49"/>
-      <c r="K41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="Z41" s="51"/>
+      <c r="I41" s="48"/>
+      <c r="K41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="Z41" s="50"/>
     </row>
     <row r="42" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="U42" s="50"/>
+      <c r="U42" s="49"/>
     </row>
     <row r="43" spans="1:30" ht="49.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="52">
         <v>0.79166666666666663</v>
       </c>
-      <c r="U43" s="50"/>
+      <c r="U43" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="U9:X10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA30:AB30"/>
     <mergeCell ref="Q30:R30"/>
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="G31:H31"/>
@@ -5551,130 +5690,6 @@
     <mergeCell ref="AA26:AB26"/>
     <mergeCell ref="AA27:AB27"/>
     <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="U9:X10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5723,209 +5738,209 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="97">
+      <c r="A5" s="95">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="66" t="s">
         <v>582</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="96"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="84"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="66" t="s">
         <v>594</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
     </row>
     <row r="10" spans="1:24" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="66" t="s">
         <v>599</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
     </row>
     <row r="12" spans="1:24" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
       <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
       <c r="K12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="P12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="66" t="s">
+      <c r="Q12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
       <c r="U12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="66" t="s">
+      <c r="V12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
     </row>
     <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="K13" s="82" t="s">
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="K13" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84"/>
-      <c r="P13" s="82" t="s">
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+      <c r="P13" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="U13" s="105" t="s">
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="U13" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="108"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="103"/>
     </row>
     <row r="14" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -5979,48 +5994,48 @@
       <c r="U14" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="65"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="64" t="s">
+      <c r="L15" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="65"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="64" t="s">
+      <c r="Q15" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="65"/>
+      <c r="R15" s="61"/>
       <c r="S15" s="10" t="s">
         <v>3</v>
       </c>
@@ -6033,40 +6048,40 @@
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="16" t="s">
         <v>230</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="H16" s="65"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="16" t="s">
         <v>689</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="64" t="s">
+      <c r="L16" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="M16" s="65"/>
+      <c r="M16" s="61"/>
       <c r="N16" s="16" t="s">
         <v>200</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="64" t="s">
+      <c r="Q16" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="R16" s="65"/>
+      <c r="R16" s="61"/>
       <c r="S16" s="16" t="s">
         <v>414</v>
       </c>
@@ -6077,40 +6092,40 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="16" t="s">
         <v>232</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="16" t="s">
         <v>307</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="64" t="s">
+      <c r="L17" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="M17" s="65"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="16" t="s">
         <v>202</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="64" t="s">
+      <c r="Q17" s="60" t="s">
         <v>415</v>
       </c>
-      <c r="R17" s="65"/>
+      <c r="R17" s="61"/>
       <c r="S17" s="16" t="s">
         <v>416</v>
       </c>
@@ -6121,40 +6136,40 @@
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="16" t="s">
         <v>183</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="H18" s="65"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="16" t="s">
         <v>309</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="64" t="s">
+      <c r="L18" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="M18" s="70"/>
+      <c r="M18" s="97"/>
       <c r="N18" s="16" t="s">
         <v>204</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="64" t="s">
+      <c r="Q18" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="R18" s="65"/>
+      <c r="R18" s="61"/>
       <c r="S18" s="16" t="s">
         <v>418</v>
       </c>
@@ -6165,40 +6180,40 @@
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="16" t="s">
         <v>235</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="H19" s="65"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="16" t="s">
         <v>602</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="64" t="s">
+      <c r="L19" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="M19" s="65"/>
+      <c r="M19" s="61"/>
       <c r="N19" s="16" t="s">
         <v>206</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="64" t="s">
+      <c r="Q19" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="R19" s="65"/>
+      <c r="R19" s="61"/>
       <c r="S19" s="16" t="s">
         <v>420</v>
       </c>
@@ -6209,40 +6224,40 @@
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="16" t="s">
         <v>237</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="H20" s="65"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="16" t="s">
         <v>317</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="64" t="s">
+      <c r="L20" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="M20" s="65"/>
+      <c r="M20" s="61"/>
       <c r="N20" s="16" t="s">
         <v>208</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="R20" s="65"/>
+      <c r="R20" s="61"/>
       <c r="S20" s="16" t="s">
         <v>676</v>
       </c>
@@ -6253,40 +6268,40 @@
       <c r="A21" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="16" t="s">
         <v>185</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="16" t="s">
         <v>319</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="64" t="s">
+      <c r="L21" s="60" t="s">
         <v>433</v>
       </c>
-      <c r="M21" s="65"/>
+      <c r="M21" s="61"/>
       <c r="N21" s="16" t="s">
         <v>434</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="64" t="s">
+      <c r="Q21" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="R21" s="65"/>
+      <c r="R21" s="61"/>
       <c r="S21" s="16" t="s">
         <v>677</v>
       </c>
@@ -6299,43 +6314,43 @@
       <c r="A22" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
       <c r="K22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="67" t="s">
+      <c r="L22" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="68"/>
-      <c r="N22" s="69"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="64"/>
       <c r="P22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="67" t="s">
+      <c r="Q22" s="62" t="s">
         <v>500</v>
       </c>
-      <c r="R22" s="68"/>
-      <c r="S22" s="69"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="64"/>
       <c r="U22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V22" s="67" t="s">
+      <c r="V22" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="W22" s="68"/>
-      <c r="X22" s="69"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="64"/>
     </row>
     <row r="23" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -6387,48 +6402,48 @@
         <v>47</v>
       </c>
       <c r="U23" s="104"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="65"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="64" t="s">
+      <c r="L24" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="65"/>
+      <c r="M24" s="61"/>
       <c r="N24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q24" s="64" t="s">
+      <c r="Q24" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="R24" s="65"/>
+      <c r="R24" s="61"/>
       <c r="S24" s="10" t="s">
         <v>3</v>
       </c>
@@ -6442,88 +6457,88 @@
       <c r="A25" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="60" t="s">
         <v>435</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="33" t="s">
         <v>436</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="H25" s="65"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="16" t="s">
         <v>589</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="64" t="s">
+      <c r="L25" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="M25" s="65"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="16" t="s">
         <v>325</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="64" t="s">
+      <c r="Q25" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="R25" s="65"/>
+      <c r="R25" s="61"/>
       <c r="S25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U25" s="105" t="s">
+      <c r="U25" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
       <c r="X25" s="22"/>
     </row>
     <row r="26" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="33" t="s">
         <v>609</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="H26" s="65"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="16" t="s">
         <v>312</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="64" t="s">
+      <c r="L26" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="M26" s="65"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="64" t="s">
+      <c r="Q26" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="R26" s="65"/>
+      <c r="R26" s="61"/>
       <c r="S26" s="16" t="s">
         <v>60</v>
       </c>
@@ -6539,40 +6554,40 @@
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="60" t="s">
         <v>438</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="33" t="s">
         <v>439</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="H27" s="65"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="16" t="s">
         <v>314</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="M27" s="65"/>
+      <c r="M27" s="61"/>
       <c r="N27" s="16" t="s">
         <v>329</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" s="64" t="s">
+      <c r="Q27" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="R27" s="65"/>
+      <c r="R27" s="61"/>
       <c r="S27" s="16" t="s">
         <v>62</v>
       </c>
@@ -6588,40 +6603,40 @@
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="60" t="s">
         <v>440</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="33" t="s">
         <v>441</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="16" t="s">
         <v>138</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="64" t="s">
+      <c r="L28" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="M28" s="65"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="16" t="s">
         <v>331</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q28" s="64" t="s">
+      <c r="Q28" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="R28" s="65"/>
+      <c r="R28" s="61"/>
       <c r="S28" s="16" t="s">
         <v>64</v>
       </c>
@@ -6632,40 +6647,40 @@
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="33" t="s">
         <v>443</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="H29" s="65"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="16" t="s">
         <v>591</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="64" t="s">
+      <c r="L29" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="M29" s="65"/>
+      <c r="M29" s="61"/>
       <c r="N29" s="16" t="s">
         <v>333</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q29" s="64" t="s">
+      <c r="Q29" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="R29" s="65"/>
+      <c r="R29" s="61"/>
       <c r="S29" s="16" t="s">
         <v>66</v>
       </c>
@@ -6676,40 +6691,40 @@
       <c r="A30" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="60" t="s">
         <v>444</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="33" t="s">
         <v>445</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="H30" s="65"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="16" t="s">
         <v>323</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="64" t="s">
+      <c r="L30" s="60" t="s">
         <v>476</v>
       </c>
-      <c r="M30" s="65"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="16" t="s">
         <v>477</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="64" t="s">
+      <c r="Q30" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="R30" s="65"/>
+      <c r="R30" s="61"/>
       <c r="S30" s="16" t="s">
         <v>68</v>
       </c>
@@ -6728,6 +6743,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="P13:S13"/>
     <mergeCell ref="U25:W25"/>
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="U23:W23"/>
@@ -6744,79 +6832,6 @@
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6827,8 +6842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0A72A6-F728-4273-B217-6595B7D29A78}">
   <dimension ref="A3:AD40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="W21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6837,169 +6852,169 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="97">
+      <c r="A5" s="95">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="66" t="s">
         <v>582</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="96"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="84"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="K11" s="82" t="s">
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="K11" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84"/>
-      <c r="P11" s="82" t="s">
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+      <c r="P11" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
@@ -7069,30 +7084,30 @@
       <c r="F13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="65"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="64" t="s">
+      <c r="L13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="65"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="64" t="s">
+      <c r="Q13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="65"/>
+      <c r="R13" s="61"/>
       <c r="S13" s="31" t="s">
         <v>3</v>
       </c>
@@ -7105,86 +7120,86 @@
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="33" t="s">
         <v>498</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="60" t="s">
         <v>581</v>
       </c>
-      <c r="H14" s="65"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="16" t="s">
         <v>580</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="64" t="s">
+      <c r="L14" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="M14" s="65"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="16" t="s">
         <v>390</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="64" t="s">
+      <c r="Q14" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="R14" s="65"/>
+      <c r="R14" s="61"/>
       <c r="S14" s="33" t="s">
         <v>152</v>
       </c>
       <c r="U14" s="34"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
     </row>
     <row r="15" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="33" t="s">
         <v>493</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="60" t="s">
         <v>579</v>
       </c>
-      <c r="H15" s="65"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="16" t="s">
         <v>578</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="64" t="s">
+      <c r="L15" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="M15" s="65"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="16" t="s">
         <v>392</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="64" t="s">
+      <c r="Q15" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="R15" s="65"/>
+      <c r="R15" s="61"/>
       <c r="S15" s="33" t="s">
         <v>154</v>
       </c>
@@ -7197,40 +7212,40 @@
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="16" t="s">
         <v>497</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="H16" s="65"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="16" t="s">
         <v>576</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="64" t="s">
+      <c r="L16" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="M16" s="65"/>
+      <c r="M16" s="61"/>
       <c r="N16" s="16" t="s">
         <v>394</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="64" t="s">
+      <c r="Q16" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="R16" s="65"/>
+      <c r="R16" s="61"/>
       <c r="S16" s="33" t="s">
         <v>156</v>
       </c>
@@ -7244,40 +7259,40 @@
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="16" t="s">
         <v>494</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="60" t="s">
         <v>575</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="16" t="s">
         <v>574</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="64" t="s">
+      <c r="L17" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="M17" s="65"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="64" t="s">
+      <c r="Q17" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="R17" s="65"/>
+      <c r="R17" s="61"/>
       <c r="S17" s="33" t="s">
         <v>158</v>
       </c>
@@ -7290,40 +7305,40 @@
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="16" t="s">
         <v>495</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="60" t="s">
         <v>572</v>
       </c>
-      <c r="H18" s="65"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="16" t="s">
         <v>573</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="64" t="s">
+      <c r="L18" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="M18" s="65"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="16" t="s">
         <v>398</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="64" t="s">
+      <c r="Q18" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="R18" s="65"/>
+      <c r="R18" s="61"/>
       <c r="S18" s="33" t="s">
         <v>160</v>
       </c>
@@ -7336,40 +7351,40 @@
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="16" t="s">
         <v>496</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="H19" s="65"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="16" t="s">
         <v>601</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="64" t="s">
+      <c r="L19" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="M19" s="65"/>
+      <c r="M19" s="61"/>
       <c r="N19" s="16" t="s">
         <v>400</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="64" t="s">
+      <c r="Q19" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="R19" s="65"/>
+      <c r="R19" s="61"/>
       <c r="S19" s="33" t="s">
         <v>162</v>
       </c>
@@ -7382,40 +7397,40 @@
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="16" t="s">
         <v>590</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="H20" s="65"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="16" t="s">
         <v>377</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="64" t="s">
+      <c r="L20" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="M20" s="65"/>
+      <c r="M20" s="61"/>
       <c r="N20" s="16" t="s">
         <v>210</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="R20" s="65"/>
+      <c r="R20" s="61"/>
       <c r="S20" s="33" t="s">
         <v>164</v>
       </c>
@@ -7428,65 +7443,65 @@
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
       <c r="K22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="66" t="s">
+      <c r="L22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
       <c r="P22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="66" t="s">
+      <c r="Q22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
       <c r="U22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="103" t="s">
+      <c r="V22" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
       <c r="Z22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA22" s="103" t="s">
+      <c r="AA22" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
     </row>
     <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="U23" s="82" t="s">
+      <c r="U23" s="66" t="s">
         <v>514</v>
       </c>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Z23" s="83" t="s">
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Z23" s="67" t="s">
         <v>513</v>
       </c>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
     </row>
     <row r="24" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -7495,7 +7510,7 @@
       <c r="B24" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -7540,26 +7555,26 @@
       <c r="U24" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="V24" s="11" t="s">
+      <c r="V24" s="108" t="s">
         <v>550</v>
       </c>
-      <c r="W24" s="57" t="s">
+      <c r="W24" s="108" t="s">
         <v>704</v>
       </c>
-      <c r="X24" s="10" t="s">
+      <c r="X24" s="109" t="s">
         <v>701</v>
       </c>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="39" t="s">
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="111" t="s">
         <v>657</v>
       </c>
-      <c r="AA24" s="57" t="s">
+      <c r="AA24" s="108" t="s">
         <v>699</v>
       </c>
-      <c r="AB24" s="54" t="s">
+      <c r="AB24" s="112" t="s">
         <v>686</v>
       </c>
-      <c r="AC24" s="31" t="s">
+      <c r="AC24" s="113" t="s">
         <v>700</v>
       </c>
       <c r="AD24" s="37"/>
@@ -7568,62 +7583,62 @@
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="65"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="64" t="s">
+      <c r="L25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="65"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="64" t="s">
+      <c r="Q25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="65"/>
+      <c r="R25" s="61"/>
       <c r="S25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V25" s="64" t="s">
+      <c r="V25" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="65"/>
-      <c r="X25" s="10" t="s">
+      <c r="W25" s="115"/>
+      <c r="X25" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="38" t="s">
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="AA25" s="64" t="s">
+      <c r="AA25" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="31" t="s">
+      <c r="AB25" s="115"/>
+      <c r="AC25" s="113" t="s">
         <v>499</v>
       </c>
       <c r="AD25" s="32"/>
@@ -7632,62 +7647,62 @@
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="16" t="s">
         <v>252</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="H26" s="65"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="16" t="s">
         <v>379</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="64" t="s">
+      <c r="L26" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="M26" s="65"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="16" t="s">
         <v>214</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="64" t="s">
+      <c r="Q26" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="R26" s="65"/>
+      <c r="R26" s="61"/>
       <c r="S26" s="16" t="s">
         <v>346</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="64" t="s">
+      <c r="V26" s="114" t="s">
         <v>277</v>
       </c>
-      <c r="W26" s="65"/>
-      <c r="X26" s="16" t="s">
+      <c r="W26" s="115"/>
+      <c r="X26" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="41" t="s">
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="64" t="s">
+      <c r="AA26" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="33" t="s">
+      <c r="AB26" s="115"/>
+      <c r="AC26" s="120" t="s">
         <v>463</v>
       </c>
       <c r="AD26" s="36"/>
@@ -7696,62 +7711,62 @@
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="16" t="s">
         <v>254</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="H27" s="65"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="16" t="s">
         <v>381</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="M27" s="65"/>
+      <c r="M27" s="61"/>
       <c r="N27" s="16" t="s">
         <v>216</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="64" t="s">
+      <c r="Q27" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="R27" s="65"/>
+      <c r="R27" s="61"/>
       <c r="S27" s="16" t="s">
         <v>348</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="64" t="s">
+      <c r="V27" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="W27" s="65"/>
-      <c r="X27" s="16" t="s">
+      <c r="W27" s="115"/>
+      <c r="X27" s="117" t="s">
         <v>274</v>
       </c>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="41" t="s">
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="AA27" s="64" t="s">
+      <c r="AA27" s="114" t="s">
         <v>464</v>
       </c>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="33" t="s">
+      <c r="AB27" s="115"/>
+      <c r="AC27" s="120" t="s">
         <v>681</v>
       </c>
       <c r="AD27" s="36"/>
@@ -7760,62 +7775,62 @@
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="16" t="s">
         <v>256</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="16" t="s">
         <v>603</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="64" t="s">
+      <c r="L28" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="M28" s="65"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="16" t="s">
         <v>218</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="64" t="s">
+      <c r="Q28" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="R28" s="65"/>
+      <c r="R28" s="61"/>
       <c r="S28" s="16" t="s">
         <v>350</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="64" t="s">
+      <c r="V28" s="114" t="s">
         <v>279</v>
       </c>
-      <c r="W28" s="65"/>
-      <c r="X28" s="16" t="s">
+      <c r="W28" s="115"/>
+      <c r="X28" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="41" t="s">
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="AA28" s="64" t="s">
+      <c r="AA28" s="114" t="s">
         <v>465</v>
       </c>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="33" t="s">
+      <c r="AB28" s="115"/>
+      <c r="AC28" s="120" t="s">
         <v>466</v>
       </c>
       <c r="AD28" s="36"/>
@@ -7824,62 +7839,62 @@
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="16" t="s">
         <v>258</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="H29" s="65"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="16" t="s">
         <v>384</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="64" t="s">
+      <c r="L29" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="M29" s="65"/>
+      <c r="M29" s="61"/>
       <c r="N29" s="16" t="s">
         <v>220</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="64" t="s">
+      <c r="Q29" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="R29" s="65"/>
+      <c r="R29" s="61"/>
       <c r="S29" s="16" t="s">
         <v>352</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V29" s="111" t="s">
+      <c r="V29" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="W29" s="112"/>
-      <c r="X29" s="56" t="s">
+      <c r="W29" s="115"/>
+      <c r="X29" s="120" t="s">
         <v>459</v>
       </c>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="41" t="s">
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="AA29" s="111" t="s">
+      <c r="AA29" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="AB29" s="112"/>
-      <c r="AC29" s="55" t="s">
+      <c r="AB29" s="115"/>
+      <c r="AC29" s="117" t="s">
         <v>283</v>
       </c>
       <c r="AD29" s="36"/>
@@ -7888,62 +7903,62 @@
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="16" t="s">
         <v>260</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="H30" s="65"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="16" t="s">
         <v>386</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="64" t="s">
+      <c r="L30" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="M30" s="65"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="16" t="s">
         <v>222</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="64" t="s">
+      <c r="Q30" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="R30" s="65"/>
+      <c r="R30" s="61"/>
       <c r="S30" s="16" t="s">
         <v>354</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="111" t="s">
+      <c r="V30" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="W30" s="112"/>
-      <c r="X30" s="56" t="s">
+      <c r="W30" s="115"/>
+      <c r="X30" s="120" t="s">
         <v>461</v>
       </c>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="41" t="s">
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="AA30" s="111" t="s">
+      <c r="AA30" s="114" t="s">
         <v>284</v>
       </c>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="55" t="s">
+      <c r="AB30" s="115"/>
+      <c r="AC30" s="117" t="s">
         <v>285</v>
       </c>
       <c r="AD30" s="36"/>
@@ -7952,62 +7967,62 @@
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="16" t="s">
         <v>262</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="H31" s="65"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="16" t="s">
         <v>388</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="64" t="s">
+      <c r="L31" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="M31" s="65"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="16" t="s">
         <v>212</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="64" t="s">
+      <c r="Q31" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="R31" s="65"/>
+      <c r="R31" s="61"/>
       <c r="S31" s="16" t="s">
         <v>566</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="111" t="s">
+      <c r="V31" s="114" t="s">
         <v>702</v>
       </c>
-      <c r="W31" s="112"/>
-      <c r="X31" s="56" t="s">
+      <c r="W31" s="115"/>
+      <c r="X31" s="120" t="s">
         <v>703</v>
       </c>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="41" t="s">
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="111" t="s">
+      <c r="AA31" s="114" t="s">
         <v>705</v>
       </c>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="55" t="s">
+      <c r="AB31" s="115"/>
+      <c r="AC31" s="117" t="s">
         <v>281</v>
       </c>
       <c r="AD31" s="36"/>
@@ -8016,52 +8031,52 @@
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="69"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
       <c r="K32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="67" t="s">
+      <c r="L32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="68"/>
-      <c r="N32" s="69"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="64"/>
       <c r="P32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="67" t="s">
+      <c r="Q32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="R32" s="68"/>
-      <c r="S32" s="69"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="64"/>
       <c r="U32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="67" t="s">
+      <c r="V32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="68" t="s">
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="AA32" s="68" t="s">
+      <c r="AA32" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="42"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="41"/>
       <c r="AD32" s="35"/>
     </row>
     <row r="33" spans="1:30" s="29" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -8125,7 +8140,7 @@
       <c r="X33" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="Z33" s="43" t="s">
+      <c r="Z33" s="42" t="s">
         <v>658</v>
       </c>
       <c r="AA33" s="27" t="s">
@@ -8142,60 +8157,60 @@
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="65"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="64" t="s">
+      <c r="L34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="65"/>
+      <c r="M34" s="61"/>
       <c r="N34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="64" t="s">
+      <c r="Q34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="65"/>
+      <c r="R34" s="61"/>
       <c r="S34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V34" s="64" t="s">
+      <c r="V34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="65"/>
+      <c r="W34" s="61"/>
       <c r="X34" s="31" t="s">
         <v>3</v>
       </c>
       <c r="Z34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AA34" s="64" t="s">
+      <c r="AA34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AB34" s="65"/>
+      <c r="AB34" s="61"/>
       <c r="AC34" s="31" t="s">
         <v>3</v>
       </c>
@@ -8204,61 +8219,61 @@
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="60" t="s">
         <v>423</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="16" t="s">
         <v>424</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="64" t="s">
+      <c r="G35" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="H35" s="65"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="16" t="s">
         <v>569</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="64" t="s">
+      <c r="L35" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="M35" s="65"/>
+      <c r="M35" s="61"/>
       <c r="N35" s="16" t="s">
         <v>335</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="64" t="s">
+      <c r="Q35" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="R35" s="65"/>
+      <c r="R35" s="61"/>
       <c r="S35" s="16" t="s">
         <v>177</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="64" t="s">
+      <c r="V35" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="W35" s="65"/>
+      <c r="W35" s="61"/>
       <c r="X35" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="41" t="s">
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="64" t="s">
+      <c r="AA35" s="60" t="s">
         <v>467</v>
       </c>
-      <c r="AB35" s="65"/>
+      <c r="AB35" s="61"/>
       <c r="AC35" s="33" t="s">
         <v>468</v>
       </c>
@@ -8268,61 +8283,61 @@
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="60" t="s">
         <v>425</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="16" t="s">
         <v>426</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="60" t="s">
         <v>369</v>
       </c>
-      <c r="H36" s="65"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="16" t="s">
         <v>370</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="64" t="s">
+      <c r="L36" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="M36" s="65"/>
+      <c r="M36" s="61"/>
       <c r="N36" s="16" t="s">
         <v>337</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="64" t="s">
+      <c r="Q36" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="R36" s="65"/>
+      <c r="R36" s="61"/>
       <c r="S36" s="16" t="s">
         <v>179</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V36" s="64" t="s">
+      <c r="V36" s="60" t="s">
         <v>448</v>
       </c>
-      <c r="W36" s="65"/>
+      <c r="W36" s="61"/>
       <c r="X36" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="41" t="s">
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AA36" s="64" t="s">
+      <c r="AA36" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="AB36" s="65"/>
+      <c r="AB36" s="61"/>
       <c r="AC36" s="33" t="s">
         <v>470</v>
       </c>
@@ -8332,61 +8347,61 @@
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="C37" s="65"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="16" t="s">
         <v>428</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="64" t="s">
+      <c r="G37" s="60" t="s">
         <v>371</v>
       </c>
-      <c r="H37" s="65"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="16" t="s">
         <v>372</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="64" t="s">
+      <c r="L37" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="M37" s="65"/>
+      <c r="M37" s="61"/>
       <c r="N37" s="16" t="s">
         <v>339</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q37" s="64" t="s">
+      <c r="Q37" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="R37" s="65"/>
+      <c r="R37" s="61"/>
       <c r="S37" s="16" t="s">
         <v>181</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V37" s="64" t="s">
+      <c r="V37" s="60" t="s">
         <v>454</v>
       </c>
-      <c r="W37" s="65"/>
+      <c r="W37" s="61"/>
       <c r="X37" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="41" t="s">
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AA37" s="64" t="s">
+      <c r="AA37" s="60" t="s">
         <v>471</v>
       </c>
-      <c r="AB37" s="65"/>
+      <c r="AB37" s="61"/>
       <c r="AC37" s="33" t="s">
         <v>472</v>
       </c>
@@ -8396,61 +8411,61 @@
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="60" t="s">
         <v>429</v>
       </c>
-      <c r="C38" s="65"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="16" t="s">
         <v>430</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="60" t="s">
         <v>450</v>
       </c>
-      <c r="H38" s="65"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="33" t="s">
         <v>451</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="64" t="s">
+      <c r="L38" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="M38" s="65"/>
+      <c r="M38" s="61"/>
       <c r="N38" s="16" t="s">
         <v>341</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="64" t="s">
+      <c r="Q38" s="60" t="s">
         <v>708</v>
       </c>
-      <c r="R38" s="65"/>
+      <c r="R38" s="61"/>
       <c r="S38" s="16" t="s">
         <v>233</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V38" s="64" t="s">
+      <c r="V38" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="W38" s="65"/>
+      <c r="W38" s="61"/>
       <c r="X38" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="41" t="s">
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AA38" s="64" t="s">
+      <c r="AA38" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="AB38" s="65"/>
+      <c r="AB38" s="61"/>
       <c r="AC38" s="33" t="s">
         <v>474</v>
       </c>
@@ -8460,61 +8475,61 @@
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="60" t="s">
         <v>431</v>
       </c>
-      <c r="C39" s="65"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="16" t="s">
         <v>432</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="64" t="s">
+      <c r="G39" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="H39" s="65"/>
+      <c r="H39" s="61"/>
       <c r="I39" s="33" t="s">
         <v>453</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="64" t="s">
+      <c r="L39" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="M39" s="65"/>
+      <c r="M39" s="61"/>
       <c r="N39" s="16" t="s">
         <v>343</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="64" t="s">
+      <c r="Q39" s="60" t="s">
         <v>707</v>
       </c>
-      <c r="R39" s="65"/>
+      <c r="R39" s="61"/>
       <c r="S39" s="16" t="s">
         <v>238</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V39" s="64" t="s">
+      <c r="V39" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="W39" s="65"/>
+      <c r="W39" s="61"/>
       <c r="X39" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="41" t="s">
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AA39" s="64" t="s">
+      <c r="AA39" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="AB39" s="65"/>
+      <c r="AB39" s="61"/>
       <c r="AC39" s="33" t="s">
         <v>564</v>
       </c>
@@ -8524,15 +8539,15 @@
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="45"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="44"/>
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="109"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="44"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="43"/>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
@@ -8542,42 +8557,120 @@
       <c r="U40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V40" s="64"/>
-      <c r="W40" s="65"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="61"/>
       <c r="X40" s="33"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="41" t="s">
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="65"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="61"/>
       <c r="AC40" s="33"/>
       <c r="AD40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="U9:X10"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Z23:AC23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="L22:N22"/>
@@ -8602,108 +8695,30 @@
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="U9:X10"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/Updated time schedule for ICIT 2024.xlsx
+++ b/files/Updated time schedule for ICIT 2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36585E3-BEA1-4FCA-A102-27D70C0B3A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61A5AE9F-C8D6-4068-A64E-B01D751CB9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 0" sheetId="13" r:id="rId1"/>
@@ -13,10 +13,21 @@
     <sheet name="Day 2" sheetId="11" r:id="rId3"/>
     <sheet name="Day 3" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -209,6 +220,9 @@
     <t>Keynote Speech 3 (Ball room)</t>
   </si>
   <si>
+    <t>17:00 - 21:00</t>
+  </si>
+  <si>
     <t>IClT24-000339</t>
   </si>
   <si>
@@ -960,9 +974,6 @@
 </t>
   </si>
   <si>
-    <t>ICIT24-000385</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interconnection of renewable sources : Multi-Active-Bridge Converter
 </t>
   </si>
@@ -979,9 +990,6 @@
   <si>
     <t xml:space="preserve">Averaged models and analysis of a three-phase CSI as a dual of a three-phase VSI
 </t>
-  </si>
-  <si>
-    <t>ICIT24-000386</t>
   </si>
   <si>
     <t xml:space="preserve">Performance Enhancement of Renewable System via Hybrid Switched-Inductor-Capacitor Converter
@@ -2718,7 +2726,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19:00 - 21:00</t>
+    <t>ICIT24-000386</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICIT24-000385</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2726,7 +2738,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2854,18 +2866,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -3036,7 +3067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3130,6 +3161,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3168,10 +3202,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3195,6 +3253,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3204,110 +3265,122 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3321,56 +3394,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3719,28 +3753,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67372D2F-DEEC-49DB-AA40-0EEFC95CAD54}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="58">
+    <row r="1" spans="1:4">
+      <c r="A1" s="67">
         <v>45375</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>714</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3759,11 +3793,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7950FE-D522-4BF8-B0AB-A197EB040E32}">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:I18"/>
+    <sheetView tabSelected="1" topLeftCell="H27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
@@ -3797,708 +3831,708 @@
     <col min="30" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="T1" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="21" customHeight="1">
+      <c r="A3" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-    </row>
-    <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+    </row>
+    <row r="4" spans="1:24" ht="14.4" customHeight="1">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-    </row>
-    <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="95">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+    </row>
+    <row r="5" spans="1:24" ht="20.399999999999999">
+      <c r="A5" s="102">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.6">
       <c r="A6" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>582</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>581</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.6">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.6">
       <c r="A8" s="5"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-    </row>
-    <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.4" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-    </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-    </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1">
+      <c r="A11" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="K11" s="66" t="s">
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="K11" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="68"/>
-      <c r="P11" s="66" t="s">
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="89"/>
+      <c r="P11" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="28.05" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N12" s="30" t="s">
         <v>36</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="25.05" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="61"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="61"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="60" t="s">
+      <c r="Q13" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="61"/>
+      <c r="R13" s="70"/>
       <c r="S13" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="40.200000000000003" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="61"/>
+      <c r="B14" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="70"/>
       <c r="D14" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="97"/>
+      <c r="G14" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="75"/>
       <c r="I14" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="61"/>
+      <c r="L14" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="70"/>
       <c r="N14" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="60" t="s">
+      <c r="Q14" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="R14" s="70"/>
+      <c r="S14" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="R14" s="61"/>
-      <c r="S14" s="16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:24" ht="44.4" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>506</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="45" t="s">
-        <v>478</v>
+      <c r="B15" s="69" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="46" t="s">
+        <v>477</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="61"/>
+      <c r="G15" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="70"/>
       <c r="I15" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="61"/>
+      <c r="L15" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="70"/>
       <c r="N15" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="R15" s="61"/>
+      <c r="Q15" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="R15" s="70"/>
       <c r="S15" s="16" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="40.200000000000003" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="60" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="45" t="s">
-        <v>479</v>
+      <c r="B16" s="69" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="46" t="s">
+        <v>478</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="61"/>
+      <c r="G16" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="70"/>
       <c r="I16" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="61"/>
+      <c r="L16" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="70"/>
       <c r="N16" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="Q16" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="R16" s="70"/>
+      <c r="S16" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="R16" s="61"/>
-      <c r="S16" s="16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:30" ht="48" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="60" t="s">
-        <v>501</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="45" t="s">
-        <v>480</v>
+      <c r="B17" s="69" t="s">
+        <v>500</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="46" t="s">
+        <v>479</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="61"/>
+      <c r="G17" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="70"/>
       <c r="I17" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="61"/>
+      <c r="L17" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="70"/>
       <c r="N17" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="R17" s="70"/>
+      <c r="S17" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="R17" s="61"/>
-      <c r="S17" s="16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:30" ht="25.05" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>502</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="45" t="s">
-        <v>509</v>
+      <c r="B18" s="69" t="s">
+        <v>501</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="46" t="s">
+        <v>508</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="98" t="s">
-        <v>694</v>
-      </c>
-      <c r="H18" s="99"/>
+      <c r="G18" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="H18" s="78"/>
       <c r="I18" s="54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="M18" s="61"/>
+      <c r="L18" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="70"/>
       <c r="N18" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="60" t="s">
+      <c r="Q18" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="R18" s="70"/>
+      <c r="S18" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="R18" s="61"/>
-      <c r="S18" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:30" ht="52.8" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="60" t="s">
-        <v>503</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="45" t="s">
-        <v>481</v>
+      <c r="B19" s="69" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="46" t="s">
+        <v>480</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="61"/>
+      <c r="G19" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="70"/>
       <c r="I19" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="61"/>
+      <c r="L19" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="70"/>
       <c r="N19" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="R19" s="61"/>
+      <c r="Q19" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="R19" s="70"/>
       <c r="S19" s="16" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="25.05" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="60" t="s">
-        <v>504</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="45" t="s">
-        <v>482</v>
+      <c r="B20" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="C20" s="70"/>
+      <c r="D20" s="46" t="s">
+        <v>481</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="61"/>
+      <c r="G20" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="70"/>
       <c r="I20" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="61"/>
+      <c r="L20" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="70"/>
       <c r="N20" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q20" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="R20" s="70"/>
+      <c r="S20" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="R20" s="61"/>
-      <c r="S20" s="16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:30" ht="15">
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999">
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
       <c r="K22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="72" t="s">
+      <c r="L22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
       <c r="P22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="72" t="s">
+      <c r="Q22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
       <c r="U22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="65" t="s">
+      <c r="V22" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
       <c r="Z22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA22" s="65" t="s">
+      <c r="AA22" s="108" t="s">
+        <v>511</v>
+      </c>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="108"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.6">
+      <c r="U23" s="87" t="s">
+        <v>510</v>
+      </c>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="89"/>
+      <c r="Z23" s="87" t="s">
         <v>512</v>
       </c>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-    </row>
-    <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="U23" s="66" t="s">
-        <v>511</v>
-      </c>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="68"/>
-      <c r="Z23" s="66" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="68"/>
-    </row>
-    <row r="24" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="89"/>
+    </row>
+    <row r="24" spans="1:30" ht="28.05" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>41</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="25.05" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
@@ -4512,40 +4546,40 @@
       <c r="F25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="61"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="61"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="60" t="s">
+      <c r="Q25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="61"/>
+      <c r="R25" s="70"/>
       <c r="S25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V25" s="60" t="s">
+      <c r="V25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="61"/>
+      <c r="W25" s="70"/>
       <c r="X25" s="10" t="s">
         <v>3</v>
       </c>
@@ -4553,575 +4587,575 @@
       <c r="Z25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA25" s="60" t="s">
+      <c r="AA25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="61"/>
+      <c r="AB25" s="70"/>
       <c r="AC25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="25.05" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>508</v>
-      </c>
-      <c r="C26" s="61"/>
+      <c r="B26" s="69" t="s">
+        <v>507</v>
+      </c>
+      <c r="C26" s="70"/>
       <c r="D26" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="H26" s="61"/>
+        <v>681</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="70"/>
       <c r="I26" s="16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="M26" s="61"/>
+      <c r="L26" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" s="70"/>
       <c r="N26" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="R26" s="61"/>
+      <c r="Q26" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="R26" s="70"/>
       <c r="S26" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="W26" s="61"/>
+      <c r="V26" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="W26" s="70"/>
       <c r="X26" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="44" t="s">
+      <c r="Z26" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB26" s="61"/>
+      <c r="AA26" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB26" s="70"/>
       <c r="AC26" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="AD26" s="44"/>
-    </row>
-    <row r="27" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="AD26" s="45"/>
+    </row>
+    <row r="27" spans="1:30" ht="25.05" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="61"/>
+      <c r="B27" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="70"/>
       <c r="D27" s="16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="H27" s="61"/>
+      <c r="G27" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="70"/>
       <c r="I27" s="16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="61"/>
+      <c r="L27" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="70"/>
       <c r="N27" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="R27" s="61"/>
+      <c r="Q27" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="R27" s="70"/>
       <c r="S27" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="W27" s="61"/>
+      <c r="V27" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="W27" s="70"/>
       <c r="X27" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="44" t="s">
+      <c r="Z27" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="AA27" s="60" t="s">
+      <c r="AA27" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD27" s="44"/>
-    </row>
-    <row r="28" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD27" s="45"/>
+    </row>
+    <row r="28" spans="1:30" ht="25.05" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="61"/>
+      <c r="B28" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="70"/>
       <c r="D28" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="H28" s="61"/>
+      <c r="G28" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="H28" s="70"/>
       <c r="I28" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="M28" s="61"/>
+      <c r="L28" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" s="70"/>
       <c r="N28" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="R28" s="61"/>
+      <c r="Q28" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="R28" s="70"/>
       <c r="S28" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="W28" s="61"/>
+      <c r="V28" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="W28" s="70"/>
       <c r="X28" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="44" t="s">
+      <c r="Z28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AA28" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB28" s="61"/>
+      <c r="AA28" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB28" s="70"/>
       <c r="AC28" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="AD28" s="44"/>
-    </row>
-    <row r="29" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+      <c r="AD28" s="45"/>
+    </row>
+    <row r="29" spans="1:30" ht="25.05" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="61"/>
+      <c r="B29" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="70"/>
       <c r="D29" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="H29" s="61"/>
+      <c r="G29" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" s="70"/>
       <c r="I29" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="M29" s="61"/>
+      <c r="L29" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" s="70"/>
       <c r="N29" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="R29" s="61"/>
+      <c r="Q29" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="R29" s="70"/>
       <c r="S29" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V29" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="W29" s="61"/>
+      <c r="V29" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="W29" s="70"/>
       <c r="X29" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="44" t="s">
+      <c r="Z29" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="AA29" s="60" t="s">
+      <c r="AA29" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="AB29" s="61"/>
-      <c r="AC29" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD29" s="44"/>
-    </row>
-    <row r="30" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD29" s="45"/>
+    </row>
+    <row r="30" spans="1:30" ht="25.05" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="61"/>
+      <c r="B30" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="70"/>
       <c r="D30" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="H30" s="61"/>
+      <c r="G30" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="H30" s="70"/>
       <c r="I30" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="M30" s="61"/>
+      <c r="L30" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="M30" s="70"/>
       <c r="N30" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="R30" s="61"/>
+      <c r="Q30" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="R30" s="70"/>
       <c r="S30" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="W30" s="61"/>
+      <c r="V30" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="W30" s="70"/>
       <c r="X30" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="44" t="s">
+      <c r="Z30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AA30" s="60" t="s">
+      <c r="AA30" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="AB30" s="61"/>
-      <c r="AC30" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD30" s="44"/>
-    </row>
-    <row r="31" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD30" s="45"/>
+    </row>
+    <row r="31" spans="1:30" ht="25.05" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="61"/>
+      <c r="B31" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="70"/>
       <c r="D31" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="H31" s="61"/>
+      <c r="H31" s="70"/>
       <c r="I31" s="16" t="s">
         <v>276</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="M31" s="61"/>
+      <c r="L31" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="M31" s="70"/>
       <c r="N31" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="R31" s="61"/>
+      <c r="Q31" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="R31" s="70"/>
       <c r="S31" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="W31" s="61"/>
+      <c r="V31" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="W31" s="70"/>
       <c r="X31" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="44" t="s">
+      <c r="Z31" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="60" t="s">
+      <c r="AA31" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD31" s="44"/>
-    </row>
-    <row r="32" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD31" s="45"/>
+    </row>
+    <row r="32" spans="1:30" ht="25.05" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="74"/>
       <c r="K32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="62" t="s">
+      <c r="L32" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="63"/>
-      <c r="N32" s="64"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="74"/>
       <c r="P32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="62" t="s">
+      <c r="Q32" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="R32" s="63"/>
-      <c r="S32" s="64"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="74"/>
       <c r="U32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="62" t="s">
+      <c r="V32" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="W32" s="63"/>
-      <c r="X32" s="64"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="74"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="62" t="s">
+      <c r="Z32" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="AA32" s="63" t="s">
+      <c r="AA32" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="64"/>
+      <c r="AB32" s="74"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="46"/>
-    </row>
-    <row r="33" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD32" s="47"/>
+    </row>
+    <row r="33" spans="1:30" ht="28.05" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="M33" s="121" t="s">
+        <v>668</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="P33" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>628</v>
-      </c>
       <c r="Q33" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="S33" s="10" t="s">
         <v>39</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W33" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="X33" s="53" t="s">
+        <v>678</v>
+      </c>
+      <c r="X33" s="55" t="s">
         <v>37</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AA33" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AB33" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AC33" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="25.05" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="61"/>
+      <c r="H34" s="70"/>
       <c r="I34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="60" t="s">
+      <c r="L34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="61"/>
+      <c r="M34" s="70"/>
       <c r="N34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="60" t="s">
+      <c r="Q34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="61"/>
+      <c r="R34" s="70"/>
       <c r="S34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V34" s="60" t="s">
+      <c r="V34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="61"/>
+      <c r="W34" s="70"/>
       <c r="X34" s="10" t="s">
         <v>3</v>
       </c>
@@ -5129,419 +5163,543 @@
       <c r="Z34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA34" s="60" t="s">
+      <c r="AA34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AB34" s="61"/>
+      <c r="AB34" s="70"/>
       <c r="AC34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:30" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="24.6" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="C35" s="61"/>
+      <c r="B35" s="69" t="s">
+        <v>506</v>
+      </c>
+      <c r="C35" s="70"/>
       <c r="D35" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="H35" s="61"/>
+      <c r="G35" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="70"/>
       <c r="I35" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="M35" s="61"/>
+      <c r="L35" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="M35" s="70"/>
       <c r="N35" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="60" t="s">
+      <c r="Q35" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="R35" s="70"/>
+      <c r="S35" s="16" t="s">
         <v>286</v>
-      </c>
-      <c r="R35" s="61"/>
-      <c r="S35" s="16" t="s">
-        <v>287</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="W35" s="61"/>
+      <c r="V35" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="W35" s="70"/>
       <c r="X35" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="44" t="s">
+      <c r="Z35" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="60" t="s">
+      <c r="AA35" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB35" s="70"/>
+      <c r="AC35" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="AB35" s="61"/>
-      <c r="AC35" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD35" s="44"/>
-    </row>
-    <row r="36" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD35" s="45"/>
+    </row>
+    <row r="36" spans="1:30" ht="25.05" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="61"/>
+      <c r="B36" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="70"/>
       <c r="D36" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="61"/>
+      <c r="G36" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" s="70"/>
       <c r="I36" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="M36" s="61"/>
+      <c r="L36" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="M36" s="70"/>
       <c r="N36" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="R36" s="61"/>
+      <c r="Q36" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="R36" s="70"/>
       <c r="S36" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V36" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="W36" s="61"/>
+      <c r="V36" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="W36" s="70"/>
       <c r="X36" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="44" t="s">
+      <c r="Z36" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AA36" s="60" t="s">
+      <c r="AA36" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD36" s="44"/>
-    </row>
-    <row r="37" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD36" s="45"/>
+    </row>
+    <row r="37" spans="1:30" ht="25.05" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="61"/>
+      <c r="B37" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="70"/>
       <c r="D37" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="H37" s="61"/>
+      <c r="G37" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="H37" s="70"/>
       <c r="I37" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="M37" s="61"/>
+      <c r="L37" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="M37" s="70"/>
       <c r="N37" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q37" s="60" t="s">
+      <c r="Q37" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="R37" s="70"/>
+      <c r="S37" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="R37" s="61"/>
-      <c r="S37" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V37" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="W37" s="61"/>
+      <c r="V37" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="W37" s="70"/>
       <c r="X37" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="44" t="s">
+      <c r="Z37" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="AA37" s="60" t="s">
+      <c r="AA37" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="AB37" s="61"/>
-      <c r="AC37" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="AD37" s="44"/>
-    </row>
-    <row r="38" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD37" s="45"/>
+    </row>
+    <row r="38" spans="1:30" ht="25.05" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="61"/>
+      <c r="B38" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="70"/>
       <c r="D38" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="H38" s="61"/>
+      <c r="G38" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" s="70"/>
       <c r="I38" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="M38" s="61"/>
+      <c r="L38" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="M38" s="70"/>
       <c r="N38" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="60" t="s">
+      <c r="Q38" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="R38" s="70"/>
+      <c r="S38" s="16" t="s">
         <v>291</v>
-      </c>
-      <c r="R38" s="61"/>
-      <c r="S38" s="16" t="s">
-        <v>292</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V38" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="W38" s="97"/>
+      <c r="V38" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="W38" s="75"/>
       <c r="X38" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="44" t="s">
+      <c r="Z38" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA38" s="60" t="s">
+      <c r="AA38" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="AB38" s="61"/>
-      <c r="AC38" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="AD38" s="44"/>
-    </row>
-    <row r="39" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD38" s="45"/>
+    </row>
+    <row r="39" spans="1:30" ht="25.05" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="61"/>
+      <c r="B39" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="70"/>
       <c r="D39" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="H39" s="61"/>
+      <c r="G39" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="H39" s="70"/>
       <c r="I39" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="M39" s="61"/>
+      <c r="L39" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="M39" s="70"/>
       <c r="N39" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="60" t="s">
+      <c r="Q39" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="R39" s="70"/>
+      <c r="S39" s="16" t="s">
         <v>293</v>
-      </c>
-      <c r="R39" s="61"/>
-      <c r="S39" s="16" t="s">
-        <v>294</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V39" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="W39" s="97"/>
+      <c r="V39" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="W39" s="75"/>
       <c r="X39" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="44" t="s">
+      <c r="Z39" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AA39" s="60" t="s">
+      <c r="AA39" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="AB39" s="61"/>
-      <c r="AC39" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD39" s="44"/>
-    </row>
-    <row r="40" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD39" s="45"/>
+    </row>
+    <row r="40" spans="1:30" ht="25.05" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="61"/>
+      <c r="B40" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="70"/>
       <c r="D40" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="H40" s="96"/>
-      <c r="I40" s="47" t="s">
+      <c r="G40" s="69" t="s">
         <v>250</v>
+      </c>
+      <c r="H40" s="76"/>
+      <c r="I40" s="48" t="s">
+        <v>251</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="M40" s="61"/>
+      <c r="L40" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="M40" s="70"/>
       <c r="N40" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q40" s="60" t="s">
+      <c r="Q40" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="R40" s="70"/>
+      <c r="S40" s="16" t="s">
         <v>373</v>
-      </c>
-      <c r="R40" s="61"/>
-      <c r="S40" s="16" t="s">
-        <v>374</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V40" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="W40" s="61"/>
+      <c r="V40" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="W40" s="70"/>
       <c r="X40" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="44" t="s">
+      <c r="Z40" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="AA40" s="60" t="s">
+      <c r="AA40" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="AB40" s="61"/>
-      <c r="AC40" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="AD40" s="44"/>
-    </row>
-    <row r="41" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="I41" s="48"/>
-      <c r="K41" s="49"/>
-      <c r="U41" s="49"/>
-      <c r="Z41" s="50"/>
-    </row>
-    <row r="42" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="U42" s="49"/>
-    </row>
-    <row r="43" spans="1:30" ht="49.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="51" t="s">
+      <c r="AD40" s="45"/>
+    </row>
+    <row r="41" spans="1:30" ht="16.8">
+      <c r="I41" s="49"/>
+      <c r="K41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="Z41" s="51"/>
+    </row>
+    <row r="42" spans="1:30" ht="16.8">
+      <c r="U42" s="50"/>
+    </row>
+    <row r="43" spans="1:30" ht="49.2">
+      <c r="A43" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="52">
+      <c r="B43" s="53">
         <v>0.79166666666666663</v>
       </c>
-      <c r="U43" s="49"/>
+      <c r="U43" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="U9:X10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
     <mergeCell ref="Q34:R34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
@@ -5566,130 +5724,6 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="U9:X10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA28:AB28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5703,11 +5737,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D07522-65BB-490A-81D9-D965BE6349E0}">
   <dimension ref="A3:X33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.21875" style="3" customWidth="1"/>
@@ -5737,305 +5771,305 @@
     <col min="27" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:24" ht="21" customHeight="1">
+      <c r="A3" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-    </row>
-    <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+    </row>
+    <row r="4" spans="1:24" ht="14.4" customHeight="1">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-    </row>
-    <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="95">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+    </row>
+    <row r="5" spans="1:24" ht="20.399999999999999">
+      <c r="A5" s="102">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.6">
       <c r="A6" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>581</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.6" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>582</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.4" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-    </row>
-    <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="87" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+    </row>
+    <row r="10" spans="1:24" ht="76.8" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>594</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-    </row>
-    <row r="10" spans="1:24" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="87" t="s">
         <v>598</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>599</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-    </row>
-    <row r="12" spans="1:24" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+    </row>
+    <row r="12" spans="1:24" s="9" customFormat="1" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
       <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
       <c r="K12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="72" t="s">
+      <c r="L12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
       <c r="P12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="72" t="s">
+      <c r="Q12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
       <c r="U12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="72" t="s">
+      <c r="V12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.6">
+      <c r="A13" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="K13" s="66" t="s">
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
+      <c r="K13" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="68"/>
-      <c r="P13" s="66" t="s">
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="89"/>
+      <c r="P13" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="U13" s="100" t="s">
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="U13" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="103"/>
-    </row>
-    <row r="14" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="117"/>
+    </row>
+    <row r="14" spans="1:24" ht="28.05" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>638</v>
-      </c>
       <c r="L14" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="U14" s="104" t="s">
+        <v>555</v>
+      </c>
+      <c r="U14" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="25.05" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="61"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="61"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="60" t="s">
+      <c r="Q15" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="61"/>
+      <c r="R15" s="70"/>
       <c r="S15" s="10" t="s">
         <v>3</v>
       </c>
@@ -6044,406 +6078,406 @@
       </c>
       <c r="X15" s="12"/>
     </row>
-    <row r="16" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="25.05" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="61"/>
+      <c r="B16" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="70"/>
       <c r="D16" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="H16" s="61"/>
+      <c r="G16" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="H16" s="70"/>
       <c r="I16" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="M16" s="61"/>
+      <c r="L16" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="M16" s="70"/>
       <c r="N16" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="Q16" s="69" t="s">
+        <v>412</v>
+      </c>
+      <c r="R16" s="70"/>
+      <c r="S16" s="16" t="s">
         <v>413</v>
-      </c>
-      <c r="R16" s="61"/>
-      <c r="S16" s="16" t="s">
-        <v>414</v>
       </c>
       <c r="U16" s="17"/>
       <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="25.05" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" s="61"/>
+      <c r="B17" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="70"/>
       <c r="D17" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="70"/>
+      <c r="I17" s="16" t="s">
         <v>306</v>
-      </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="16" t="s">
-        <v>307</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="M17" s="61"/>
+      <c r="L17" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="M17" s="70"/>
       <c r="N17" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="R17" s="70"/>
+      <c r="S17" s="16" t="s">
         <v>415</v>
-      </c>
-      <c r="R17" s="61"/>
-      <c r="S17" s="16" t="s">
-        <v>416</v>
       </c>
       <c r="U17" s="17"/>
       <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="25.05" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="16" t="s">
+      <c r="B18" s="111" t="s">
         <v>183</v>
+      </c>
+      <c r="C18" s="112"/>
+      <c r="D18" s="57" t="s">
+        <v>184</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" s="70"/>
+      <c r="I18" s="16" t="s">
         <v>308</v>
-      </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="16" t="s">
-        <v>309</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="M18" s="97"/>
+      <c r="L18" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="M18" s="75"/>
       <c r="N18" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="60" t="s">
+      <c r="Q18" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="R18" s="70"/>
+      <c r="S18" s="16" t="s">
         <v>417</v>
-      </c>
-      <c r="R18" s="61"/>
-      <c r="S18" s="16" t="s">
-        <v>418</v>
       </c>
       <c r="U18" s="17"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="25.05" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="16" t="s">
+      <c r="B19" s="111" t="s">
         <v>235</v>
+      </c>
+      <c r="C19" s="112"/>
+      <c r="D19" s="57" t="s">
+        <v>236</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="61"/>
+      <c r="G19" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" s="70"/>
       <c r="I19" s="16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="M19" s="61"/>
+      <c r="L19" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="M19" s="70"/>
       <c r="N19" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="60" t="s">
+      <c r="Q19" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="R19" s="70"/>
+      <c r="S19" s="16" t="s">
         <v>419</v>
-      </c>
-      <c r="R19" s="61"/>
-      <c r="S19" s="16" t="s">
-        <v>420</v>
       </c>
       <c r="U19" s="17"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="25.05" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="16" t="s">
+      <c r="B20" s="111" t="s">
         <v>237</v>
+      </c>
+      <c r="C20" s="112"/>
+      <c r="D20" s="57" t="s">
+        <v>238</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="H20" s="70"/>
+      <c r="I20" s="16" t="s">
         <v>316</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="M20" s="61"/>
+      <c r="L20" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" s="70"/>
       <c r="N20" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="R20" s="61"/>
+      <c r="Q20" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="R20" s="70"/>
       <c r="S20" s="16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="U20" s="17"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="25.05" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="B21" s="111" t="s">
         <v>185</v>
+      </c>
+      <c r="C21" s="112"/>
+      <c r="D21" s="57" t="s">
+        <v>186</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="69" t="s">
+        <v>317</v>
+      </c>
+      <c r="H21" s="70"/>
+      <c r="I21" s="16" t="s">
         <v>318</v>
-      </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="16" t="s">
-        <v>319</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="69" t="s">
+        <v>432</v>
+      </c>
+      <c r="M21" s="70"/>
+      <c r="N21" s="16" t="s">
         <v>433</v>
-      </c>
-      <c r="M21" s="61"/>
-      <c r="N21" s="16" t="s">
-        <v>434</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="R21" s="61"/>
+      <c r="Q21" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="R21" s="70"/>
       <c r="S21" s="16" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U21" s="18"/>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="20"/>
     </row>
-    <row r="22" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="25.05" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B22" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="B22" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
       <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
       <c r="K22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="63"/>
-      <c r="N22" s="64"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
       <c r="P22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="62" t="s">
-        <v>500</v>
-      </c>
-      <c r="R22" s="63"/>
-      <c r="S22" s="64"/>
+      <c r="Q22" s="72" t="s">
+        <v>499</v>
+      </c>
+      <c r="R22" s="73"/>
+      <c r="S22" s="74"/>
       <c r="U22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V22" s="62" t="s">
+      <c r="V22" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="W22" s="63"/>
-      <c r="X22" s="64"/>
-    </row>
-    <row r="23" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="73"/>
+      <c r="X22" s="74"/>
+    </row>
+    <row r="23" spans="1:24" ht="28.05" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F23" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>640</v>
-      </c>
       <c r="L23" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="U23" s="104"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
       <c r="X23" s="12"/>
     </row>
-    <row r="24" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="25.05" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="61"/>
+      <c r="H24" s="70"/>
       <c r="I24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="60" t="s">
+      <c r="L24" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="61"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q24" s="60" t="s">
+      <c r="Q24" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R24" s="61"/>
+      <c r="R24" s="70"/>
       <c r="S24" s="10" t="s">
         <v>3</v>
       </c>
@@ -6453,289 +6487,289 @@
       </c>
       <c r="X24" s="12"/>
     </row>
-    <row r="25" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="25.05" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>435</v>
-      </c>
-      <c r="C25" s="61"/>
+        <v>658</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="70"/>
       <c r="D25" s="33" t="s">
-        <v>436</v>
+        <v>608</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="H25" s="61"/>
+      <c r="G25" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="70"/>
       <c r="I25" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="M25" s="70"/>
+      <c r="N25" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="M25" s="61"/>
-      <c r="N25" s="16" t="s">
-        <v>325</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="R25" s="61"/>
+      <c r="Q25" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="R25" s="70"/>
       <c r="S25" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="U25" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="U25" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
       <c r="X25" s="22"/>
     </row>
-    <row r="26" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="25.05" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="69" t="s">
         <v>437</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="33" t="s">
-        <v>609</v>
+        <v>438</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="H26" s="70"/>
+      <c r="I26" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="16" t="s">
-        <v>312</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="60" t="s">
+      <c r="L26" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="M26" s="70"/>
+      <c r="N26" s="16" t="s">
         <v>326</v>
-      </c>
-      <c r="M26" s="61"/>
-      <c r="N26" s="16" t="s">
-        <v>327</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="R26" s="61"/>
+      <c r="Q26" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" s="70"/>
       <c r="S26" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V26" s="21" t="s">
         <v>33</v>
       </c>
       <c r="X26" s="12"/>
     </row>
-    <row r="27" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="25.05" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="60" t="s">
-        <v>438</v>
-      </c>
-      <c r="C27" s="61"/>
+      <c r="B27" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="C27" s="70"/>
       <c r="D27" s="33" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="H27" s="70"/>
+      <c r="I27" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="16" t="s">
-        <v>314</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="L27" s="69" t="s">
+        <v>327</v>
+      </c>
+      <c r="M27" s="70"/>
+      <c r="N27" s="16" t="s">
         <v>328</v>
-      </c>
-      <c r="M27" s="61"/>
-      <c r="N27" s="16" t="s">
-        <v>329</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="R27" s="61"/>
+      <c r="Q27" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27" s="70"/>
       <c r="S27" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V27" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X27" s="12"/>
     </row>
-    <row r="28" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="25.05" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>440</v>
-      </c>
-      <c r="C28" s="61"/>
+      <c r="B28" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="C28" s="70"/>
       <c r="D28" s="33" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="61"/>
+      <c r="G28" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="70"/>
       <c r="I28" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="60" t="s">
+      <c r="L28" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="M28" s="70"/>
+      <c r="N28" s="16" t="s">
         <v>330</v>
-      </c>
-      <c r="M28" s="61"/>
-      <c r="N28" s="16" t="s">
-        <v>331</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q28" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="R28" s="61"/>
+      <c r="Q28" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" s="70"/>
       <c r="S28" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U28" s="17"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="25.05" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="C29" s="61"/>
+      <c r="B29" s="69" t="s">
+        <v>443</v>
+      </c>
+      <c r="C29" s="70"/>
       <c r="D29" s="33" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="60" t="s">
-        <v>321</v>
-      </c>
-      <c r="H29" s="61"/>
+      <c r="G29" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" s="70"/>
       <c r="I29" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="M29" s="70"/>
+      <c r="N29" s="16" t="s">
         <v>332</v>
-      </c>
-      <c r="M29" s="61"/>
-      <c r="N29" s="16" t="s">
-        <v>333</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q29" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="R29" s="61"/>
+      <c r="Q29" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="R29" s="70"/>
       <c r="S29" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U29" s="17"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="25.05" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>444</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="33" t="s">
-        <v>445</v>
+        <v>659</v>
+      </c>
+      <c r="B30" s="109" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" s="110"/>
+      <c r="D30" s="63" t="s">
+        <v>278</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="H30" s="70"/>
+      <c r="I30" s="16" t="s">
         <v>322</v>
-      </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="16" t="s">
-        <v>323</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="60" t="s">
+      <c r="L30" s="69" t="s">
+        <v>475</v>
+      </c>
+      <c r="M30" s="70"/>
+      <c r="N30" s="16" t="s">
         <v>476</v>
-      </c>
-      <c r="M30" s="61"/>
-      <c r="N30" s="16" t="s">
-        <v>477</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="R30" s="61"/>
+      <c r="Q30" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" s="70"/>
       <c r="S30" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U30" s="18"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="20"/>
     </row>
-    <row r="33" spans="1:2" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" s="25" customFormat="1" ht="21">
       <c r="A33" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B33" s="24">
         <v>0.79166666666666663</v>
@@ -6743,79 +6777,6 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="P13:S13"/>
     <mergeCell ref="U25:W25"/>
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="U23:W23"/>
@@ -6832,6 +6793,79 @@
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6842,235 +6876,235 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0A72A6-F728-4273-B217-6595B7D29A78}">
   <dimension ref="A3:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34"/>
+    <sheetView topLeftCell="H16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="37.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:26" ht="21" customHeight="1">
+      <c r="A3" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.4" customHeight="1">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-    </row>
-    <row r="5" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="95">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+    </row>
+    <row r="5" spans="1:26" ht="20.399999999999999">
+      <c r="A5" s="102">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.6">
       <c r="A6" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>582</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>581</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.6">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.6">
       <c r="A8" s="5"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.4" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-    </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-    </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1">
+      <c r="A11" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="K11" s="66" t="s">
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="K11" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="68"/>
-      <c r="P11" s="66" t="s">
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="89"/>
+      <c r="P11" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="29" customFormat="1" ht="28.05" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="P12" s="30" t="s">
         <v>651</v>
       </c>
-      <c r="L12" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>668</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>652</v>
-      </c>
       <c r="Q12" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="25.05" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
@@ -7084,30 +7118,30 @@
       <c r="F13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="61"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="61"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="60" t="s">
+      <c r="Q13" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="61"/>
+      <c r="R13" s="70"/>
       <c r="S13" s="31" t="s">
         <v>3</v>
       </c>
@@ -7116,138 +7150,138 @@
       <c r="W13" s="32"/>
       <c r="X13" s="32"/>
     </row>
-    <row r="14" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="25.05" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="61"/>
+      <c r="B14" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="70"/>
       <c r="D14" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="60" t="s">
-        <v>581</v>
-      </c>
-      <c r="H14" s="61"/>
+      <c r="G14" s="69" t="s">
+        <v>580</v>
+      </c>
+      <c r="H14" s="70"/>
       <c r="I14" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" s="70"/>
+      <c r="N14" s="16" t="s">
         <v>389</v>
-      </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="16" t="s">
-        <v>390</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="R14" s="61"/>
+      <c r="Q14" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="R14" s="70"/>
       <c r="S14" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U14" s="34"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="105"/>
-      <c r="X14" s="105"/>
-    </row>
-    <row r="15" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+    </row>
+    <row r="15" spans="1:26" ht="25.05" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="61"/>
+      <c r="B15" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="70"/>
       <c r="D15" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="60" t="s">
-        <v>579</v>
-      </c>
-      <c r="H15" s="61"/>
+      <c r="G15" s="69" t="s">
+        <v>578</v>
+      </c>
+      <c r="H15" s="70"/>
       <c r="I15" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="M15" s="70"/>
+      <c r="N15" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="16" t="s">
-        <v>392</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="R15" s="61"/>
+      <c r="Q15" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="R15" s="70"/>
       <c r="S15" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U15" s="34"/>
       <c r="V15" s="36"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
     </row>
-    <row r="16" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="25.05" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="61"/>
+      <c r="B16" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="70"/>
       <c r="D16" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="60" t="s">
-        <v>577</v>
-      </c>
-      <c r="H16" s="61"/>
+      <c r="G16" s="69" t="s">
+        <v>576</v>
+      </c>
+      <c r="H16" s="70"/>
       <c r="I16" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="M16" s="70"/>
+      <c r="N16" s="16" t="s">
         <v>393</v>
-      </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="16" t="s">
-        <v>394</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="R16" s="61"/>
+      <c r="Q16" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="R16" s="70"/>
       <c r="S16" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U16" s="34"/>
       <c r="V16" s="36"/>
@@ -7255,1299 +7289,1296 @@
       <c r="X16" s="36"/>
       <c r="Z16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="25.05" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="61"/>
+      <c r="B17" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="70"/>
       <c r="D17" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="60" t="s">
-        <v>575</v>
-      </c>
-      <c r="H17" s="61"/>
+      <c r="G17" s="69" t="s">
+        <v>574</v>
+      </c>
+      <c r="H17" s="70"/>
       <c r="I17" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="M17" s="70"/>
+      <c r="N17" s="16" t="s">
         <v>395</v>
-      </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="16" t="s">
-        <v>396</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="R17" s="61"/>
+      <c r="Q17" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="R17" s="70"/>
       <c r="S17" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U17" s="34"/>
       <c r="V17" s="36"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
     </row>
-    <row r="18" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="25.05" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="61"/>
+      <c r="B18" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="70"/>
       <c r="D18" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="69" t="s">
+        <v>571</v>
+      </c>
+      <c r="H18" s="70"/>
+      <c r="I18" s="16" t="s">
         <v>572</v>
-      </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="16" t="s">
-        <v>573</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="60" t="s">
+      <c r="L18" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="M18" s="70"/>
+      <c r="N18" s="16" t="s">
         <v>397</v>
-      </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="16" t="s">
-        <v>398</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="R18" s="61"/>
+      <c r="Q18" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="R18" s="70"/>
       <c r="S18" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U18" s="34"/>
       <c r="V18" s="36"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
-    <row r="19" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" ht="25.05" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="61"/>
+      <c r="B19" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="70"/>
       <c r="D19" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="H19" s="61"/>
+      <c r="G19" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="H19" s="70"/>
       <c r="I19" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="60" t="s">
+      <c r="L19" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="M19" s="70"/>
+      <c r="N19" s="16" t="s">
         <v>399</v>
-      </c>
-      <c r="M19" s="61"/>
-      <c r="N19" s="16" t="s">
-        <v>400</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="R19" s="61"/>
+      <c r="Q19" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="R19" s="70"/>
       <c r="S19" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U19" s="34"/>
       <c r="V19" s="36"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
-    <row r="20" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="25.05" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="C20" s="61"/>
+      <c r="B20" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="70"/>
       <c r="D20" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="H20" s="70"/>
+      <c r="I20" s="16" t="s">
         <v>376</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="16" t="s">
-        <v>377</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" s="61"/>
+      <c r="L20" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" s="70"/>
       <c r="N20" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="R20" s="61"/>
+      <c r="Q20" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="R20" s="70"/>
       <c r="S20" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U20" s="34"/>
       <c r="V20" s="36"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
-    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999">
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
       <c r="K22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="72" t="s">
+      <c r="L22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
       <c r="P22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="72" t="s">
+      <c r="Q22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
       <c r="U22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="65" t="s">
+      <c r="V22" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
       <c r="Z22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA22" s="65" t="s">
+      <c r="AA22" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-    </row>
-    <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="U23" s="66" t="s">
-        <v>514</v>
-      </c>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Z23" s="67" t="s">
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="108"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.6">
+      <c r="U23" s="87" t="s">
         <v>513</v>
       </c>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="67"/>
-    </row>
-    <row r="24" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
+      <c r="Z23" s="88" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+    </row>
+    <row r="24" spans="1:30" ht="28.05" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>665</v>
+        <v>519</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>664</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="V24" s="108" t="s">
-        <v>550</v>
-      </c>
-      <c r="W24" s="108" t="s">
-        <v>704</v>
-      </c>
-      <c r="X24" s="109" t="s">
-        <v>701</v>
-      </c>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="111" t="s">
-        <v>657</v>
-      </c>
-      <c r="AA24" s="108" t="s">
+        <v>654</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="W24" s="59" t="s">
+        <v>703</v>
+      </c>
+      <c r="X24" s="60" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="39" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA24" s="59" t="s">
+        <v>698</v>
+      </c>
+      <c r="AB24" s="61" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC24" s="62" t="s">
         <v>699</v>
       </c>
-      <c r="AB24" s="112" t="s">
-        <v>686</v>
-      </c>
-      <c r="AC24" s="113" t="s">
-        <v>700</v>
-      </c>
       <c r="AD24" s="37"/>
     </row>
-    <row r="25" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="25.05" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="61"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="61"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="60" t="s">
+      <c r="Q25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="61"/>
+      <c r="R25" s="70"/>
       <c r="S25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V25" s="114" t="s">
+      <c r="V25" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="115"/>
-      <c r="X25" s="109" t="s">
+      <c r="W25" s="70"/>
+      <c r="X25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y25" s="110"/>
-      <c r="Z25" s="116" t="s">
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AA25" s="114" t="s">
+      <c r="AA25" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="115"/>
-      <c r="AC25" s="113" t="s">
-        <v>499</v>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="62" t="s">
+        <v>498</v>
       </c>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="25.05" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="61"/>
+      <c r="B26" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="70"/>
       <c r="D26" s="16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="69" t="s">
+        <v>377</v>
+      </c>
+      <c r="H26" s="70"/>
+      <c r="I26" s="16" t="s">
         <v>378</v>
-      </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="16" t="s">
-        <v>379</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="M26" s="61"/>
+      <c r="L26" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" s="70"/>
       <c r="N26" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="60" t="s">
+      <c r="Q26" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="R26" s="70"/>
+      <c r="S26" s="16" t="s">
         <v>345</v>
-      </c>
-      <c r="R26" s="61"/>
-      <c r="S26" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="114" t="s">
-        <v>277</v>
-      </c>
-      <c r="W26" s="115"/>
-      <c r="X26" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="119" t="s">
+      <c r="V26" s="111" t="s">
+        <v>714</v>
+      </c>
+      <c r="W26" s="112"/>
+      <c r="X26" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="114" t="s">
+      <c r="AA26" s="111" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AB26" s="115"/>
-      <c r="AC26" s="120" t="s">
-        <v>463</v>
-      </c>
       <c r="AD26" s="36"/>
     </row>
-    <row r="27" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="25.05" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="61"/>
+      <c r="B27" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" s="70"/>
       <c r="D27" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="H27" s="70"/>
+      <c r="I27" s="16" t="s">
         <v>380</v>
-      </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="16" t="s">
-        <v>381</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="M27" s="61"/>
+      <c r="L27" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" s="70"/>
       <c r="N27" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="60" t="s">
+      <c r="Q27" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="R27" s="70"/>
+      <c r="S27" s="16" t="s">
         <v>347</v>
-      </c>
-      <c r="R27" s="61"/>
-      <c r="S27" s="16" t="s">
-        <v>348</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="114" t="s">
-        <v>273</v>
-      </c>
-      <c r="W27" s="115"/>
-      <c r="X27" s="117" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="119" t="s">
+      <c r="V27" s="111" t="s">
+        <v>713</v>
+      </c>
+      <c r="W27" s="112"/>
+      <c r="X27" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="AA27" s="114" t="s">
-        <v>464</v>
-      </c>
-      <c r="AB27" s="115"/>
-      <c r="AC27" s="120" t="s">
-        <v>681</v>
+      <c r="AA27" s="111" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="58" t="s">
+        <v>680</v>
       </c>
       <c r="AD27" s="36"/>
     </row>
-    <row r="28" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="25.05" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="C28" s="61"/>
+      <c r="B28" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="70"/>
       <c r="D28" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="60" t="s">
-        <v>382</v>
-      </c>
-      <c r="H28" s="61"/>
+      <c r="G28" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="H28" s="70"/>
       <c r="I28" s="16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="M28" s="61"/>
+      <c r="L28" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" s="70"/>
       <c r="N28" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="60" t="s">
+      <c r="Q28" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="R28" s="70"/>
+      <c r="S28" s="16" t="s">
         <v>349</v>
-      </c>
-      <c r="R28" s="61"/>
-      <c r="S28" s="16" t="s">
-        <v>350</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="114" t="s">
-        <v>279</v>
-      </c>
-      <c r="W28" s="115"/>
-      <c r="X28" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="119" t="s">
+      <c r="V28" s="111" t="s">
+        <v>457</v>
+      </c>
+      <c r="W28" s="112"/>
+      <c r="X28" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA28" s="114" t="s">
+      <c r="AA28" s="111" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="AB28" s="115"/>
-      <c r="AC28" s="120" t="s">
-        <v>466</v>
-      </c>
       <c r="AD28" s="36"/>
     </row>
-    <row r="29" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="25.05" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="61"/>
+      <c r="B29" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" s="70"/>
       <c r="D29" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="H29" s="70"/>
+      <c r="I29" s="16" t="s">
         <v>383</v>
-      </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="16" t="s">
-        <v>384</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="M29" s="61"/>
+      <c r="L29" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="M29" s="70"/>
       <c r="N29" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="60" t="s">
+      <c r="Q29" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="R29" s="70"/>
+      <c r="S29" s="16" t="s">
         <v>351</v>
-      </c>
-      <c r="R29" s="61"/>
-      <c r="S29" s="16" t="s">
-        <v>352</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V29" s="114" t="s">
-        <v>458</v>
-      </c>
-      <c r="W29" s="115"/>
-      <c r="X29" s="120" t="s">
+      <c r="V29" s="111" t="s">
         <v>459</v>
       </c>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="119" t="s">
+      <c r="W29" s="112"/>
+      <c r="X29" s="58" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AA29" s="114" t="s">
+      <c r="AA29" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="AB29" s="115"/>
-      <c r="AC29" s="117" t="s">
-        <v>283</v>
-      </c>
       <c r="AD29" s="36"/>
     </row>
-    <row r="30" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="25.05" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="60" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="61"/>
+      <c r="B30" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="70"/>
       <c r="D30" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" s="70"/>
+      <c r="I30" s="16" t="s">
         <v>385</v>
-      </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="16" t="s">
-        <v>386</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="M30" s="61"/>
+      <c r="L30" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" s="70"/>
       <c r="N30" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="60" t="s">
+      <c r="Q30" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="R30" s="70"/>
+      <c r="S30" s="16" t="s">
         <v>353</v>
-      </c>
-      <c r="R30" s="61"/>
-      <c r="S30" s="16" t="s">
-        <v>354</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="114" t="s">
-        <v>460</v>
-      </c>
-      <c r="W30" s="115"/>
-      <c r="X30" s="120" t="s">
-        <v>461</v>
-      </c>
-      <c r="Y30" s="118"/>
-      <c r="Z30" s="119" t="s">
+      <c r="V30" s="111" t="s">
+        <v>701</v>
+      </c>
+      <c r="W30" s="112"/>
+      <c r="X30" s="58" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AA30" s="114" t="s">
+      <c r="AA30" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB30" s="112"/>
+      <c r="AC30" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="AB30" s="115"/>
-      <c r="AC30" s="117" t="s">
-        <v>285</v>
-      </c>
       <c r="AD30" s="36"/>
     </row>
-    <row r="31" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="25.05" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="C31" s="61"/>
+      <c r="B31" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="70"/>
       <c r="D31" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="H31" s="70"/>
+      <c r="I31" s="16" t="s">
         <v>387</v>
-      </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="16" t="s">
-        <v>388</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="M31" s="61"/>
+      <c r="L31" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="M31" s="70"/>
       <c r="N31" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="R31" s="61"/>
+      <c r="Q31" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="R31" s="70"/>
       <c r="S31" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="114" t="s">
-        <v>702</v>
-      </c>
-      <c r="W31" s="115"/>
-      <c r="X31" s="120" t="s">
-        <v>703</v>
-      </c>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="119" t="s">
+      <c r="V31" s="109" t="s">
+        <v>434</v>
+      </c>
+      <c r="W31" s="110"/>
+      <c r="X31" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="114" t="s">
-        <v>705</v>
-      </c>
-      <c r="AB31" s="115"/>
-      <c r="AC31" s="117" t="s">
-        <v>281</v>
+      <c r="AA31" s="111" t="s">
+        <v>704</v>
+      </c>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="57" t="s">
+        <v>280</v>
       </c>
       <c r="AD31" s="36"/>
     </row>
-    <row r="32" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="25.05" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="74"/>
       <c r="K32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="62" t="s">
+      <c r="L32" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="63"/>
-      <c r="N32" s="64"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="74"/>
       <c r="P32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="62" t="s">
+      <c r="Q32" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="R32" s="63"/>
-      <c r="S32" s="64"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="74"/>
       <c r="U32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="62" t="s">
+      <c r="V32" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="63" t="s">
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AA32" s="63" t="s">
+      <c r="AA32" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="41"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="42"/>
       <c r="AD32" s="35"/>
     </row>
-    <row r="33" spans="1:30" s="29" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" s="29" customFormat="1" ht="28.05" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F33" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="K33" s="30" t="s">
         <v>648</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="K33" s="30" t="s">
-        <v>649</v>
-      </c>
       <c r="L33" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>669</v>
+        <v>534</v>
+      </c>
+      <c r="M33" s="121" t="s">
+        <v>691</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>46</v>
       </c>
       <c r="P33" s="30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="S33" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U33" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="V33" s="27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="W33" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="X33" s="28" t="s">
-        <v>607</v>
-      </c>
-      <c r="Z33" s="42" t="s">
-        <v>658</v>
+        <v>606</v>
+      </c>
+      <c r="Z33" s="43" t="s">
+        <v>657</v>
       </c>
       <c r="AA33" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="AB33" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="AC33" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="AB33" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="AC33" s="28" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:30" ht="25.05" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="61"/>
+      <c r="H34" s="70"/>
       <c r="I34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="60" t="s">
+      <c r="L34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="61"/>
+      <c r="M34" s="70"/>
       <c r="N34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="60" t="s">
+      <c r="Q34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="61"/>
+      <c r="R34" s="70"/>
       <c r="S34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V34" s="60" t="s">
+      <c r="V34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="61"/>
+      <c r="W34" s="70"/>
       <c r="X34" s="31" t="s">
         <v>3</v>
       </c>
       <c r="Z34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AA34" s="60" t="s">
+      <c r="AA34" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AB34" s="61"/>
+      <c r="AB34" s="70"/>
       <c r="AC34" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="25.05" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="69" t="s">
+        <v>422</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="16" t="s">
         <v>423</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="16" t="s">
-        <v>424</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="60" t="s">
-        <v>368</v>
-      </c>
-      <c r="H35" s="61"/>
+      <c r="G35" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="H35" s="70"/>
       <c r="I35" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="60" t="s">
+      <c r="L35" s="69" t="s">
+        <v>333</v>
+      </c>
+      <c r="M35" s="70"/>
+      <c r="N35" s="16" t="s">
         <v>334</v>
-      </c>
-      <c r="M35" s="61"/>
-      <c r="N35" s="16" t="s">
-        <v>335</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="R35" s="61"/>
-      <c r="S35" s="16" t="s">
+      <c r="Q35" s="111" t="s">
         <v>177</v>
+      </c>
+      <c r="R35" s="112"/>
+      <c r="S35" s="57" t="s">
+        <v>178</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="60" t="s">
+      <c r="V35" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="W35" s="70"/>
+      <c r="X35" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="W35" s="61"/>
-      <c r="X35" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="40" t="s">
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="60" t="s">
+      <c r="AA35" s="69" t="s">
+        <v>466</v>
+      </c>
+      <c r="AB35" s="70"/>
+      <c r="AC35" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="AB35" s="61"/>
-      <c r="AC35" s="33" t="s">
-        <v>468</v>
-      </c>
       <c r="AD35" s="36"/>
     </row>
-    <row r="36" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="25.05" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="69" t="s">
+        <v>424</v>
+      </c>
+      <c r="C36" s="70"/>
+      <c r="D36" s="16" t="s">
         <v>425</v>
-      </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="16" t="s">
-        <v>426</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="60" t="s">
+      <c r="G36" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="H36" s="70"/>
+      <c r="I36" s="16" t="s">
         <v>369</v>
-      </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="16" t="s">
-        <v>370</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="60" t="s">
+      <c r="L36" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" s="70"/>
+      <c r="N36" s="16" t="s">
         <v>336</v>
-      </c>
-      <c r="M36" s="61"/>
-      <c r="N36" s="16" t="s">
-        <v>337</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="R36" s="61"/>
-      <c r="S36" s="16" t="s">
+      <c r="Q36" s="111" t="s">
         <v>179</v>
+      </c>
+      <c r="R36" s="112"/>
+      <c r="S36" s="57" t="s">
+        <v>180</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V36" s="60" t="s">
+      <c r="V36" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="W36" s="70"/>
+      <c r="X36" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="W36" s="61"/>
-      <c r="X36" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="40" t="s">
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AA36" s="60" t="s">
+      <c r="AA36" s="69" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="33" t="s">
-        <v>470</v>
-      </c>
       <c r="AD36" s="36"/>
     </row>
-    <row r="37" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="25.05" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" s="70"/>
+      <c r="D37" s="16" t="s">
         <v>427</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="16" t="s">
-        <v>428</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="H37" s="70"/>
+      <c r="I37" s="16" t="s">
         <v>371</v>
-      </c>
-      <c r="H37" s="61"/>
-      <c r="I37" s="16" t="s">
-        <v>372</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="60" t="s">
+      <c r="L37" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="M37" s="70"/>
+      <c r="N37" s="16" t="s">
         <v>338</v>
-      </c>
-      <c r="M37" s="61"/>
-      <c r="N37" s="16" t="s">
-        <v>339</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q37" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="R37" s="61"/>
-      <c r="S37" s="16" t="s">
+      <c r="Q37" s="111" t="s">
         <v>181</v>
+      </c>
+      <c r="R37" s="112"/>
+      <c r="S37" s="57" t="s">
+        <v>182</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V37" s="60" t="s">
+      <c r="V37" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="W37" s="70"/>
+      <c r="X37" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="W37" s="61"/>
-      <c r="X37" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="40" t="s">
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AA37" s="60" t="s">
+      <c r="AA37" s="69" t="s">
+        <v>470</v>
+      </c>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="AB37" s="61"/>
-      <c r="AC37" s="33" t="s">
-        <v>472</v>
-      </c>
       <c r="AD37" s="36"/>
     </row>
-    <row r="38" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="25.05" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="C38" s="70"/>
+      <c r="D38" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="69" t="s">
+        <v>449</v>
+      </c>
+      <c r="H38" s="70"/>
+      <c r="I38" s="33" t="s">
         <v>450</v>
-      </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="33" t="s">
-        <v>451</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="60" t="s">
+      <c r="L38" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="M38" s="70"/>
+      <c r="N38" s="16" t="s">
         <v>340</v>
-      </c>
-      <c r="M38" s="61"/>
-      <c r="N38" s="16" t="s">
-        <v>341</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="60" t="s">
-        <v>708</v>
-      </c>
-      <c r="R38" s="61"/>
-      <c r="S38" s="16" t="s">
-        <v>233</v>
+      <c r="Q38" s="111" t="s">
+        <v>707</v>
+      </c>
+      <c r="R38" s="112"/>
+      <c r="S38" s="57" t="s">
+        <v>234</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V38" s="60" t="s">
+      <c r="V38" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="W38" s="70"/>
+      <c r="X38" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="W38" s="61"/>
-      <c r="X38" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="40" t="s">
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AA38" s="60" t="s">
+      <c r="AA38" s="69" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="AB38" s="61"/>
-      <c r="AC38" s="33" t="s">
-        <v>474</v>
-      </c>
       <c r="AD38" s="36"/>
     </row>
-    <row r="39" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="25.05" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" s="70"/>
+      <c r="D39" s="16" t="s">
         <v>431</v>
-      </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="16" t="s">
-        <v>432</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="60" t="s">
+      <c r="G39" s="69" t="s">
+        <v>451</v>
+      </c>
+      <c r="H39" s="70"/>
+      <c r="I39" s="33" t="s">
         <v>452</v>
-      </c>
-      <c r="H39" s="61"/>
-      <c r="I39" s="33" t="s">
-        <v>453</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="60" t="s">
+      <c r="L39" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" s="70"/>
+      <c r="N39" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="M39" s="61"/>
-      <c r="N39" s="16" t="s">
-        <v>343</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="60" t="s">
-        <v>707</v>
-      </c>
-      <c r="R39" s="61"/>
-      <c r="S39" s="16" t="s">
-        <v>238</v>
+      <c r="Q39" s="111" t="s">
+        <v>706</v>
+      </c>
+      <c r="R39" s="112"/>
+      <c r="S39" s="57" t="s">
+        <v>239</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V39" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="W39" s="61"/>
+      <c r="V39" s="69" t="s">
+        <v>343</v>
+      </c>
+      <c r="W39" s="70"/>
       <c r="X39" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AA39" s="60" t="s">
-        <v>475</v>
-      </c>
-      <c r="AB39" s="61"/>
+      <c r="AA39" s="69" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB39" s="70"/>
       <c r="AC39" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AD39" s="36"/>
     </row>
-    <row r="40" spans="1:30" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="34.200000000000003" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="44"/>
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="106"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="43"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="44"/>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
@@ -8557,70 +8588,91 @@
       <c r="U40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V40" s="60"/>
-      <c r="W40" s="61"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="70"/>
       <c r="X40" s="33"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="40" t="s">
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AA40" s="60"/>
-      <c r="AB40" s="61"/>
+      <c r="AA40" s="69"/>
+      <c r="AB40" s="70"/>
       <c r="AC40" s="33"/>
       <c r="AD40" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="148">
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:I8"/>
+  <mergeCells count="147">
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="U9:X10"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="K9:N10"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B17:C17"/>
@@ -8645,80 +8697,58 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="U9:X10"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="V30:W30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="Z32:AB32"/>
     <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="L25:M25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/Updated time schedule for ICIT 2024.xlsx
+++ b/files/Updated time schedule for ICIT 2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61A5AE9F-C8D6-4068-A64E-B01D751CB9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D1088-A31C-4790-BD04-E4CC5BC4FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 0" sheetId="13" r:id="rId1"/>
@@ -13,28 +13,17 @@
     <sheet name="Day 2" sheetId="11" r:id="rId3"/>
     <sheet name="Day 3" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="714">
   <si>
     <t>Break</t>
   </si>
@@ -2693,9 +2682,6 @@
   <si>
     <t>ICIT24-000418</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
   </si>
   <si>
     <t>ICIT24-000173</t>
@@ -2738,7 +2724,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2865,32 +2851,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3067,7 +3034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3202,35 +3169,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3253,118 +3211,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3373,26 +3340,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3400,72 +3349,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3476,16 +3379,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24C0610F-B7A6-411D-90E6-CF03BC0A7A97}" name="表1" displayName="表1" ref="T1:T2" insertRow="1" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="T1:T2" xr:uid="{24C0610F-B7A6-411D-90E6-CF03BC0A7A97}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B6E448CD-DE9E-4462-BA39-197CDCA192FC}" name="列1" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3757,24 +3650,24 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="67">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="64">
         <v>45375</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="64" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3791,13 +3684,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7950FE-D522-4BF8-B0AB-A197EB040E32}">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A3:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView topLeftCell="T13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
@@ -3831,176 +3724,171 @@
     <col min="30" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="T1" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="21" customHeight="1">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" spans="1:24" ht="14.4" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
+    </row>
+    <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="1:24" ht="20.399999999999999">
-      <c r="A5" s="102">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="86"/>
+    </row>
+    <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="101">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.6">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="72" t="s">
         <v>581</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.6">
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="6" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.6">
+    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-    </row>
-    <row r="9" spans="1:24" ht="14.4" customHeight="1">
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-    </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1">
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-    </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
-      <c r="A11" s="87" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-      <c r="K11" s="87" t="s">
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="K11" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="89"/>
-      <c r="P11" s="87" t="s">
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
+      <c r="P11" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" ht="28.05" customHeight="1">
+    <row r="12" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>618</v>
       </c>
@@ -4053,410 +3941,410 @@
         <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="25.05" customHeight="1">
+    <row r="13" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="70"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="67"/>
       <c r="N13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="69" t="s">
+      <c r="Q13" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="70"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="40.200000000000003" customHeight="1">
+    <row r="14" spans="1:24" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="16" t="s">
         <v>487</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="75"/>
+      <c r="H14" s="103"/>
       <c r="I14" s="16" t="s">
         <v>85</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="67"/>
       <c r="N14" s="16" t="s">
         <v>101</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="69" t="s">
+      <c r="Q14" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="R14" s="70"/>
+      <c r="R14" s="67"/>
       <c r="S14" s="16" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="44.4" customHeight="1">
+    <row r="15" spans="1:24" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="66" t="s">
         <v>505</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="46" t="s">
         <v>477</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="16" t="s">
         <v>87</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="67"/>
       <c r="N15" s="16" t="s">
         <v>103</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="69" t="s">
+      <c r="Q15" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="R15" s="70"/>
+      <c r="R15" s="67"/>
       <c r="S15" s="16" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="40.200000000000003" customHeight="1">
+    <row r="16" spans="1:24" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="66" t="s">
         <v>504</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="46" t="s">
         <v>478</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="70"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="16" t="s">
         <v>89</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="70"/>
+      <c r="M16" s="67"/>
       <c r="N16" s="16" t="s">
         <v>105</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="69" t="s">
+      <c r="Q16" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="R16" s="70"/>
+      <c r="R16" s="67"/>
       <c r="S16" s="16" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="48" customHeight="1">
+    <row r="17" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="66" t="s">
         <v>500</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="46" t="s">
         <v>479</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="70"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="69" t="s">
+      <c r="L17" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="M17" s="70"/>
+      <c r="M17" s="67"/>
       <c r="N17" s="16" t="s">
         <v>107</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="69" t="s">
+      <c r="Q17" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="R17" s="70"/>
+      <c r="R17" s="67"/>
       <c r="S17" s="16" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="25.05" customHeight="1">
+    <row r="18" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="66" t="s">
         <v>501</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="46" t="s">
         <v>508</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="66" t="s">
         <v>693</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="54" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="16" t="s">
         <v>92</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="M18" s="70"/>
+      <c r="M18" s="67"/>
       <c r="N18" s="16" t="s">
         <v>109</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="69" t="s">
+      <c r="Q18" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="R18" s="70"/>
+      <c r="R18" s="67"/>
       <c r="S18" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="52.8" customHeight="1">
+    <row r="19" spans="1:30" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="66" t="s">
         <v>502</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="46" t="s">
         <v>480</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="70"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="16" t="s">
         <v>94</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="69" t="s">
+      <c r="L19" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="M19" s="70"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="16" t="s">
         <v>111</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="69" t="s">
+      <c r="Q19" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="R19" s="70"/>
+      <c r="R19" s="67"/>
       <c r="S19" s="16" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="25.05" customHeight="1">
+    <row r="20" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="46" t="s">
         <v>481</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="70"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="16" t="s">
         <v>96</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="70"/>
+      <c r="M20" s="67"/>
       <c r="N20" s="16" t="s">
         <v>113</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="69" t="s">
+      <c r="Q20" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="R20" s="70"/>
+      <c r="R20" s="67"/>
       <c r="S20" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15">
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999">
+    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
       <c r="K22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="71" t="s">
+      <c r="L22" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
       <c r="P22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="71" t="s">
+      <c r="Q22" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
       <c r="U22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="108" t="s">
+      <c r="V22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
       <c r="Z22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA22" s="108" t="s">
+      <c r="AA22" s="71" t="s">
         <v>511</v>
       </c>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="108"/>
-    </row>
-    <row r="23" spans="1:30" ht="15.6">
-      <c r="U23" s="87" t="s">
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="U23" s="72" t="s">
         <v>510</v>
       </c>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="89"/>
-      <c r="Z23" s="87" t="s">
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="74"/>
+      <c r="Z23" s="72" t="s">
         <v>512</v>
       </c>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="89"/>
-    </row>
-    <row r="24" spans="1:30" ht="28.05" customHeight="1">
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="74"/>
+    </row>
+    <row r="24" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>619</v>
       </c>
@@ -4532,7 +4420,7 @@
       </c>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="1:30" ht="25.05" customHeight="1">
+    <row r="25" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
@@ -4546,40 +4434,40 @@
       <c r="F25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="70"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="69" t="s">
+      <c r="L25" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="70"/>
+      <c r="M25" s="67"/>
       <c r="N25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="69" t="s">
+      <c r="Q25" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="70"/>
+      <c r="R25" s="67"/>
       <c r="S25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V25" s="69" t="s">
+      <c r="V25" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="70"/>
+      <c r="W25" s="67"/>
       <c r="X25" s="10" t="s">
         <v>3</v>
       </c>
@@ -4587,63 +4475,63 @@
       <c r="Z25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA25" s="69" t="s">
+      <c r="AA25" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="70"/>
+      <c r="AB25" s="67"/>
       <c r="AC25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:30" ht="25.05" customHeight="1">
+    <row r="26" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="66" t="s">
         <v>507</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="16" t="s">
         <v>482</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="H26" s="70"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="16" t="s">
         <v>265</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="M26" s="70"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="16" t="s">
         <v>167</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="69" t="s">
+      <c r="Q26" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="R26" s="70"/>
+      <c r="R26" s="67"/>
       <c r="S26" s="16" t="s">
         <v>141</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="69" t="s">
+      <c r="V26" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="W26" s="70"/>
+      <c r="W26" s="67"/>
       <c r="X26" s="16" t="s">
         <v>225</v>
       </c>
@@ -4651,63 +4539,63 @@
       <c r="Z26" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="69" t="s">
+      <c r="AA26" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="AB26" s="70"/>
+      <c r="AB26" s="67"/>
       <c r="AC26" s="16" t="s">
         <v>583</v>
       </c>
       <c r="AD26" s="45"/>
     </row>
-    <row r="27" spans="1:30" ht="25.05" customHeight="1">
+    <row r="27" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="16" t="s">
         <v>483</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="69" t="s">
+      <c r="G27" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="H27" s="70"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="16" t="s">
         <v>267</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="70"/>
+      <c r="M27" s="67"/>
       <c r="N27" s="16" t="s">
         <v>168</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="69" t="s">
+      <c r="Q27" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="R27" s="70"/>
+      <c r="R27" s="67"/>
       <c r="S27" s="16" t="s">
         <v>143</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="69" t="s">
+      <c r="V27" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="W27" s="70"/>
+      <c r="W27" s="67"/>
       <c r="X27" s="16" t="s">
         <v>227</v>
       </c>
@@ -4715,63 +4603,63 @@
       <c r="Z27" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="AA27" s="69" t="s">
+      <c r="AA27" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="AB27" s="70"/>
+      <c r="AB27" s="67"/>
       <c r="AC27" s="16" t="s">
         <v>296</v>
       </c>
       <c r="AD27" s="45"/>
     </row>
-    <row r="28" spans="1:30" ht="25.05" customHeight="1">
+    <row r="28" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="16" t="s">
         <v>484</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="16" t="s">
         <v>269</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="L28" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="M28" s="70"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="16" t="s">
         <v>170</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="69" t="s">
+      <c r="Q28" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="R28" s="70"/>
+      <c r="R28" s="67"/>
       <c r="S28" s="16" t="s">
         <v>145</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="69" t="s">
+      <c r="V28" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="W28" s="70"/>
+      <c r="W28" s="67"/>
       <c r="X28" s="16" t="s">
         <v>229</v>
       </c>
@@ -4779,63 +4667,63 @@
       <c r="Z28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AA28" s="69" t="s">
+      <c r="AA28" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="AB28" s="70"/>
+      <c r="AB28" s="67"/>
       <c r="AC28" s="16" t="s">
         <v>584</v>
       </c>
       <c r="AD28" s="45"/>
     </row>
-    <row r="29" spans="1:30" ht="25.05" customHeight="1">
+    <row r="29" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="16" t="s">
         <v>485</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="16" t="s">
         <v>271</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="69" t="s">
+      <c r="L29" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="M29" s="70"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="16" t="s">
         <v>172</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="69" t="s">
+      <c r="Q29" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="R29" s="70"/>
+      <c r="R29" s="67"/>
       <c r="S29" s="16" t="s">
         <v>147</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V29" s="69" t="s">
+      <c r="V29" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="W29" s="70"/>
+      <c r="W29" s="67"/>
       <c r="X29" s="16" t="s">
         <v>127</v>
       </c>
@@ -4843,63 +4731,63 @@
       <c r="Z29" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="AA29" s="69" t="s">
+      <c r="AA29" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="AB29" s="70"/>
+      <c r="AB29" s="67"/>
       <c r="AC29" s="16" t="s">
         <v>299</v>
       </c>
       <c r="AD29" s="45"/>
     </row>
-    <row r="30" spans="1:30" ht="25.05" customHeight="1">
+    <row r="30" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="16" t="s">
         <v>486</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="H30" s="70"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="16" t="s">
         <v>273</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="69" t="s">
+      <c r="L30" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="M30" s="70"/>
+      <c r="M30" s="67"/>
       <c r="N30" s="16" t="s">
         <v>174</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="69" t="s">
+      <c r="Q30" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="R30" s="70"/>
+      <c r="R30" s="67"/>
       <c r="S30" s="16" t="s">
         <v>149</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="69" t="s">
+      <c r="V30" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="W30" s="70"/>
+      <c r="W30" s="67"/>
       <c r="X30" s="16" t="s">
         <v>129</v>
       </c>
@@ -4907,63 +4795,63 @@
       <c r="Z30" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AA30" s="69" t="s">
+      <c r="AA30" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="AB30" s="70"/>
+      <c r="AB30" s="67"/>
       <c r="AC30" s="16" t="s">
         <v>301</v>
       </c>
       <c r="AD30" s="45"/>
     </row>
-    <row r="31" spans="1:30" ht="25.05" customHeight="1">
+    <row r="31" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="H31" s="70"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="16" t="s">
         <v>276</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="69" t="s">
+      <c r="L31" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="M31" s="70"/>
+      <c r="M31" s="67"/>
       <c r="N31" s="16" t="s">
         <v>176</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="69" t="s">
+      <c r="Q31" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="R31" s="70"/>
+      <c r="R31" s="67"/>
       <c r="S31" s="16" t="s">
         <v>151</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="69" t="s">
+      <c r="V31" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="W31" s="70"/>
+      <c r="W31" s="67"/>
       <c r="X31" s="16" t="s">
         <v>131</v>
       </c>
@@ -4971,68 +4859,68 @@
       <c r="Z31" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="69" t="s">
+      <c r="AA31" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="AB31" s="70"/>
+      <c r="AB31" s="67"/>
       <c r="AC31" s="16" t="s">
         <v>303</v>
       </c>
       <c r="AD31" s="45"/>
     </row>
-    <row r="32" spans="1:30" ht="25.05" customHeight="1">
+    <row r="32" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="72" t="s">
+      <c r="G32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="73"/>
-      <c r="I32" s="74"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="70"/>
       <c r="K32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="72" t="s">
+      <c r="L32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="73"/>
-      <c r="N32" s="74"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="70"/>
       <c r="P32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="72" t="s">
+      <c r="Q32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="R32" s="73"/>
-      <c r="S32" s="74"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="70"/>
       <c r="U32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="72" t="s">
+      <c r="V32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="W32" s="73"/>
-      <c r="X32" s="74"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="70"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="72" t="s">
+      <c r="Z32" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AA32" s="73" t="s">
+      <c r="AA32" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="74"/>
+      <c r="AB32" s="70"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="47"/>
     </row>
-    <row r="33" spans="1:30" ht="28.05" customHeight="1">
+    <row r="33" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>620</v>
       </c>
@@ -5063,7 +4951,7 @@
       <c r="L33" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="M33" s="121" t="s">
+      <c r="M33" s="114" t="s">
         <v>668</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -5090,7 +4978,7 @@
       <c r="W33" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="X33" s="55" t="s">
+      <c r="X33" s="54" t="s">
         <v>37</v>
       </c>
       <c r="Y33" s="10"/>
@@ -5108,54 +4996,54 @@
       </c>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="1:30" ht="25.05" customHeight="1">
+    <row r="34" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="69" t="s">
+      <c r="G34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="70"/>
+      <c r="H34" s="67"/>
       <c r="I34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="69" t="s">
+      <c r="L34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="70"/>
+      <c r="M34" s="67"/>
       <c r="N34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="69" t="s">
+      <c r="Q34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="70"/>
+      <c r="R34" s="67"/>
       <c r="S34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V34" s="69" t="s">
+      <c r="V34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="70"/>
+      <c r="W34" s="67"/>
       <c r="X34" s="10" t="s">
         <v>3</v>
       </c>
@@ -5163,63 +5051,63 @@
       <c r="Z34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA34" s="69" t="s">
+      <c r="AA34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AB34" s="70"/>
+      <c r="AB34" s="67"/>
       <c r="AC34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:30" ht="24.6" customHeight="1">
+    <row r="35" spans="1:30" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="66" t="s">
         <v>506</v>
       </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="H35" s="70"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="16" t="s">
         <v>241</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="69" t="s">
+      <c r="L35" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="M35" s="70"/>
+      <c r="M35" s="67"/>
       <c r="N35" s="16" t="s">
         <v>188</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="69" t="s">
+      <c r="Q35" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="R35" s="70"/>
+      <c r="R35" s="67"/>
       <c r="S35" s="16" t="s">
         <v>286</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="69" t="s">
+      <c r="V35" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="W35" s="70"/>
+      <c r="W35" s="67"/>
       <c r="X35" s="16" t="s">
         <v>115</v>
       </c>
@@ -5227,63 +5115,63 @@
       <c r="Z35" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="69" t="s">
+      <c r="AA35" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="AB35" s="70"/>
+      <c r="AB35" s="67"/>
       <c r="AC35" s="16" t="s">
         <v>401</v>
       </c>
       <c r="AD35" s="45"/>
     </row>
-    <row r="36" spans="1:30" ht="25.05" customHeight="1">
+    <row r="36" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="16" t="s">
         <v>488</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="69" t="s">
+      <c r="G36" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="H36" s="70"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="16" t="s">
         <v>243</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="69" t="s">
+      <c r="L36" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="M36" s="70"/>
+      <c r="M36" s="67"/>
       <c r="N36" s="16" t="s">
         <v>190</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="69" t="s">
+      <c r="Q36" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="R36" s="70"/>
+      <c r="R36" s="67"/>
       <c r="S36" s="16" t="s">
         <v>564</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V36" s="69" t="s">
+      <c r="V36" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="W36" s="70"/>
+      <c r="W36" s="67"/>
       <c r="X36" s="16" t="s">
         <v>117</v>
       </c>
@@ -5291,63 +5179,63 @@
       <c r="Z36" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AA36" s="69" t="s">
+      <c r="AA36" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="AB36" s="70"/>
+      <c r="AB36" s="67"/>
       <c r="AC36" s="16" t="s">
         <v>403</v>
       </c>
       <c r="AD36" s="45"/>
     </row>
-    <row r="37" spans="1:30" ht="25.05" customHeight="1">
+    <row r="37" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="69" t="s">
+      <c r="G37" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="H37" s="70"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="16" t="s">
         <v>245</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="69" t="s">
+      <c r="L37" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="M37" s="70"/>
+      <c r="M37" s="67"/>
       <c r="N37" s="16" t="s">
         <v>192</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q37" s="69" t="s">
+      <c r="Q37" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="R37" s="70"/>
+      <c r="R37" s="67"/>
       <c r="S37" s="16" t="s">
         <v>289</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V37" s="69" t="s">
+      <c r="V37" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="W37" s="70"/>
+      <c r="W37" s="67"/>
       <c r="X37" s="16" t="s">
         <v>119</v>
       </c>
@@ -5355,63 +5243,63 @@
       <c r="Z37" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="AA37" s="69" t="s">
+      <c r="AA37" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="AB37" s="70"/>
+      <c r="AB37" s="67"/>
       <c r="AC37" s="16" t="s">
         <v>405</v>
       </c>
       <c r="AD37" s="45"/>
     </row>
-    <row r="38" spans="1:30" ht="25.05" customHeight="1">
+    <row r="38" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="16" t="s">
         <v>489</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="H38" s="70"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="16" t="s">
         <v>247</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="69" t="s">
+      <c r="L38" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="M38" s="70"/>
+      <c r="M38" s="67"/>
       <c r="N38" s="16" t="s">
         <v>194</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="69" t="s">
+      <c r="Q38" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="R38" s="70"/>
+      <c r="R38" s="67"/>
       <c r="S38" s="16" t="s">
         <v>291</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V38" s="69" t="s">
+      <c r="V38" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="W38" s="75"/>
+      <c r="W38" s="103"/>
       <c r="X38" s="16" t="s">
         <v>121</v>
       </c>
@@ -5419,63 +5307,63 @@
       <c r="Z38" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AA38" s="69" t="s">
+      <c r="AA38" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="AB38" s="70"/>
+      <c r="AB38" s="67"/>
       <c r="AC38" s="16" t="s">
         <v>407</v>
       </c>
       <c r="AD38" s="45"/>
     </row>
-    <row r="39" spans="1:30" ht="25.05" customHeight="1">
+    <row r="39" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="16" t="s">
         <v>490</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="H39" s="70"/>
+      <c r="H39" s="67"/>
       <c r="I39" s="16" t="s">
         <v>249</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="69" t="s">
+      <c r="L39" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="M39" s="70"/>
+      <c r="M39" s="67"/>
       <c r="N39" s="16" t="s">
         <v>197</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="69" t="s">
+      <c r="Q39" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="R39" s="70"/>
+      <c r="R39" s="67"/>
       <c r="S39" s="16" t="s">
         <v>293</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V39" s="69" t="s">
+      <c r="V39" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="W39" s="75"/>
+      <c r="W39" s="103"/>
       <c r="X39" s="16" t="s">
         <v>123</v>
       </c>
@@ -5483,63 +5371,63 @@
       <c r="Z39" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AA39" s="69" t="s">
+      <c r="AA39" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="AB39" s="70"/>
+      <c r="AB39" s="67"/>
       <c r="AC39" s="16" t="s">
         <v>409</v>
       </c>
       <c r="AD39" s="45"/>
     </row>
-    <row r="40" spans="1:30" ht="25.05" customHeight="1">
+    <row r="40" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="70"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="16" t="s">
         <v>491</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="G40" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="H40" s="76"/>
+      <c r="H40" s="102"/>
       <c r="I40" s="48" t="s">
         <v>251</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="69" t="s">
+      <c r="L40" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="M40" s="70"/>
+      <c r="M40" s="67"/>
       <c r="N40" s="16" t="s">
         <v>199</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q40" s="69" t="s">
+      <c r="Q40" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="R40" s="70"/>
+      <c r="R40" s="67"/>
       <c r="S40" s="16" t="s">
         <v>373</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V40" s="69" t="s">
+      <c r="V40" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="W40" s="70"/>
+      <c r="W40" s="67"/>
       <c r="X40" s="16" t="s">
         <v>125</v>
       </c>
@@ -5547,25 +5435,25 @@
       <c r="Z40" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="AA40" s="69" t="s">
+      <c r="AA40" s="66" t="s">
         <v>410</v>
       </c>
-      <c r="AB40" s="70"/>
+      <c r="AB40" s="67"/>
       <c r="AC40" s="16" t="s">
         <v>411</v>
       </c>
       <c r="AD40" s="45"/>
     </row>
-    <row r="41" spans="1:30" ht="16.8">
+    <row r="41" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
       <c r="I41" s="49"/>
       <c r="K41" s="50"/>
       <c r="U41" s="50"/>
       <c r="Z41" s="51"/>
     </row>
-    <row r="42" spans="1:30" ht="16.8">
+    <row r="42" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
       <c r="U42" s="50"/>
     </row>
-    <row r="43" spans="1:30" ht="49.2">
+    <row r="43" spans="1:30" ht="49.2" x14ac:dyDescent="0.45">
       <c r="A43" s="52" t="s">
         <v>53</v>
       </c>
@@ -5576,6 +5464,130 @@
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="U9:X10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA30:AB30"/>
     <mergeCell ref="Q30:R30"/>
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="G31:H31"/>
@@ -5600,136 +5612,9 @@
     <mergeCell ref="AA26:AB26"/>
     <mergeCell ref="AA27:AB27"/>
     <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="U9:X10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -5737,11 +5622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D07522-65BB-490A-81D9-D965BE6349E0}">
   <dimension ref="A3:X33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.21875" style="3" customWidth="1"/>
@@ -5771,212 +5656,212 @@
     <col min="27" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" ht="21" customHeight="1">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" spans="1:24" ht="14.4" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
+    </row>
+    <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="1:24" ht="20.399999999999999">
-      <c r="A5" s="102">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="86"/>
+    </row>
+    <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="101">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.6">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="72" t="s">
         <v>581</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.6" customHeight="1">
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.6">
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-    </row>
-    <row r="9" spans="1:24" ht="14.4" customHeight="1">
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="72" t="s">
         <v>593</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-    </row>
-    <row r="10" spans="1:24" ht="76.8" customHeight="1">
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+    </row>
+    <row r="10" spans="1:24" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-    </row>
-    <row r="12" spans="1:24" s="9" customFormat="1" ht="17.399999999999999">
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+    </row>
+    <row r="12" spans="1:24" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
       <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
       <c r="K12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
       <c r="P12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="71" t="s">
+      <c r="Q12" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
       <c r="U12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.6">
-      <c r="A13" s="87" t="s">
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-      <c r="K13" s="87" t="s">
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="K13" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="89"/>
-      <c r="P13" s="87" t="s">
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
+      <c r="P13" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="U13" s="114" t="s">
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="U13" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="117"/>
-    </row>
-    <row r="14" spans="1:24" ht="28.05" customHeight="1">
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="107"/>
+    </row>
+    <row r="14" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>634</v>
       </c>
@@ -5987,7 +5872,7 @@
         <v>690</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>636</v>
@@ -6025,51 +5910,51 @@
       <c r="S14" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="U14" s="113" t="s">
+      <c r="U14" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="1:24" ht="25.05" customHeight="1">
+    <row r="15" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="67"/>
       <c r="N15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="69" t="s">
+      <c r="Q15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="70"/>
+      <c r="R15" s="67"/>
       <c r="S15" s="10" t="s">
         <v>3</v>
       </c>
@@ -6078,264 +5963,264 @@
       </c>
       <c r="X15" s="12"/>
     </row>
-    <row r="16" spans="1:24" ht="25.05" customHeight="1">
+    <row r="16" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="16" t="s">
         <v>231</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="H16" s="70"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="16" t="s">
         <v>688</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="70"/>
+      <c r="M16" s="67"/>
       <c r="N16" s="16" t="s">
         <v>201</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="69" t="s">
+      <c r="Q16" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="R16" s="70"/>
+      <c r="R16" s="67"/>
       <c r="S16" s="16" t="s">
         <v>413</v>
       </c>
       <c r="U16" s="17"/>
       <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:24" ht="25.05" customHeight="1">
+    <row r="17" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="16" t="s">
         <v>233</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="H17" s="70"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="16" t="s">
         <v>306</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="69" t="s">
+      <c r="L17" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="M17" s="70"/>
+      <c r="M17" s="67"/>
       <c r="N17" s="16" t="s">
         <v>203</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="69" t="s">
+      <c r="Q17" s="66" t="s">
         <v>414</v>
       </c>
-      <c r="R17" s="70"/>
+      <c r="R17" s="67"/>
       <c r="S17" s="16" t="s">
         <v>415</v>
       </c>
       <c r="U17" s="17"/>
       <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="1:24" ht="25.05" customHeight="1">
+    <row r="18" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="57" t="s">
+      <c r="C18" s="110"/>
+      <c r="D18" s="55" t="s">
         <v>184</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="66" t="s">
         <v>307</v>
       </c>
-      <c r="H18" s="70"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="16" t="s">
         <v>308</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="M18" s="75"/>
+      <c r="M18" s="103"/>
       <c r="N18" s="16" t="s">
         <v>205</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="69" t="s">
+      <c r="Q18" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="R18" s="70"/>
+      <c r="R18" s="67"/>
       <c r="S18" s="16" t="s">
         <v>417</v>
       </c>
       <c r="U18" s="17"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:24" ht="25.05" customHeight="1">
+    <row r="19" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="109" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="57" t="s">
+      <c r="C19" s="110"/>
+      <c r="D19" s="55" t="s">
         <v>236</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="H19" s="70"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="16" t="s">
         <v>601</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="69" t="s">
+      <c r="L19" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="M19" s="70"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="16" t="s">
         <v>207</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="69" t="s">
+      <c r="Q19" s="66" t="s">
         <v>418</v>
       </c>
-      <c r="R19" s="70"/>
+      <c r="R19" s="67"/>
       <c r="S19" s="16" t="s">
         <v>419</v>
       </c>
       <c r="U19" s="17"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="1:24" ht="25.05" customHeight="1">
+    <row r="20" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="109" t="s">
         <v>237</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="57" t="s">
+      <c r="C20" s="110"/>
+      <c r="D20" s="55" t="s">
         <v>238</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="H20" s="70"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="16" t="s">
         <v>316</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="M20" s="70"/>
+      <c r="M20" s="67"/>
       <c r="N20" s="16" t="s">
         <v>209</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="69" t="s">
+      <c r="Q20" s="66" t="s">
         <v>420</v>
       </c>
-      <c r="R20" s="70"/>
+      <c r="R20" s="67"/>
       <c r="S20" s="16" t="s">
         <v>675</v>
       </c>
       <c r="U20" s="17"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:24" ht="25.05" customHeight="1">
+    <row r="21" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="57" t="s">
+      <c r="C21" s="110"/>
+      <c r="D21" s="55" t="s">
         <v>186</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="69" t="s">
+      <c r="G21" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="H21" s="70"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="16" t="s">
         <v>318</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="69" t="s">
+      <c r="L21" s="66" t="s">
         <v>432</v>
       </c>
-      <c r="M21" s="70"/>
+      <c r="M21" s="67"/>
       <c r="N21" s="16" t="s">
         <v>433</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="69" t="s">
+      <c r="Q21" s="66" t="s">
         <v>421</v>
       </c>
-      <c r="R21" s="70"/>
+      <c r="R21" s="67"/>
       <c r="S21" s="16" t="s">
         <v>676</v>
       </c>
@@ -6344,49 +6229,49 @@
       <c r="W21" s="19"/>
       <c r="X21" s="20"/>
     </row>
-    <row r="22" spans="1:24" ht="25.05" customHeight="1">
+    <row r="22" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
       <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
       <c r="K22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="72" t="s">
+      <c r="L22" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="73"/>
-      <c r="N22" s="74"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="70"/>
       <c r="P22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="72" t="s">
+      <c r="Q22" s="68" t="s">
         <v>499</v>
       </c>
-      <c r="R22" s="73"/>
-      <c r="S22" s="74"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="70"/>
       <c r="U22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V22" s="72" t="s">
+      <c r="V22" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="W22" s="73"/>
-      <c r="X22" s="74"/>
-    </row>
-    <row r="23" spans="1:24" ht="28.05" customHeight="1">
+      <c r="W22" s="69"/>
+      <c r="X22" s="70"/>
+    </row>
+    <row r="23" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>635</v>
       </c>
@@ -6435,49 +6320,49 @@
       <c r="S23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="U23" s="113"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
       <c r="X23" s="12"/>
     </row>
-    <row r="24" spans="1:24" ht="25.05" customHeight="1">
+    <row r="24" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="70"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="69" t="s">
+      <c r="L24" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="70"/>
+      <c r="M24" s="67"/>
       <c r="N24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q24" s="69" t="s">
+      <c r="Q24" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R24" s="70"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="10" t="s">
         <v>3</v>
       </c>
@@ -6487,92 +6372,92 @@
       </c>
       <c r="X24" s="12"/>
     </row>
-    <row r="25" spans="1:24" ht="25.05" customHeight="1">
+    <row r="25" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="33" t="s">
         <v>608</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="H25" s="70"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="16" t="s">
         <v>588</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="69" t="s">
+      <c r="L25" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="M25" s="70"/>
+      <c r="M25" s="67"/>
       <c r="N25" s="16" t="s">
         <v>324</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="69" t="s">
+      <c r="Q25" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="R25" s="70"/>
+      <c r="R25" s="67"/>
       <c r="S25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U25" s="114" t="s">
+      <c r="U25" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
       <c r="X25" s="22"/>
     </row>
-    <row r="26" spans="1:24" ht="25.05" customHeight="1">
+    <row r="26" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="66" t="s">
         <v>437</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="33" t="s">
         <v>438</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="H26" s="70"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="16" t="s">
         <v>311</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="M26" s="70"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="16" t="s">
         <v>326</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="69" t="s">
+      <c r="Q26" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="R26" s="70"/>
+      <c r="R26" s="67"/>
       <c r="S26" s="16" t="s">
         <v>61</v>
       </c>
@@ -6584,44 +6469,44 @@
       </c>
       <c r="X26" s="12"/>
     </row>
-    <row r="27" spans="1:24" ht="25.05" customHeight="1">
+    <row r="27" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="66" t="s">
         <v>439</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="33" t="s">
         <v>440</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="69" t="s">
+      <c r="G27" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="H27" s="70"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="16" t="s">
         <v>313</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="M27" s="70"/>
+      <c r="M27" s="67"/>
       <c r="N27" s="16" t="s">
         <v>328</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" s="69" t="s">
+      <c r="Q27" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="R27" s="70"/>
+      <c r="R27" s="67"/>
       <c r="S27" s="16" t="s">
         <v>63</v>
       </c>
@@ -6633,132 +6518,132 @@
       </c>
       <c r="X27" s="12"/>
     </row>
-    <row r="28" spans="1:24" ht="25.05" customHeight="1">
+    <row r="28" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="66" t="s">
         <v>441</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="33" t="s">
         <v>442</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="16" t="s">
         <v>139</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="L28" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="M28" s="70"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="16" t="s">
         <v>330</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q28" s="69" t="s">
+      <c r="Q28" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="R28" s="70"/>
+      <c r="R28" s="67"/>
       <c r="S28" s="16" t="s">
         <v>65</v>
       </c>
       <c r="U28" s="17"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" ht="25.05" customHeight="1">
+    <row r="29" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="66" t="s">
         <v>443</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="33" t="s">
         <v>444</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="66" t="s">
         <v>320</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="16" t="s">
         <v>590</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="69" t="s">
+      <c r="L29" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="M29" s="70"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="16" t="s">
         <v>332</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q29" s="69" t="s">
+      <c r="Q29" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="R29" s="70"/>
+      <c r="R29" s="67"/>
       <c r="S29" s="16" t="s">
         <v>67</v>
       </c>
       <c r="U29" s="17"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" ht="25.05" customHeight="1">
+    <row r="30" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="115" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="63" t="s">
+      <c r="C30" s="116"/>
+      <c r="D30" s="117" t="s">
         <v>278</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="H30" s="70"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="16" t="s">
         <v>322</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="69" t="s">
+      <c r="L30" s="66" t="s">
         <v>475</v>
       </c>
-      <c r="M30" s="70"/>
+      <c r="M30" s="67"/>
       <c r="N30" s="16" t="s">
         <v>476</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="69" t="s">
+      <c r="Q30" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="R30" s="70"/>
+      <c r="R30" s="67"/>
       <c r="S30" s="16" t="s">
         <v>69</v>
       </c>
@@ -6767,7 +6652,7 @@
       <c r="W30" s="19"/>
       <c r="X30" s="20"/>
     </row>
-    <row r="33" spans="1:2" s="25" customFormat="1" ht="21">
+    <row r="33" spans="1:2" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
         <v>582</v>
       </c>
@@ -6777,6 +6662,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="P13:S13"/>
     <mergeCell ref="U25:W25"/>
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="U23:W23"/>
@@ -6793,79 +6751,6 @@
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6876,185 +6761,185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0A72A6-F728-4273-B217-6595B7D29A78}">
   <dimension ref="A3:AD40"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="O9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31:X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="37.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" ht="21" customHeight="1">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.4" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="1:26" ht="20.399999999999999">
-      <c r="A5" s="102">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="86"/>
+    </row>
+    <row r="5" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="101">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.6">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="72" t="s">
         <v>581</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.6">
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.6">
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.4" customHeight="1">
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-    </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1">
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-    </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1">
-      <c r="A11" s="87" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-      <c r="K11" s="87" t="s">
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="K11" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="89"/>
-      <c r="P11" s="87" t="s">
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
+      <c r="P11" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" ht="28.05" customHeight="1">
+    <row r="12" spans="1:26" s="29" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>642</v>
       </c>
@@ -7095,16 +6980,16 @@
         <v>651</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>671</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="25.05" customHeight="1">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
@@ -7118,30 +7003,30 @@
       <c r="F13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="70"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="67"/>
       <c r="N13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="69" t="s">
+      <c r="Q13" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="70"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="31" t="s">
         <v>3</v>
       </c>
@@ -7150,90 +7035,90 @@
       <c r="W13" s="32"/>
       <c r="X13" s="32"/>
     </row>
-    <row r="14" spans="1:26" ht="25.05" customHeight="1">
+    <row r="14" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="33" t="s">
         <v>497</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="66" t="s">
         <v>580</v>
       </c>
-      <c r="H14" s="70"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="16" t="s">
         <v>579</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="67"/>
       <c r="N14" s="16" t="s">
         <v>389</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="69" t="s">
+      <c r="Q14" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="R14" s="70"/>
+      <c r="R14" s="67"/>
       <c r="S14" s="33" t="s">
         <v>153</v>
       </c>
       <c r="U14" s="34"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-    </row>
-    <row r="15" spans="1:26" ht="25.05" customHeight="1">
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+    </row>
+    <row r="15" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="33" t="s">
         <v>492</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="66" t="s">
         <v>578</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="16" t="s">
         <v>577</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="67"/>
       <c r="N15" s="16" t="s">
         <v>391</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="69" t="s">
+      <c r="Q15" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="R15" s="70"/>
+      <c r="R15" s="67"/>
       <c r="S15" s="33" t="s">
         <v>155</v>
       </c>
@@ -7242,44 +7127,44 @@
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
     </row>
-    <row r="16" spans="1:26" ht="25.05" customHeight="1">
+    <row r="16" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="16" t="s">
         <v>496</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="66" t="s">
         <v>576</v>
       </c>
-      <c r="H16" s="70"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="16" t="s">
         <v>575</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="M16" s="70"/>
+      <c r="M16" s="67"/>
       <c r="N16" s="16" t="s">
         <v>393</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="69" t="s">
+      <c r="Q16" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="R16" s="70"/>
+      <c r="R16" s="67"/>
       <c r="S16" s="33" t="s">
         <v>157</v>
       </c>
@@ -7289,44 +7174,44 @@
       <c r="X16" s="36"/>
       <c r="Z16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="25.05" customHeight="1">
+    <row r="17" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="16" t="s">
         <v>493</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="66" t="s">
         <v>574</v>
       </c>
-      <c r="H17" s="70"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="16" t="s">
         <v>573</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="69" t="s">
+      <c r="L17" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="M17" s="70"/>
+      <c r="M17" s="67"/>
       <c r="N17" s="16" t="s">
         <v>395</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="69" t="s">
+      <c r="Q17" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="R17" s="70"/>
+      <c r="R17" s="67"/>
       <c r="S17" s="33" t="s">
         <v>159</v>
       </c>
@@ -7335,44 +7220,44 @@
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
     </row>
-    <row r="18" spans="1:30" ht="25.05" customHeight="1">
+    <row r="18" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="16" t="s">
         <v>494</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="H18" s="70"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="16" t="s">
         <v>572</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="M18" s="70"/>
+      <c r="M18" s="67"/>
       <c r="N18" s="16" t="s">
         <v>397</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="69" t="s">
+      <c r="Q18" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="R18" s="70"/>
+      <c r="R18" s="67"/>
       <c r="S18" s="33" t="s">
         <v>161</v>
       </c>
@@ -7381,44 +7266,44 @@
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
-    <row r="19" spans="1:30" ht="25.05" customHeight="1">
+    <row r="19" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="16" t="s">
         <v>495</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="H19" s="70"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="16" t="s">
         <v>600</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="69" t="s">
+      <c r="L19" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="M19" s="70"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="16" t="s">
         <v>399</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="69" t="s">
+      <c r="Q19" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="R19" s="70"/>
+      <c r="R19" s="67"/>
       <c r="S19" s="33" t="s">
         <v>163</v>
       </c>
@@ -7427,44 +7312,44 @@
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
-    <row r="20" spans="1:30" ht="25.05" customHeight="1">
+    <row r="20" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="16" t="s">
         <v>589</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="H20" s="70"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="16" t="s">
         <v>376</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="M20" s="70"/>
+      <c r="M20" s="67"/>
       <c r="N20" s="16" t="s">
         <v>211</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="69" t="s">
+      <c r="Q20" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="R20" s="70"/>
+      <c r="R20" s="67"/>
       <c r="S20" s="33" t="s">
         <v>165</v>
       </c>
@@ -7473,78 +7358,78 @@
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
-    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999">
+    <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
       <c r="K22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="71" t="s">
+      <c r="L22" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
       <c r="P22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="71" t="s">
+      <c r="Q22" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
       <c r="U22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="108" t="s">
+      <c r="V22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
       <c r="Z22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA22" s="108" t="s">
+      <c r="AA22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="108"/>
-    </row>
-    <row r="23" spans="1:30" ht="15.6">
-      <c r="U23" s="87" t="s">
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="U23" s="72" t="s">
         <v>513</v>
       </c>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Z23" s="88" t="s">
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Z23" s="73" t="s">
         <v>512</v>
       </c>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-    </row>
-    <row r="24" spans="1:30" ht="28.05" customHeight="1">
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+    </row>
+    <row r="24" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>643</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>664</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -7578,7 +7463,7 @@
         <v>652</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>670</v>
@@ -7592,75 +7477,75 @@
       <c r="V24" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="W24" s="59" t="s">
+      <c r="W24" s="57" t="s">
         <v>703</v>
       </c>
-      <c r="X24" s="60" t="s">
+      <c r="X24" s="58" t="s">
         <v>700</v>
       </c>
       <c r="Y24" s="32"/>
       <c r="Z24" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="AA24" s="59" t="s">
+      <c r="AA24" s="57" t="s">
         <v>698</v>
       </c>
-      <c r="AB24" s="61" t="s">
+      <c r="AB24" s="59" t="s">
         <v>685</v>
       </c>
-      <c r="AC24" s="62" t="s">
+      <c r="AC24" s="60" t="s">
         <v>699</v>
       </c>
       <c r="AD24" s="37"/>
     </row>
-    <row r="25" spans="1:30" ht="25.05" customHeight="1">
+    <row r="25" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="70"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="69" t="s">
+      <c r="L25" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="70"/>
+      <c r="M25" s="67"/>
       <c r="N25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="69" t="s">
+      <c r="Q25" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="70"/>
+      <c r="R25" s="67"/>
       <c r="S25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V25" s="69" t="s">
+      <c r="V25" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="70"/>
+      <c r="W25" s="67"/>
       <c r="X25" s="10" t="s">
         <v>3</v>
       </c>
@@ -7668,452 +7553,452 @@
       <c r="Z25" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AA25" s="111" t="s">
+      <c r="AA25" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="62" t="s">
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="60" t="s">
         <v>498</v>
       </c>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" ht="25.05" customHeight="1">
+    <row r="26" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="16" t="s">
         <v>253</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="H26" s="70"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="16" t="s">
         <v>378</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="M26" s="70"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="16" t="s">
         <v>215</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="69" t="s">
+      <c r="Q26" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="R26" s="70"/>
+      <c r="R26" s="67"/>
       <c r="S26" s="16" t="s">
         <v>345</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="111" t="s">
-        <v>714</v>
-      </c>
-      <c r="W26" s="112"/>
-      <c r="X26" s="57" t="s">
+      <c r="V26" s="109" t="s">
+        <v>713</v>
+      </c>
+      <c r="W26" s="110"/>
+      <c r="X26" s="55" t="s">
         <v>274</v>
       </c>
       <c r="Y26" s="40"/>
       <c r="Z26" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="111" t="s">
+      <c r="AA26" s="109" t="s">
         <v>461</v>
       </c>
-      <c r="AB26" s="112"/>
-      <c r="AC26" s="58" t="s">
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="56" t="s">
         <v>462</v>
       </c>
       <c r="AD26" s="36"/>
     </row>
-    <row r="27" spans="1:30" ht="25.05" customHeight="1">
+    <row r="27" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="16" t="s">
         <v>255</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="69" t="s">
+      <c r="G27" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="H27" s="70"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="16" t="s">
         <v>380</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="M27" s="70"/>
+      <c r="M27" s="67"/>
       <c r="N27" s="16" t="s">
         <v>217</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="69" t="s">
+      <c r="Q27" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="R27" s="70"/>
+      <c r="R27" s="67"/>
       <c r="S27" s="16" t="s">
         <v>347</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="111" t="s">
-        <v>713</v>
-      </c>
-      <c r="W27" s="112"/>
-      <c r="X27" s="57" t="s">
+      <c r="V27" s="109" t="s">
+        <v>712</v>
+      </c>
+      <c r="W27" s="110"/>
+      <c r="X27" s="55" t="s">
         <v>279</v>
       </c>
       <c r="Y27" s="40"/>
       <c r="Z27" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="AA27" s="111" t="s">
+      <c r="AA27" s="109" t="s">
         <v>463</v>
       </c>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="58" t="s">
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="56" t="s">
         <v>680</v>
       </c>
       <c r="AD27" s="36"/>
     </row>
-    <row r="28" spans="1:30" ht="25.05" customHeight="1">
+    <row r="28" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="16" t="s">
         <v>257</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="16" t="s">
         <v>602</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="L28" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="M28" s="70"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="16" t="s">
         <v>219</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="69" t="s">
+      <c r="Q28" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="R28" s="70"/>
+      <c r="R28" s="67"/>
       <c r="S28" s="16" t="s">
         <v>349</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="111" t="s">
+      <c r="V28" s="109" t="s">
         <v>457</v>
       </c>
-      <c r="W28" s="112"/>
-      <c r="X28" s="58" t="s">
+      <c r="W28" s="110"/>
+      <c r="X28" s="56" t="s">
         <v>458</v>
       </c>
       <c r="Y28" s="40"/>
       <c r="Z28" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA28" s="111" t="s">
+      <c r="AA28" s="109" t="s">
         <v>464</v>
       </c>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="58" t="s">
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="56" t="s">
         <v>465</v>
       </c>
       <c r="AD28" s="36"/>
     </row>
-    <row r="29" spans="1:30" ht="25.05" customHeight="1">
+    <row r="29" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="16" t="s">
         <v>259</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="16" t="s">
         <v>383</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="69" t="s">
+      <c r="L29" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="M29" s="70"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="16" t="s">
         <v>221</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="69" t="s">
+      <c r="Q29" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="R29" s="70"/>
+      <c r="R29" s="67"/>
       <c r="S29" s="16" t="s">
         <v>351</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V29" s="111" t="s">
+      <c r="V29" s="109" t="s">
         <v>459</v>
       </c>
-      <c r="W29" s="112"/>
-      <c r="X29" s="58" t="s">
+      <c r="W29" s="110"/>
+      <c r="X29" s="56" t="s">
         <v>460</v>
       </c>
       <c r="Y29" s="40"/>
       <c r="Z29" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AA29" s="111" t="s">
+      <c r="AA29" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="AB29" s="112"/>
-      <c r="AC29" s="57" t="s">
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="55" t="s">
         <v>282</v>
       </c>
       <c r="AD29" s="36"/>
     </row>
-    <row r="30" spans="1:30" ht="25.05" customHeight="1">
+    <row r="30" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="16" t="s">
         <v>261</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="H30" s="70"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="16" t="s">
         <v>385</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="69" t="s">
+      <c r="L30" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="M30" s="70"/>
+      <c r="M30" s="67"/>
       <c r="N30" s="16" t="s">
         <v>223</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="69" t="s">
+      <c r="Q30" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="R30" s="70"/>
+      <c r="R30" s="67"/>
       <c r="S30" s="16" t="s">
         <v>353</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="111" t="s">
+      <c r="V30" s="109" t="s">
         <v>701</v>
       </c>
-      <c r="W30" s="112"/>
-      <c r="X30" s="58" t="s">
+      <c r="W30" s="110"/>
+      <c r="X30" s="56" t="s">
         <v>702</v>
       </c>
       <c r="Y30" s="40"/>
       <c r="Z30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AA30" s="111" t="s">
+      <c r="AA30" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="57" t="s">
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="55" t="s">
         <v>284</v>
       </c>
       <c r="AD30" s="36"/>
     </row>
-    <row r="31" spans="1:30" ht="25.05" customHeight="1">
+    <row r="31" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="16" t="s">
         <v>263</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="H31" s="70"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="16" t="s">
         <v>387</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="69" t="s">
+      <c r="L31" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="M31" s="70"/>
+      <c r="M31" s="67"/>
       <c r="N31" s="16" t="s">
         <v>213</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="69" t="s">
+      <c r="Q31" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="R31" s="70"/>
+      <c r="R31" s="67"/>
       <c r="S31" s="16" t="s">
         <v>565</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="109" t="s">
+      <c r="V31" s="115" t="s">
         <v>434</v>
       </c>
-      <c r="W31" s="110"/>
-      <c r="X31" s="56" t="s">
+      <c r="W31" s="116"/>
+      <c r="X31" s="118" t="s">
         <v>435</v>
       </c>
       <c r="Y31" s="40"/>
       <c r="Z31" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="111" t="s">
+      <c r="AA31" s="109" t="s">
         <v>704</v>
       </c>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="57" t="s">
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="55" t="s">
         <v>280</v>
       </c>
       <c r="AD31" s="36"/>
     </row>
-    <row r="32" spans="1:30" ht="25.05" customHeight="1">
+    <row r="32" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="72" t="s">
+      <c r="G32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="73"/>
-      <c r="I32" s="74"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="70"/>
       <c r="K32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="72" t="s">
+      <c r="L32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="73"/>
-      <c r="N32" s="74"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="70"/>
       <c r="P32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="72" t="s">
+      <c r="Q32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="R32" s="73"/>
-      <c r="S32" s="74"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="70"/>
       <c r="U32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="72" t="s">
+      <c r="V32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
       <c r="Y32" s="40"/>
-      <c r="Z32" s="73" t="s">
+      <c r="Z32" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="AA32" s="73" t="s">
+      <c r="AA32" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="74"/>
+      <c r="AB32" s="70"/>
       <c r="AC32" s="42"/>
       <c r="AD32" s="35"/>
     </row>
-    <row r="33" spans="1:30" s="29" customFormat="1" ht="28.05" customHeight="1">
+    <row r="33" spans="1:30" s="29" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>644</v>
       </c>
@@ -8144,7 +8029,7 @@
       <c r="L33" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="M33" s="121" t="s">
+      <c r="M33" s="114" t="s">
         <v>691</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -8160,7 +8045,7 @@
         <v>669</v>
       </c>
       <c r="S33" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="U33" s="30" t="s">
         <v>655</v>
@@ -8187,116 +8072,116 @@
         <v>560</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="25.05" customHeight="1">
+    <row r="34" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="69" t="s">
+      <c r="G34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="70"/>
+      <c r="H34" s="67"/>
       <c r="I34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="69" t="s">
+      <c r="L34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="70"/>
+      <c r="M34" s="67"/>
       <c r="N34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="69" t="s">
+      <c r="Q34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="70"/>
+      <c r="R34" s="67"/>
       <c r="S34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V34" s="69" t="s">
+      <c r="V34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="70"/>
+      <c r="W34" s="67"/>
       <c r="X34" s="31" t="s">
         <v>3</v>
       </c>
       <c r="Z34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AA34" s="69" t="s">
+      <c r="AA34" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AB34" s="70"/>
+      <c r="AB34" s="67"/>
       <c r="AC34" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="25.05" customHeight="1">
+    <row r="35" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="66" t="s">
         <v>422</v>
       </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="H35" s="70"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="16" t="s">
         <v>568</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="69" t="s">
+      <c r="L35" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="M35" s="70"/>
+      <c r="M35" s="67"/>
       <c r="N35" s="16" t="s">
         <v>334</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="111" t="s">
+      <c r="Q35" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="R35" s="112"/>
-      <c r="S35" s="57" t="s">
+      <c r="R35" s="110"/>
+      <c r="S35" s="55" t="s">
         <v>178</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="69" t="s">
+      <c r="V35" s="66" t="s">
         <v>445</v>
       </c>
-      <c r="W35" s="70"/>
+      <c r="W35" s="67"/>
       <c r="X35" s="33" t="s">
         <v>446</v>
       </c>
@@ -8304,63 +8189,63 @@
       <c r="Z35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="69" t="s">
+      <c r="AA35" s="66" t="s">
         <v>466</v>
       </c>
-      <c r="AB35" s="70"/>
+      <c r="AB35" s="67"/>
       <c r="AC35" s="33" t="s">
         <v>467</v>
       </c>
       <c r="AD35" s="36"/>
     </row>
-    <row r="36" spans="1:30" ht="25.05" customHeight="1">
+    <row r="36" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="66" t="s">
         <v>424</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="16" t="s">
         <v>425</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="69" t="s">
+      <c r="G36" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="H36" s="70"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="16" t="s">
         <v>369</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="69" t="s">
+      <c r="L36" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="M36" s="70"/>
+      <c r="M36" s="67"/>
       <c r="N36" s="16" t="s">
         <v>336</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="111" t="s">
+      <c r="Q36" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="R36" s="112"/>
-      <c r="S36" s="57" t="s">
+      <c r="R36" s="110"/>
+      <c r="S36" s="55" t="s">
         <v>180</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V36" s="69" t="s">
+      <c r="V36" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="W36" s="70"/>
+      <c r="W36" s="67"/>
       <c r="X36" s="33" t="s">
         <v>448</v>
       </c>
@@ -8368,63 +8253,63 @@
       <c r="Z36" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AA36" s="69" t="s">
+      <c r="AA36" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="AB36" s="70"/>
+      <c r="AB36" s="67"/>
       <c r="AC36" s="33" t="s">
         <v>469</v>
       </c>
       <c r="AD36" s="36"/>
     </row>
-    <row r="37" spans="1:30" ht="25.05" customHeight="1">
+    <row r="37" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="16" t="s">
         <v>427</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="69" t="s">
+      <c r="G37" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="H37" s="70"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="16" t="s">
         <v>371</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="69" t="s">
+      <c r="L37" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="M37" s="70"/>
+      <c r="M37" s="67"/>
       <c r="N37" s="16" t="s">
         <v>338</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q37" s="111" t="s">
+      <c r="Q37" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="R37" s="112"/>
-      <c r="S37" s="57" t="s">
+      <c r="R37" s="110"/>
+      <c r="S37" s="55" t="s">
         <v>182</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V37" s="69" t="s">
+      <c r="V37" s="66" t="s">
         <v>453</v>
       </c>
-      <c r="W37" s="70"/>
+      <c r="W37" s="67"/>
       <c r="X37" s="33" t="s">
         <v>454</v>
       </c>
@@ -8432,63 +8317,63 @@
       <c r="Z37" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AA37" s="69" t="s">
+      <c r="AA37" s="66" t="s">
         <v>470</v>
       </c>
-      <c r="AB37" s="70"/>
+      <c r="AB37" s="67"/>
       <c r="AC37" s="33" t="s">
         <v>471</v>
       </c>
       <c r="AD37" s="36"/>
     </row>
-    <row r="38" spans="1:30" ht="25.05" customHeight="1">
+    <row r="38" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="66" t="s">
         <v>428</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="16" t="s">
         <v>429</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="H38" s="70"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="33" t="s">
         <v>450</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="69" t="s">
+      <c r="L38" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="M38" s="70"/>
+      <c r="M38" s="67"/>
       <c r="N38" s="16" t="s">
         <v>340</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="111" t="s">
-        <v>707</v>
-      </c>
-      <c r="R38" s="112"/>
-      <c r="S38" s="57" t="s">
+      <c r="Q38" s="109" t="s">
+        <v>706</v>
+      </c>
+      <c r="R38" s="110"/>
+      <c r="S38" s="55" t="s">
         <v>234</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V38" s="69" t="s">
+      <c r="V38" s="66" t="s">
         <v>455</v>
       </c>
-      <c r="W38" s="70"/>
+      <c r="W38" s="67"/>
       <c r="X38" s="33" t="s">
         <v>456</v>
       </c>
@@ -8496,63 +8381,63 @@
       <c r="Z38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AA38" s="69" t="s">
+      <c r="AA38" s="66" t="s">
         <v>472</v>
       </c>
-      <c r="AB38" s="70"/>
+      <c r="AB38" s="67"/>
       <c r="AC38" s="33" t="s">
         <v>473</v>
       </c>
       <c r="AD38" s="36"/>
     </row>
-    <row r="39" spans="1:30" ht="25.05" customHeight="1">
+    <row r="39" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="16" t="s">
         <v>431</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="H39" s="70"/>
+      <c r="H39" s="67"/>
       <c r="I39" s="33" t="s">
         <v>452</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="69" t="s">
+      <c r="L39" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="M39" s="70"/>
+      <c r="M39" s="67"/>
       <c r="N39" s="16" t="s">
         <v>342</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="111" t="s">
-        <v>706</v>
-      </c>
-      <c r="R39" s="112"/>
-      <c r="S39" s="57" t="s">
+      <c r="Q39" s="109" t="s">
+        <v>705</v>
+      </c>
+      <c r="R39" s="110"/>
+      <c r="S39" s="55" t="s">
         <v>239</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V39" s="69" t="s">
+      <c r="V39" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="W39" s="70"/>
+      <c r="W39" s="67"/>
       <c r="X39" s="16" t="s">
         <v>566</v>
       </c>
@@ -8560,24 +8445,24 @@
       <c r="Z39" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AA39" s="69" t="s">
+      <c r="AA39" s="66" t="s">
         <v>474</v>
       </c>
-      <c r="AB39" s="70"/>
+      <c r="AB39" s="67"/>
       <c r="AC39" s="33" t="s">
         <v>563</v>
       </c>
       <c r="AD39" s="36"/>
     </row>
-    <row r="40" spans="1:30" ht="34.200000000000003" customHeight="1">
+    <row r="40" spans="1:30" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="119"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="113"/>
       <c r="I40" s="44"/>
       <c r="K40" s="2" t="s">
         <v>22</v>
@@ -8588,30 +8473,133 @@
       <c r="U40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V40" s="69"/>
-      <c r="W40" s="70"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="67"/>
       <c r="X40" s="33"/>
       <c r="Y40" s="40"/>
       <c r="Z40" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AA40" s="69"/>
-      <c r="AB40" s="70"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="67"/>
       <c r="AC40" s="33"/>
       <c r="AD40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="U9:X10"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="L22:N22"/>
@@ -8636,119 +8624,16 @@
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="U9:X10"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AA25:AB25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/Updated time schedule for ICIT 2024.xlsx
+++ b/files/Updated time schedule for ICIT 2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D1088-A31C-4790-BD04-E4CC5BC4FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5CFB36-0A01-4324-9E80-539B715F49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="716">
   <si>
     <t>Break</t>
   </si>
@@ -480,9 +480,6 @@
     <t>ICIT24-000111</t>
   </si>
   <si>
-    <t>ICIT24-000130</t>
-  </si>
-  <si>
     <t>ICIT24-000344</t>
   </si>
   <si>
@@ -672,13 +669,6 @@
 </t>
   </si>
   <si>
-    <t>ICIT24-000032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online Learning Fuzzy Echo State Network with Applications on Redundant Manipulators
-</t>
-  </si>
-  <si>
     <t>ICIT24-000226</t>
   </si>
   <si>
@@ -971,13 +961,6 @@
   </si>
   <si>
     <t xml:space="preserve">Experimental Investigation about the Effect of Voltage Ripple of the Power Supply on the Performance of High Power Electron Tubes
-</t>
-  </si>
-  <si>
-    <t>ICIT24-000352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Averaged models and analysis of a three-phase CSI as a dual of a three-phase VSI
 </t>
   </si>
   <si>
@@ -1783,10 +1766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prediction model of sludge volume index based on an improved deep stochastic configuration network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Water content classification on leaves based on multi-spectral imagery and machine learning techniques for wildfire prevention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1839,10 +1818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NFC-RFID-based Blockchain Platform for Product Traceability and Authentication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Task planning optimization in assisting multiple NC machine tools using AMR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1868,10 +1843,6 @@
   </si>
   <si>
     <t>ICIT24-000340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICIT24-000414</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2717,6 +2688,45 @@
   </si>
   <si>
     <t>ICIT24-000385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICIT24-000404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spatial-Temporal Graph U-Net for Skeleton-based Human Motion Infilling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICIT24-000376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimized Admittance Control for Manipulators Interacting with Unknown Environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICIT24-000230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Innovative Tactile Sensor Roller for Composites Inspection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICIT24-000348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A dual-arm robotics teleoperation system for needle steering in prostate brachytherapy</t>
+  </si>
+  <si>
+    <t>ICIT24-000286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration of the stiffness of soft cantilevers based on electromagnetic and electrostatic force compensation principles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3034,7 +3044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3143,7 +3153,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3343,26 +3352,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3656,18 +3662,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="64">
+      <c r="A1" s="63">
         <v>45375</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
@@ -3686,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7950FE-D522-4BF8-B0AB-A197EB040E32}">
   <dimension ref="A3:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="T13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="T19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3725,164 +3731,164 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="101">
+      <c r="A5" s="100">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>581</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+        <v>501</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="6" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="K11" s="72" t="s">
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="K11" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="74"/>
-      <c r="P11" s="72" t="s">
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
+      <c r="P11" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
@@ -3890,95 +3896,95 @@
     </row>
     <row r="12" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="30" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="30" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="N12" s="30" t="s">
         <v>36</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="30" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="80"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="66" t="s">
+      <c r="L13" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="67"/>
+      <c r="M13" s="66"/>
       <c r="N13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="66" t="s">
+      <c r="Q13" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="67"/>
+      <c r="R13" s="66"/>
       <c r="S13" s="10" t="s">
         <v>3</v>
       </c>
@@ -3987,294 +3993,294 @@
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="16" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="103"/>
+      <c r="H14" s="102"/>
       <c r="I14" s="16" t="s">
         <v>85</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="67"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="16" t="s">
         <v>101</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="66" t="s">
-        <v>355</v>
-      </c>
-      <c r="R14" s="67"/>
+      <c r="Q14" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="R14" s="66"/>
       <c r="S14" s="16" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>505</v>
-      </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="46" t="s">
-        <v>477</v>
+      <c r="B15" s="65" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="45" t="s">
+        <v>472</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="16" t="s">
         <v>87</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="67"/>
+      <c r="M15" s="66"/>
       <c r="N15" s="16" t="s">
         <v>103</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="R15" s="67"/>
+      <c r="Q15" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="R15" s="66"/>
       <c r="S15" s="16" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="66" t="s">
-        <v>504</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="46" t="s">
-        <v>478</v>
+      <c r="B16" s="65" t="s">
+        <v>496</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="45" t="s">
+        <v>473</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="16" t="s">
         <v>89</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="66" t="s">
+      <c r="L16" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="M16" s="67"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="16" t="s">
         <v>105</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="R16" s="67"/>
+      <c r="Q16" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="R16" s="66"/>
       <c r="S16" s="16" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>500</v>
-      </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="46" t="s">
-        <v>479</v>
+      <c r="B17" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="45" t="s">
+        <v>474</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="67"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="M17" s="67"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="16" t="s">
         <v>107</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="R17" s="67"/>
+      <c r="Q17" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="R17" s="66"/>
       <c r="S17" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="66" t="s">
-        <v>501</v>
-      </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="46" t="s">
-        <v>508</v>
+      <c r="B18" s="65" t="s">
+        <v>494</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="45" t="s">
+        <v>500</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="66" t="s">
-        <v>693</v>
-      </c>
-      <c r="H18" s="67"/>
+      <c r="G18" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="H18" s="66"/>
       <c r="I18" s="16" t="s">
         <v>92</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="66" t="s">
+      <c r="L18" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="M18" s="67"/>
+      <c r="M18" s="66"/>
       <c r="N18" s="16" t="s">
         <v>109</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="R18" s="67"/>
+      <c r="Q18" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="R18" s="66"/>
       <c r="S18" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="46" t="s">
-        <v>480</v>
+      <c r="B19" s="111" t="s">
+        <v>706</v>
+      </c>
+      <c r="C19" s="112"/>
+      <c r="D19" s="116" t="s">
+        <v>707</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="16" t="s">
         <v>94</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="M19" s="67"/>
+      <c r="M19" s="66"/>
       <c r="N19" s="16" t="s">
         <v>111</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="R19" s="67"/>
+      <c r="Q19" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="R19" s="66"/>
       <c r="S19" s="16" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>503</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="46" t="s">
-        <v>481</v>
+      <c r="B20" s="65" t="s">
+        <v>495</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="45" t="s">
+        <v>475</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="67"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="16" t="s">
         <v>96</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="66" t="s">
+      <c r="L20" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="67"/>
+      <c r="M20" s="66"/>
       <c r="N20" s="16" t="s">
         <v>113</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="R20" s="67"/>
+      <c r="Q20" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="R20" s="66"/>
       <c r="S20" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.25">
@@ -4284,139 +4290,139 @@
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="78" t="s">
+      <c r="G22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
       <c r="K22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="78" t="s">
+      <c r="L22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
       <c r="P22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="78" t="s">
+      <c r="Q22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
       <c r="U22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="71" t="s">
+      <c r="V22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
       <c r="Z22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA22" s="71" t="s">
-        <v>511</v>
-      </c>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
+      <c r="AA22" s="70" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
     </row>
     <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="U23" s="72" t="s">
-        <v>510</v>
-      </c>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="74"/>
-      <c r="Z23" s="72" t="s">
-        <v>512</v>
-      </c>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="74"/>
+      <c r="U23" s="71" t="s">
+        <v>502</v>
+      </c>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="73"/>
+      <c r="Z23" s="71" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="73"/>
     </row>
     <row r="24" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>41</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="AD24" s="11"/>
     </row>
@@ -4434,40 +4440,40 @@
       <c r="F25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="67"/>
+      <c r="H25" s="66"/>
       <c r="I25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="67"/>
+      <c r="M25" s="66"/>
       <c r="N25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="66" t="s">
+      <c r="Q25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="67"/>
+      <c r="R25" s="66"/>
       <c r="S25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V25" s="66" t="s">
+      <c r="V25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="67"/>
+      <c r="W25" s="66"/>
       <c r="X25" s="10" t="s">
         <v>3</v>
       </c>
@@ -4475,10 +4481,10 @@
       <c r="Z25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA25" s="66" t="s">
+      <c r="AA25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="67"/>
+      <c r="AB25" s="66"/>
       <c r="AC25" s="10" t="s">
         <v>3</v>
       </c>
@@ -4488,511 +4494,511 @@
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>507</v>
-      </c>
-      <c r="C26" s="67"/>
+      <c r="B26" s="65" t="s">
+        <v>499</v>
+      </c>
+      <c r="C26" s="66"/>
       <c r="D26" s="16" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="G26" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="H26" s="67"/>
+        <v>673</v>
+      </c>
+      <c r="G26" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="66"/>
       <c r="I26" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="66" t="s">
+      <c r="L26" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" s="66"/>
+      <c r="N26" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="M26" s="67"/>
-      <c r="N26" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="66" t="s">
+      <c r="Q26" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="R26" s="66"/>
+      <c r="S26" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="R26" s="67"/>
-      <c r="S26" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="W26" s="67"/>
+      <c r="V26" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="W26" s="66"/>
       <c r="X26" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="45" t="s">
+      <c r="Z26" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="66" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB26" s="67"/>
+      <c r="AA26" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB26" s="66"/>
       <c r="AC26" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="AD26" s="45"/>
+        <v>575</v>
+      </c>
+      <c r="AD26" s="44"/>
     </row>
     <row r="27" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="16" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="67"/>
+      <c r="G27" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="H27" s="66"/>
       <c r="I27" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="66" t="s">
+      <c r="L27" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="67"/>
+      <c r="M27" s="66"/>
       <c r="N27" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="66" t="s">
+      <c r="Q27" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="R27" s="66"/>
+      <c r="S27" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="R27" s="67"/>
-      <c r="S27" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="W27" s="67"/>
+      <c r="V27" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="W27" s="66"/>
       <c r="X27" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="45" t="s">
+      <c r="Z27" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AA27" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB27" s="67"/>
+      <c r="AA27" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB27" s="66"/>
       <c r="AC27" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD27" s="45"/>
+        <v>291</v>
+      </c>
+      <c r="AD27" s="44"/>
     </row>
     <row r="28" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="16" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="H28" s="67"/>
+      <c r="G28" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="H28" s="66"/>
       <c r="I28" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="66" t="s">
+      <c r="L28" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="M28" s="66"/>
+      <c r="N28" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="M28" s="67"/>
-      <c r="N28" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="66" t="s">
+      <c r="Q28" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="R28" s="66"/>
+      <c r="S28" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="R28" s="67"/>
-      <c r="S28" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="66" t="s">
-        <v>228</v>
-      </c>
-      <c r="W28" s="67"/>
+      <c r="V28" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="W28" s="66"/>
       <c r="X28" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="45" t="s">
+      <c r="Z28" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA28" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB28" s="67"/>
+      <c r="AA28" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB28" s="66"/>
       <c r="AC28" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="AD28" s="45"/>
+        <v>576</v>
+      </c>
+      <c r="AD28" s="44"/>
     </row>
     <row r="29" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="67"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="16" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="H29" s="67"/>
+      <c r="G29" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="66"/>
       <c r="I29" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="66" t="s">
+      <c r="L29" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="M29" s="66"/>
+      <c r="N29" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="M29" s="67"/>
-      <c r="N29" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="66" t="s">
+      <c r="Q29" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="R29" s="66"/>
+      <c r="S29" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="R29" s="67"/>
-      <c r="S29" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V29" s="66" t="s">
+      <c r="V29" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="W29" s="67"/>
+      <c r="W29" s="66"/>
       <c r="X29" s="16" t="s">
         <v>127</v>
       </c>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="45" t="s">
+      <c r="Z29" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AA29" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB29" s="67"/>
+      <c r="AA29" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB29" s="66"/>
       <c r="AC29" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD29" s="45"/>
+        <v>294</v>
+      </c>
+      <c r="AD29" s="44"/>
     </row>
     <row r="30" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="67"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="16" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="H30" s="67"/>
+      <c r="G30" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="H30" s="66"/>
       <c r="I30" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="66" t="s">
+      <c r="L30" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="M30" s="66"/>
+      <c r="N30" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="16" t="s">
-        <v>174</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="66" t="s">
+      <c r="Q30" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="R30" s="66"/>
+      <c r="S30" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="R30" s="67"/>
-      <c r="S30" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="66" t="s">
+      <c r="V30" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="W30" s="67"/>
+      <c r="W30" s="66"/>
       <c r="X30" s="16" t="s">
         <v>129</v>
       </c>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="45" t="s">
+      <c r="Z30" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AA30" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB30" s="67"/>
+      <c r="AA30" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB30" s="66"/>
       <c r="AC30" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD30" s="45"/>
+        <v>296</v>
+      </c>
+      <c r="AD30" s="44"/>
     </row>
     <row r="31" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" s="67"/>
+      <c r="G31" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" s="66"/>
       <c r="I31" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="66" t="s">
+      <c r="L31" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="M31" s="66"/>
+      <c r="N31" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="M31" s="67"/>
-      <c r="N31" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="66" t="s">
+      <c r="Q31" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="R31" s="66"/>
+      <c r="S31" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="R31" s="67"/>
-      <c r="S31" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="66" t="s">
+      <c r="V31" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="W31" s="67"/>
+      <c r="W31" s="66"/>
       <c r="X31" s="16" t="s">
         <v>131</v>
       </c>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="45" t="s">
+      <c r="Z31" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="AB31" s="67"/>
+      <c r="AA31" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB31" s="66"/>
       <c r="AC31" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD31" s="45"/>
+        <v>298</v>
+      </c>
+      <c r="AD31" s="44"/>
     </row>
     <row r="32" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
       <c r="K32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="68" t="s">
+      <c r="L32" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="69"/>
-      <c r="N32" s="70"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="69"/>
       <c r="P32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="68" t="s">
+      <c r="Q32" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="R32" s="69"/>
-      <c r="S32" s="70"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="69"/>
       <c r="U32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="68" t="s">
+      <c r="V32" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="W32" s="69"/>
-      <c r="X32" s="70"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="69"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="68" t="s">
+      <c r="Z32" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AA32" s="69" t="s">
+      <c r="AA32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="70"/>
+      <c r="AB32" s="69"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="47"/>
+      <c r="AD32" s="46"/>
     </row>
     <row r="33" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M33" s="114" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="S33" s="10" t="s">
         <v>39</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="W33" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="X33" s="54" t="s">
+        <v>670</v>
+      </c>
+      <c r="X33" s="53" t="s">
         <v>37</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="AA33" s="27" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="AB33" s="27" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="AC33" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="AD33" s="11"/>
     </row>
@@ -5000,50 +5006,50 @@
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="67"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="66" t="s">
+      <c r="G34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="67"/>
+      <c r="H34" s="66"/>
       <c r="I34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="66" t="s">
+      <c r="L34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="67"/>
+      <c r="M34" s="66"/>
       <c r="N34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="66" t="s">
+      <c r="Q34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="67"/>
+      <c r="R34" s="66"/>
       <c r="S34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V34" s="66" t="s">
+      <c r="V34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="67"/>
+      <c r="W34" s="66"/>
       <c r="X34" s="10" t="s">
         <v>3</v>
       </c>
@@ -5051,10 +5057,10 @@
       <c r="Z34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA34" s="66" t="s">
+      <c r="AA34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="AB34" s="67"/>
+      <c r="AB34" s="66"/>
       <c r="AC34" s="10" t="s">
         <v>3</v>
       </c>
@@ -5064,403 +5070,403 @@
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="66" t="s">
-        <v>506</v>
-      </c>
-      <c r="C35" s="67"/>
+      <c r="B35" s="65" t="s">
+        <v>498</v>
+      </c>
+      <c r="C35" s="66"/>
       <c r="D35" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="66" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="67"/>
+      <c r="G35" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="H35" s="66"/>
       <c r="I35" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="66" t="s">
+      <c r="L35" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35" s="66"/>
+      <c r="N35" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="M35" s="67"/>
-      <c r="N35" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="R35" s="67"/>
+      <c r="Q35" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="R35" s="66"/>
       <c r="S35" s="16" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="66" t="s">
+      <c r="V35" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="W35" s="67"/>
+      <c r="W35" s="66"/>
       <c r="X35" s="16" t="s">
         <v>115</v>
       </c>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="45" t="s">
+      <c r="Z35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="66" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB35" s="67"/>
+      <c r="AA35" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB35" s="66"/>
       <c r="AC35" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD35" s="45"/>
+        <v>396</v>
+      </c>
+      <c r="AD35" s="44"/>
     </row>
     <row r="36" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="67"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="16" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="H36" s="67"/>
+      <c r="G36" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" s="66"/>
       <c r="I36" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="66" t="s">
+      <c r="L36" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="M36" s="66"/>
+      <c r="N36" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="M36" s="67"/>
-      <c r="N36" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="R36" s="67"/>
+      <c r="Q36" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="R36" s="66"/>
       <c r="S36" s="16" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V36" s="66" t="s">
+      <c r="V36" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="W36" s="67"/>
+      <c r="W36" s="66"/>
       <c r="X36" s="16" t="s">
         <v>117</v>
       </c>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="45" t="s">
+      <c r="Z36" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AA36" s="66" t="s">
-        <v>402</v>
-      </c>
-      <c r="AB36" s="67"/>
+      <c r="AA36" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB36" s="66"/>
       <c r="AC36" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD36" s="45"/>
+        <v>398</v>
+      </c>
+      <c r="AD36" s="44"/>
     </row>
     <row r="37" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="67"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="H37" s="67"/>
+      <c r="G37" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="H37" s="66"/>
       <c r="I37" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" s="67"/>
-      <c r="N37" s="16" t="s">
-        <v>192</v>
+      <c r="L37" s="111" t="s">
+        <v>708</v>
+      </c>
+      <c r="M37" s="112"/>
+      <c r="N37" s="113" t="s">
+        <v>709</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q37" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="R37" s="67"/>
+      <c r="Q37" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="R37" s="66"/>
       <c r="S37" s="16" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V37" s="66" t="s">
+      <c r="V37" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="W37" s="67"/>
+      <c r="W37" s="66"/>
       <c r="X37" s="16" t="s">
         <v>119</v>
       </c>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="45" t="s">
+      <c r="Z37" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AA37" s="66" t="s">
-        <v>404</v>
-      </c>
-      <c r="AB37" s="67"/>
+      <c r="AA37" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB37" s="66"/>
       <c r="AC37" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD37" s="45"/>
+        <v>400</v>
+      </c>
+      <c r="AD37" s="44"/>
     </row>
     <row r="38" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="16" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="H38" s="67"/>
+      <c r="G38" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" s="66"/>
       <c r="I38" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="M38" s="67"/>
+      <c r="L38" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="M38" s="66"/>
       <c r="N38" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="66" t="s">
-        <v>290</v>
-      </c>
-      <c r="R38" s="67"/>
+      <c r="Q38" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="R38" s="66"/>
       <c r="S38" s="16" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V38" s="66" t="s">
+      <c r="V38" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="W38" s="103"/>
+      <c r="W38" s="102"/>
       <c r="X38" s="16" t="s">
         <v>121</v>
       </c>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="45" t="s">
+      <c r="Z38" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AA38" s="66" t="s">
-        <v>406</v>
-      </c>
-      <c r="AB38" s="67"/>
+      <c r="AA38" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB38" s="66"/>
       <c r="AC38" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="AD38" s="45"/>
+        <v>402</v>
+      </c>
+      <c r="AD38" s="44"/>
     </row>
     <row r="39" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="67"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="16" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="H39" s="67"/>
+      <c r="G39" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="66"/>
       <c r="I39" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="M39" s="67"/>
+      <c r="L39" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="M39" s="66"/>
       <c r="N39" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="66" t="s">
-        <v>292</v>
-      </c>
-      <c r="R39" s="67"/>
+      <c r="Q39" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="R39" s="66"/>
       <c r="S39" s="16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V39" s="66" t="s">
+      <c r="V39" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="W39" s="103"/>
+      <c r="W39" s="102"/>
       <c r="X39" s="16" t="s">
         <v>123</v>
       </c>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="45" t="s">
+      <c r="Z39" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AA39" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB39" s="67"/>
+      <c r="AA39" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB39" s="66"/>
       <c r="AC39" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="AD39" s="45"/>
+        <v>404</v>
+      </c>
+      <c r="AD39" s="44"/>
     </row>
     <row r="40" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="67"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="16" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="H40" s="102"/>
-      <c r="I40" s="48" t="s">
-        <v>251</v>
+      <c r="G40" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="H40" s="101"/>
+      <c r="I40" s="47" t="s">
+        <v>248</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="M40" s="67"/>
+      <c r="L40" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="M40" s="66"/>
       <c r="N40" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q40" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="R40" s="67"/>
+      <c r="Q40" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="R40" s="66"/>
       <c r="S40" s="16" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V40" s="66" t="s">
+      <c r="V40" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="W40" s="67"/>
+      <c r="W40" s="66"/>
       <c r="X40" s="16" t="s">
         <v>125</v>
       </c>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="45" t="s">
+      <c r="Z40" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AA40" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB40" s="67"/>
+      <c r="AA40" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB40" s="66"/>
       <c r="AC40" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="AD40" s="45"/>
+        <v>406</v>
+      </c>
+      <c r="AD40" s="44"/>
     </row>
     <row r="41" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="I41" s="49"/>
-      <c r="K41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="Z41" s="51"/>
+      <c r="I41" s="48"/>
+      <c r="K41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="Z41" s="50"/>
     </row>
     <row r="42" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="U42" s="50"/>
+      <c r="U42" s="49"/>
     </row>
     <row r="43" spans="1:30" ht="49.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="52">
         <v>0.79166666666666663</v>
       </c>
-      <c r="U43" s="50"/>
+      <c r="U43" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="148">
@@ -5657,304 +5663,304 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="101">
+      <c r="A5" s="100">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
     </row>
     <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>581</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+        <v>586</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
     </row>
     <row r="7" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="B7" s="72" t="s">
+        <v>587</v>
+      </c>
+      <c r="B7" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77"/>
+        <v>578</v>
+      </c>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>593</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
+        <v>588</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
     </row>
     <row r="10" spans="1:24" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>598</v>
-      </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
+        <v>589</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>590</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
     </row>
     <row r="12" spans="1:24" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
       <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
       <c r="K12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
       <c r="P12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="78" t="s">
+      <c r="Q12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
       <c r="U12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="78" t="s">
+      <c r="V12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
     </row>
     <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
-      <c r="K13" s="72" t="s">
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+      <c r="K13" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="74"/>
-      <c r="P13" s="72" t="s">
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
+      <c r="P13" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="U13" s="104" t="s">
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="U13" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="107"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="106"/>
     </row>
     <row r="14" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q14" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>696</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>556</v>
-      </c>
       <c r="R14" s="11" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="U14" s="108" t="s">
+        <v>547</v>
+      </c>
+      <c r="U14" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="67"/>
+      <c r="M15" s="66"/>
       <c r="N15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="66" t="s">
+      <c r="Q15" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="67"/>
+      <c r="R15" s="66"/>
       <c r="S15" s="10" t="s">
         <v>3</v>
       </c>
@@ -5967,42 +5973,42 @@
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="67"/>
+      <c r="B16" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="66"/>
       <c r="D16" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="66" t="s">
-        <v>304</v>
-      </c>
-      <c r="H16" s="67"/>
+      <c r="G16" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="H16" s="66"/>
       <c r="I16" s="16" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="M16" s="67"/>
+      <c r="L16" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="66"/>
       <c r="N16" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="66" t="s">
-        <v>412</v>
-      </c>
-      <c r="R16" s="67"/>
+      <c r="Q16" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="R16" s="66"/>
       <c r="S16" s="16" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="U16" s="17"/>
       <c r="X16" s="12"/>
@@ -6011,42 +6017,42 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="67"/>
+      <c r="B17" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="66"/>
       <c r="D17" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="67"/>
+      <c r="G17" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="H17" s="66"/>
       <c r="I17" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="M17" s="67"/>
+      <c r="L17" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" s="66"/>
       <c r="N17" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="R17" s="67"/>
+      <c r="Q17" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="R17" s="66"/>
       <c r="S17" s="16" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="U17" s="17"/>
       <c r="X17" s="12"/>
@@ -6055,42 +6061,42 @@
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="108" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="54" t="s">
         <v>183</v>
-      </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="55" t="s">
-        <v>184</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="66" t="s">
-        <v>307</v>
-      </c>
-      <c r="H18" s="67"/>
+      <c r="G18" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" s="66"/>
       <c r="I18" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="M18" s="103"/>
+      <c r="L18" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="102"/>
       <c r="N18" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="66" t="s">
-        <v>416</v>
-      </c>
-      <c r="R18" s="67"/>
+      <c r="Q18" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="R18" s="66"/>
       <c r="S18" s="16" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="U18" s="17"/>
       <c r="X18" s="12"/>
@@ -6099,42 +6105,42 @@
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="109" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="55" t="s">
-        <v>236</v>
+      <c r="B19" s="108" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="54" t="s">
+        <v>233</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="H19" s="67"/>
+      <c r="G19" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="H19" s="66"/>
       <c r="I19" s="16" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="M19" s="67"/>
+      <c r="L19" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="66"/>
       <c r="N19" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="66" t="s">
-        <v>418</v>
-      </c>
-      <c r="R19" s="67"/>
+      <c r="Q19" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="R19" s="66"/>
       <c r="S19" s="16" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="U19" s="17"/>
       <c r="X19" s="12"/>
@@ -6143,86 +6149,86 @@
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="109" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="55" t="s">
-        <v>238</v>
+      <c r="B20" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="109"/>
+      <c r="D20" s="54" t="s">
+        <v>235</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="H20" s="67"/>
+      <c r="G20" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="H20" s="66"/>
       <c r="I20" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="M20" s="67"/>
+      <c r="L20" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" s="66"/>
       <c r="N20" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="66" t="s">
-        <v>420</v>
-      </c>
-      <c r="R20" s="67"/>
+      <c r="Q20" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="R20" s="66"/>
       <c r="S20" s="16" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="U20" s="17"/>
       <c r="X20" s="12"/>
     </row>
     <row r="21" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B21" s="109" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="55" t="s">
-        <v>186</v>
+        <v>675</v>
+      </c>
+      <c r="B21" s="111" t="s">
+        <v>705</v>
+      </c>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113" t="s">
+        <v>271</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="H21" s="67"/>
+      <c r="G21" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="H21" s="66"/>
       <c r="I21" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="M21" s="67"/>
+      <c r="L21" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="M21" s="66"/>
       <c r="N21" s="16" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="66" t="s">
-        <v>421</v>
-      </c>
-      <c r="R21" s="67"/>
+      <c r="Q21" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="R21" s="66"/>
       <c r="S21" s="16" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="U21" s="18"/>
       <c r="V21" s="19"/>
@@ -6231,138 +6237,138 @@
     </row>
     <row r="22" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="68" t="s">
+        <v>674</v>
+      </c>
+      <c r="B22" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
       <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
       <c r="K22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="68" t="s">
+      <c r="L22" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="69"/>
-      <c r="N22" s="70"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="69"/>
       <c r="P22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="68" t="s">
-        <v>499</v>
-      </c>
-      <c r="R22" s="69"/>
-      <c r="S22" s="70"/>
+      <c r="Q22" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="R22" s="68"/>
+      <c r="S22" s="69"/>
       <c r="U22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V22" s="68" t="s">
+      <c r="V22" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="W22" s="69"/>
-      <c r="X22" s="70"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="69"/>
     </row>
     <row r="23" spans="1:24" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="S23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="U23" s="108"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
       <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="67"/>
+      <c r="H24" s="66"/>
       <c r="I24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="66" t="s">
+      <c r="L24" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="67"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q24" s="66" t="s">
+      <c r="Q24" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="R24" s="67"/>
+      <c r="R24" s="66"/>
       <c r="S24" s="10" t="s">
         <v>3</v>
       </c>
@@ -6374,90 +6380,90 @@
     </row>
     <row r="25" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="C25" s="67"/>
+        <v>650</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" s="66"/>
       <c r="D25" s="33" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="67"/>
+      <c r="G25" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="66"/>
       <c r="I25" s="16" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="M25" s="67"/>
+      <c r="L25" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="M25" s="66"/>
       <c r="N25" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="66" t="s">
+      <c r="Q25" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="R25" s="67"/>
+      <c r="R25" s="66"/>
       <c r="S25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U25" s="104" t="s">
+      <c r="U25" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="V25" s="105"/>
-      <c r="W25" s="105"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
       <c r="X25" s="22"/>
     </row>
     <row r="26" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>437</v>
-      </c>
-      <c r="C26" s="67"/>
+      <c r="B26" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="66"/>
       <c r="D26" s="33" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="H26" s="67"/>
+      <c r="G26" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" s="66"/>
       <c r="I26" s="16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="M26" s="67"/>
+      <c r="L26" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="M26" s="66"/>
       <c r="N26" s="16" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="66" t="s">
+      <c r="Q26" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="R26" s="67"/>
+      <c r="R26" s="66"/>
       <c r="S26" s="16" t="s">
         <v>61</v>
       </c>
@@ -6473,40 +6479,40 @@
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>439</v>
-      </c>
-      <c r="C27" s="67"/>
+      <c r="B27" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="C27" s="66"/>
       <c r="D27" s="33" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="66" t="s">
-        <v>312</v>
-      </c>
-      <c r="H27" s="67"/>
+      <c r="G27" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="H27" s="66"/>
       <c r="I27" s="16" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="M27" s="67"/>
+      <c r="L27" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="M27" s="66"/>
       <c r="N27" s="16" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" s="66" t="s">
+      <c r="Q27" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="R27" s="67"/>
+      <c r="R27" s="66"/>
       <c r="S27" s="16" t="s">
         <v>63</v>
       </c>
@@ -6522,40 +6528,40 @@
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="66" t="s">
-        <v>441</v>
-      </c>
-      <c r="C28" s="67"/>
+      <c r="B28" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="C28" s="66"/>
       <c r="D28" s="33" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="66"/>
+      <c r="I28" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="M28" s="67"/>
+      <c r="L28" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="M28" s="66"/>
       <c r="N28" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q28" s="66" t="s">
+      <c r="Q28" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="R28" s="67"/>
+      <c r="R28" s="66"/>
       <c r="S28" s="16" t="s">
         <v>65</v>
       </c>
@@ -6566,40 +6572,40 @@
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>443</v>
-      </c>
-      <c r="C29" s="67"/>
+      <c r="B29" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="C29" s="66"/>
       <c r="D29" s="33" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="H29" s="67"/>
+      <c r="G29" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="H29" s="66"/>
       <c r="I29" s="16" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="M29" s="67"/>
+      <c r="L29" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="M29" s="66"/>
       <c r="N29" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q29" s="66" t="s">
+      <c r="Q29" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="R29" s="67"/>
+      <c r="R29" s="66"/>
       <c r="S29" s="16" t="s">
         <v>67</v>
       </c>
@@ -6608,42 +6614,42 @@
     </row>
     <row r="30" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B30" s="115" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="117" t="s">
-        <v>278</v>
+        <v>651</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>710</v>
+      </c>
+      <c r="C30" s="112"/>
+      <c r="D30" s="115" t="s">
+        <v>711</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="H30" s="67"/>
+      <c r="G30" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="H30" s="66"/>
       <c r="I30" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="M30" s="67"/>
+      <c r="L30" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="M30" s="66"/>
       <c r="N30" s="16" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="66" t="s">
+      <c r="Q30" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="R30" s="67"/>
+      <c r="R30" s="66"/>
       <c r="S30" s="16" t="s">
         <v>69</v>
       </c>
@@ -6654,7 +6660,7 @@
     </row>
     <row r="33" spans="1:2" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B33" s="24">
         <v>0.79166666666666663</v>
@@ -6761,8 +6767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0A72A6-F728-4273-B217-6595B7D29A78}">
   <dimension ref="A3:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31:X31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6771,169 +6777,169 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="101">
+      <c r="A5" s="100">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
     </row>
     <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>581</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+        <v>501</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77"/>
+        <v>579</v>
+      </c>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="K11" s="72" t="s">
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="K11" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="74"/>
-      <c r="P11" s="72" t="s">
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
+      <c r="P11" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
@@ -6941,52 +6947,52 @@
     </row>
     <row r="12" spans="1:26" s="29" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7003,30 +7009,30 @@
       <c r="F13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="66" t="s">
+      <c r="L13" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="67"/>
+      <c r="M13" s="66"/>
       <c r="N13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="66" t="s">
+      <c r="Q13" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="67"/>
+      <c r="R13" s="66"/>
       <c r="S13" s="31" t="s">
         <v>3</v>
       </c>
@@ -7039,88 +7045,88 @@
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="33" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="66" t="s">
-        <v>580</v>
-      </c>
-      <c r="H14" s="67"/>
+      <c r="G14" s="65" t="s">
+        <v>572</v>
+      </c>
+      <c r="H14" s="66"/>
       <c r="I14" s="16" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M14" s="67"/>
+      <c r="L14" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="M14" s="66"/>
       <c r="N14" s="16" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="66" t="s">
+      <c r="Q14" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="66"/>
+      <c r="S14" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="R14" s="67"/>
-      <c r="S14" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="U14" s="34"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
     </row>
     <row r="15" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="33" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="66" t="s">
-        <v>578</v>
-      </c>
-      <c r="H15" s="67"/>
+      <c r="G15" s="65" t="s">
+        <v>570</v>
+      </c>
+      <c r="H15" s="66"/>
       <c r="I15" s="16" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="66" t="s">
-        <v>390</v>
-      </c>
-      <c r="M15" s="67"/>
+      <c r="L15" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="M15" s="66"/>
       <c r="N15" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="66" t="s">
+      <c r="Q15" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="R15" s="66"/>
+      <c r="S15" s="33" t="s">
         <v>154</v>
-      </c>
-      <c r="R15" s="67"/>
-      <c r="S15" s="33" t="s">
-        <v>155</v>
       </c>
       <c r="U15" s="34"/>
       <c r="V15" s="36"/>
@@ -7131,42 +7137,42 @@
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="16" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="66" t="s">
-        <v>576</v>
-      </c>
-      <c r="H16" s="67"/>
+      <c r="G16" s="65" t="s">
+        <v>568</v>
+      </c>
+      <c r="H16" s="66"/>
       <c r="I16" s="16" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="M16" s="67"/>
+      <c r="L16" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="M16" s="66"/>
       <c r="N16" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="66" t="s">
+      <c r="Q16" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" s="66"/>
+      <c r="S16" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="R16" s="67"/>
-      <c r="S16" s="33" t="s">
-        <v>157</v>
       </c>
       <c r="U16" s="34"/>
       <c r="V16" s="36"/>
@@ -7178,42 +7184,42 @@
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="16" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="66" t="s">
-        <v>574</v>
-      </c>
-      <c r="H17" s="67"/>
+      <c r="G17" s="65" t="s">
+        <v>566</v>
+      </c>
+      <c r="H17" s="66"/>
       <c r="I17" s="16" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="M17" s="67"/>
+      <c r="L17" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="M17" s="66"/>
       <c r="N17" s="16" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="66" t="s">
+      <c r="Q17" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="R17" s="66"/>
+      <c r="S17" s="33" t="s">
         <v>158</v>
-      </c>
-      <c r="R17" s="67"/>
-      <c r="S17" s="33" t="s">
-        <v>159</v>
       </c>
       <c r="U17" s="34"/>
       <c r="V17" s="36"/>
@@ -7224,42 +7230,42 @@
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="16" t="s">
-        <v>494</v>
+      <c r="B18" s="111" t="s">
+        <v>712</v>
+      </c>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113" t="s">
+        <v>713</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="66" t="s">
-        <v>571</v>
-      </c>
-      <c r="H18" s="67"/>
+      <c r="G18" s="65" t="s">
+        <v>563</v>
+      </c>
+      <c r="H18" s="66"/>
       <c r="I18" s="16" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="M18" s="67"/>
+      <c r="L18" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="M18" s="66"/>
       <c r="N18" s="16" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="66" t="s">
+      <c r="Q18" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="R18" s="66"/>
+      <c r="S18" s="33" t="s">
         <v>160</v>
-      </c>
-      <c r="R18" s="67"/>
-      <c r="S18" s="33" t="s">
-        <v>161</v>
       </c>
       <c r="U18" s="34"/>
       <c r="V18" s="36"/>
@@ -7270,42 +7276,42 @@
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="67"/>
+      <c r="B19" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="66"/>
       <c r="D19" s="16" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="H19" s="67"/>
+      <c r="G19" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="H19" s="66"/>
       <c r="I19" s="16" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="M19" s="67"/>
+      <c r="L19" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="M19" s="66"/>
       <c r="N19" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="66" t="s">
+      <c r="Q19" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="R19" s="66"/>
+      <c r="S19" s="33" t="s">
         <v>162</v>
-      </c>
-      <c r="R19" s="67"/>
-      <c r="S19" s="33" t="s">
-        <v>163</v>
       </c>
       <c r="U19" s="34"/>
       <c r="V19" s="36"/>
@@ -7316,185 +7322,182 @@
       <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="67"/>
+      <c r="B20" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="66"/>
       <c r="D20" s="16" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="H20" s="67"/>
+      <c r="G20" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="H20" s="66"/>
       <c r="I20" s="16" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="M20" s="67"/>
+      <c r="L20" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" s="66"/>
       <c r="N20" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="66" t="s">
+      <c r="Q20" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="R20" s="66"/>
+      <c r="S20" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="R20" s="67"/>
-      <c r="S20" s="33" t="s">
-        <v>165</v>
-      </c>
       <c r="U20" s="34"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
     </row>
     <row r="22" spans="1:30" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="78" t="s">
+      <c r="G22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
       <c r="K22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="78" t="s">
+      <c r="L22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
       <c r="P22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="78" t="s">
+      <c r="Q22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
       <c r="U22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="71" t="s">
+      <c r="V22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
       <c r="Z22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA22" s="71" t="s">
+      <c r="AA22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
     </row>
     <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="U23" s="72" t="s">
-        <v>513</v>
-      </c>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Z23" s="73" t="s">
-        <v>512</v>
-      </c>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
+      <c r="U23" s="71" t="s">
+        <v>505</v>
+      </c>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Z23" s="72" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
     </row>
     <row r="24" spans="1:30" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>664</v>
+        <v>511</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>656</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F24" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="G24" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>552</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>654</v>
-      </c>
       <c r="V24" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="W24" s="57" t="s">
-        <v>703</v>
-      </c>
-      <c r="X24" s="58" t="s">
-        <v>700</v>
+        <v>541</v>
+      </c>
+      <c r="W24" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="X24" s="57" t="s">
+        <v>692</v>
       </c>
       <c r="Y24" s="32"/>
       <c r="Z24" s="39" t="s">
-        <v>656</v>
-      </c>
-      <c r="AA24" s="57" t="s">
-        <v>698</v>
-      </c>
-      <c r="AB24" s="59" t="s">
-        <v>685</v>
-      </c>
-      <c r="AC24" s="60" t="s">
-        <v>699</v>
+        <v>648</v>
+      </c>
+      <c r="AA24" s="56" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB24" s="58" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC24" s="59" t="s">
+        <v>691</v>
       </c>
       <c r="AD24" s="37"/>
     </row>
@@ -7502,50 +7505,50 @@
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="67"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="67"/>
+      <c r="H25" s="66"/>
       <c r="I25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="67"/>
+      <c r="M25" s="66"/>
       <c r="N25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="66" t="s">
+      <c r="Q25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="67"/>
+      <c r="R25" s="66"/>
       <c r="S25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V25" s="66" t="s">
+      <c r="V25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="67"/>
+      <c r="W25" s="66"/>
       <c r="X25" s="10" t="s">
         <v>3</v>
       </c>
@@ -7553,12 +7556,12 @@
       <c r="Z25" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AA25" s="109" t="s">
+      <c r="AA25" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="60" t="s">
-        <v>498</v>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="59" t="s">
+        <v>491</v>
       </c>
       <c r="AD25" s="32"/>
     </row>
@@ -7566,63 +7569,63 @@
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="67"/>
+      <c r="B26" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="66"/>
       <c r="D26" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="H26" s="67"/>
+      <c r="G26" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="H26" s="66"/>
       <c r="I26" s="16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="M26" s="67"/>
+      <c r="L26" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" s="66"/>
       <c r="N26" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="R26" s="67"/>
+      <c r="Q26" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="R26" s="66"/>
       <c r="S26" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="109" t="s">
-        <v>713</v>
-      </c>
-      <c r="W26" s="110"/>
-      <c r="X26" s="55" t="s">
-        <v>274</v>
+      <c r="V26" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="W26" s="112"/>
+      <c r="X26" s="113" t="s">
+        <v>185</v>
       </c>
       <c r="Y26" s="40"/>
       <c r="Z26" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="AA26" s="109" t="s">
-        <v>461</v>
-      </c>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="56" t="s">
-        <v>462</v>
+      <c r="AA26" s="108" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="55" t="s">
+        <v>457</v>
       </c>
       <c r="AD26" s="36"/>
     </row>
@@ -7630,63 +7633,63 @@
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="67"/>
+      <c r="B27" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="66"/>
       <c r="D27" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="H27" s="67"/>
+      <c r="G27" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="H27" s="66"/>
       <c r="I27" s="16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="M27" s="67"/>
+      <c r="L27" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="66"/>
       <c r="N27" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="R27" s="67"/>
+      <c r="Q27" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="R27" s="66"/>
       <c r="S27" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="109" t="s">
-        <v>712</v>
-      </c>
-      <c r="W27" s="110"/>
-      <c r="X27" s="55" t="s">
-        <v>279</v>
+      <c r="V27" s="108" t="s">
+        <v>704</v>
+      </c>
+      <c r="W27" s="109"/>
+      <c r="X27" s="54" t="s">
+        <v>274</v>
       </c>
       <c r="Y27" s="40"/>
       <c r="Z27" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="AA27" s="109" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="56" t="s">
-        <v>680</v>
+      <c r="AA27" s="108" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="55" t="s">
+        <v>672</v>
       </c>
       <c r="AD27" s="36"/>
     </row>
@@ -7694,63 +7697,63 @@
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="67"/>
+      <c r="B28" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="66"/>
       <c r="D28" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="66" t="s">
-        <v>381</v>
-      </c>
-      <c r="H28" s="67"/>
+      <c r="G28" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="H28" s="66"/>
       <c r="I28" s="16" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="M28" s="67"/>
+      <c r="L28" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" s="66"/>
       <c r="N28" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="66" t="s">
-        <v>348</v>
-      </c>
-      <c r="R28" s="67"/>
+      <c r="Q28" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="R28" s="66"/>
       <c r="S28" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="109" t="s">
-        <v>457</v>
-      </c>
-      <c r="W28" s="110"/>
-      <c r="X28" s="56" t="s">
-        <v>458</v>
+      <c r="V28" s="108" t="s">
+        <v>452</v>
+      </c>
+      <c r="W28" s="109"/>
+      <c r="X28" s="55" t="s">
+        <v>453</v>
       </c>
       <c r="Y28" s="40"/>
       <c r="Z28" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA28" s="109" t="s">
-        <v>464</v>
-      </c>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="56" t="s">
-        <v>465</v>
+      <c r="AA28" s="108" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="55" t="s">
+        <v>460</v>
       </c>
       <c r="AD28" s="36"/>
     </row>
@@ -7758,63 +7761,63 @@
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" s="67"/>
+      <c r="B29" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="66"/>
       <c r="D29" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="H29" s="67"/>
+      <c r="G29" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="H29" s="66"/>
       <c r="I29" s="16" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="M29" s="67"/>
+      <c r="L29" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" s="66"/>
       <c r="N29" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="66" t="s">
-        <v>350</v>
-      </c>
-      <c r="R29" s="67"/>
+      <c r="Q29" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="R29" s="66"/>
       <c r="S29" s="16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V29" s="109" t="s">
-        <v>459</v>
-      </c>
-      <c r="W29" s="110"/>
-      <c r="X29" s="56" t="s">
-        <v>460</v>
+      <c r="V29" s="108" t="s">
+        <v>454</v>
+      </c>
+      <c r="W29" s="109"/>
+      <c r="X29" s="55" t="s">
+        <v>455</v>
       </c>
       <c r="Y29" s="40"/>
       <c r="Z29" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AA29" s="109" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="55" t="s">
-        <v>282</v>
+      <c r="AA29" s="108" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="54" t="s">
+        <v>277</v>
       </c>
       <c r="AD29" s="36"/>
     </row>
@@ -7822,63 +7825,63 @@
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="66" t="s">
-        <v>260</v>
-      </c>
-      <c r="C30" s="67"/>
+      <c r="B30" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="66"/>
       <c r="D30" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="H30" s="67"/>
+      <c r="G30" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="H30" s="66"/>
       <c r="I30" s="16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="M30" s="67"/>
+      <c r="L30" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" s="66"/>
       <c r="N30" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="R30" s="67"/>
+      <c r="Q30" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="R30" s="66"/>
       <c r="S30" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="109" t="s">
-        <v>701</v>
-      </c>
-      <c r="W30" s="110"/>
-      <c r="X30" s="56" t="s">
-        <v>702</v>
+      <c r="V30" s="108" t="s">
+        <v>693</v>
+      </c>
+      <c r="W30" s="109"/>
+      <c r="X30" s="55" t="s">
+        <v>694</v>
       </c>
       <c r="Y30" s="40"/>
       <c r="Z30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AA30" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="55" t="s">
-        <v>284</v>
+      <c r="AA30" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="54" t="s">
+        <v>279</v>
       </c>
       <c r="AD30" s="36"/>
     </row>
@@ -7886,63 +7889,63 @@
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="66" t="s">
-        <v>262</v>
-      </c>
-      <c r="C31" s="67"/>
+      <c r="B31" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="66"/>
       <c r="D31" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="H31" s="67"/>
+      <c r="G31" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="H31" s="66"/>
       <c r="I31" s="16" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="M31" s="67"/>
+      <c r="L31" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="M31" s="66"/>
       <c r="N31" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="R31" s="67"/>
+      <c r="Q31" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="R31" s="66"/>
       <c r="S31" s="16" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="115" t="s">
-        <v>434</v>
-      </c>
-      <c r="W31" s="116"/>
-      <c r="X31" s="118" t="s">
-        <v>435</v>
+      <c r="V31" s="108" t="s">
+        <v>429</v>
+      </c>
+      <c r="W31" s="109"/>
+      <c r="X31" s="55" t="s">
+        <v>430</v>
       </c>
       <c r="Y31" s="40"/>
       <c r="Z31" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="109" t="s">
-        <v>704</v>
-      </c>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="55" t="s">
-        <v>280</v>
+      <c r="AA31" s="108" t="s">
+        <v>696</v>
+      </c>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="54" t="s">
+        <v>275</v>
       </c>
       <c r="AD31" s="36"/>
     </row>
@@ -7950,186 +7953,186 @@
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
       <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
       <c r="K32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="68" t="s">
+      <c r="L32" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="69"/>
-      <c r="N32" s="70"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="69"/>
       <c r="P32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="68" t="s">
+      <c r="Q32" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="R32" s="69"/>
-      <c r="S32" s="70"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="69"/>
       <c r="U32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="68" t="s">
+      <c r="V32" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
       <c r="Y32" s="40"/>
-      <c r="Z32" s="69" t="s">
+      <c r="Z32" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AA32" s="69" t="s">
+      <c r="AA32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="70"/>
+      <c r="AB32" s="69"/>
       <c r="AC32" s="42"/>
       <c r="AD32" s="35"/>
     </row>
     <row r="33" spans="1:30" s="29" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="M33" s="114" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>46</v>
       </c>
       <c r="P33" s="30" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="S33" s="30" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="U33" s="30" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="V33" s="27" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="W33" s="27" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="X33" s="28" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="Z33" s="43" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="AA33" s="27" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="AB33" s="27" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="AC33" s="28" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="67"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="66" t="s">
+      <c r="G34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="67"/>
+      <c r="H34" s="66"/>
       <c r="I34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="66" t="s">
+      <c r="L34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="67"/>
+      <c r="M34" s="66"/>
       <c r="N34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="66" t="s">
+      <c r="Q34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="67"/>
+      <c r="R34" s="66"/>
       <c r="S34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V34" s="66" t="s">
+      <c r="V34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="67"/>
+      <c r="W34" s="66"/>
       <c r="X34" s="31" t="s">
         <v>3</v>
       </c>
       <c r="Z34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AA34" s="66" t="s">
+      <c r="AA34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="AB34" s="67"/>
+      <c r="AB34" s="66"/>
       <c r="AC34" s="31" t="s">
         <v>3</v>
       </c>
@@ -8138,63 +8141,63 @@
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="66" t="s">
-        <v>422</v>
-      </c>
-      <c r="C35" s="67"/>
+      <c r="B35" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="C35" s="66"/>
       <c r="D35" s="16" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="H35" s="67"/>
+      <c r="G35" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="H35" s="66"/>
       <c r="I35" s="16" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="M35" s="67"/>
+      <c r="L35" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="M35" s="66"/>
       <c r="N35" s="16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="109" t="s">
+      <c r="Q35" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="R35" s="109"/>
+      <c r="S35" s="54" t="s">
         <v>177</v>
-      </c>
-      <c r="R35" s="110"/>
-      <c r="S35" s="55" t="s">
-        <v>178</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="66" t="s">
-        <v>445</v>
-      </c>
-      <c r="W35" s="67"/>
+      <c r="V35" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="W35" s="66"/>
       <c r="X35" s="33" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Y35" s="40"/>
       <c r="Z35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="66" t="s">
-        <v>466</v>
-      </c>
-      <c r="AB35" s="67"/>
+      <c r="AA35" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB35" s="66"/>
       <c r="AC35" s="33" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AD35" s="36"/>
     </row>
@@ -8202,63 +8205,63 @@
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="66" t="s">
-        <v>424</v>
-      </c>
-      <c r="C36" s="67"/>
+      <c r="B36" s="65" t="s">
+        <v>419</v>
+      </c>
+      <c r="C36" s="66"/>
       <c r="D36" s="16" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="66" t="s">
-        <v>368</v>
-      </c>
-      <c r="H36" s="67"/>
+      <c r="G36" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="H36" s="66"/>
       <c r="I36" s="16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="M36" s="67"/>
+      <c r="L36" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="M36" s="66"/>
       <c r="N36" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="109" t="s">
+      <c r="Q36" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="R36" s="109"/>
+      <c r="S36" s="54" t="s">
         <v>179</v>
-      </c>
-      <c r="R36" s="110"/>
-      <c r="S36" s="55" t="s">
-        <v>180</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V36" s="66" t="s">
-        <v>447</v>
-      </c>
-      <c r="W36" s="67"/>
+      <c r="V36" s="65" t="s">
+        <v>442</v>
+      </c>
+      <c r="W36" s="66"/>
       <c r="X36" s="33" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Y36" s="40"/>
       <c r="Z36" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AA36" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="AB36" s="67"/>
+      <c r="AA36" s="65" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB36" s="66"/>
       <c r="AC36" s="33" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AD36" s="36"/>
     </row>
@@ -8266,63 +8269,63 @@
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="C37" s="67"/>
+      <c r="B37" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="C37" s="66"/>
       <c r="D37" s="16" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="H37" s="67"/>
+      <c r="G37" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="H37" s="66"/>
       <c r="I37" s="16" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="M37" s="67"/>
+      <c r="L37" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" s="66"/>
       <c r="N37" s="16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q37" s="109" t="s">
+      <c r="Q37" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="R37" s="109"/>
+      <c r="S37" s="54" t="s">
         <v>181</v>
-      </c>
-      <c r="R37" s="110"/>
-      <c r="S37" s="55" t="s">
-        <v>182</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V37" s="66" t="s">
-        <v>453</v>
-      </c>
-      <c r="W37" s="67"/>
+      <c r="V37" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="W37" s="66"/>
       <c r="X37" s="33" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Y37" s="40"/>
       <c r="Z37" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AA37" s="66" t="s">
-        <v>470</v>
-      </c>
-      <c r="AB37" s="67"/>
+      <c r="AA37" s="65" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB37" s="66"/>
       <c r="AC37" s="33" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AD37" s="36"/>
     </row>
@@ -8330,63 +8333,63 @@
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="66" t="s">
-        <v>428</v>
-      </c>
-      <c r="C38" s="67"/>
+      <c r="B38" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="C38" s="66"/>
       <c r="D38" s="16" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="66" t="s">
-        <v>449</v>
-      </c>
-      <c r="H38" s="67"/>
+      <c r="G38" s="65" t="s">
+        <v>444</v>
+      </c>
+      <c r="H38" s="66"/>
       <c r="I38" s="33" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="M38" s="67"/>
+      <c r="L38" s="65" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" s="66"/>
       <c r="N38" s="16" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="109" t="s">
-        <v>706</v>
-      </c>
-      <c r="R38" s="110"/>
-      <c r="S38" s="55" t="s">
-        <v>234</v>
+      <c r="Q38" s="108" t="s">
+        <v>698</v>
+      </c>
+      <c r="R38" s="109"/>
+      <c r="S38" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V38" s="66" t="s">
-        <v>455</v>
-      </c>
-      <c r="W38" s="67"/>
+      <c r="V38" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="W38" s="66"/>
       <c r="X38" s="33" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Y38" s="40"/>
       <c r="Z38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AA38" s="66" t="s">
-        <v>472</v>
-      </c>
-      <c r="AB38" s="67"/>
+      <c r="AA38" s="65" t="s">
+        <v>467</v>
+      </c>
+      <c r="AB38" s="66"/>
       <c r="AC38" s="33" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AD38" s="36"/>
     </row>
@@ -8394,63 +8397,63 @@
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="66" t="s">
-        <v>430</v>
-      </c>
-      <c r="C39" s="67"/>
+      <c r="B39" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="C39" s="66"/>
       <c r="D39" s="16" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="66" t="s">
-        <v>451</v>
-      </c>
-      <c r="H39" s="67"/>
+      <c r="G39" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="H39" s="66"/>
       <c r="I39" s="33" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="M39" s="67"/>
+      <c r="L39" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" s="66"/>
       <c r="N39" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="109" t="s">
-        <v>705</v>
-      </c>
-      <c r="R39" s="110"/>
-      <c r="S39" s="55" t="s">
-        <v>239</v>
+      <c r="Q39" s="108" t="s">
+        <v>697</v>
+      </c>
+      <c r="R39" s="109"/>
+      <c r="S39" s="54" t="s">
+        <v>236</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V39" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="W39" s="67"/>
+      <c r="V39" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="W39" s="66"/>
       <c r="X39" s="16" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="Y39" s="40"/>
       <c r="Z39" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AA39" s="66" t="s">
-        <v>474</v>
-      </c>
-      <c r="AB39" s="67"/>
+      <c r="AA39" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB39" s="66"/>
       <c r="AC39" s="33" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="AD39" s="36"/>
     </row>
@@ -8461,9 +8464,13 @@
       <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="112"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="44"/>
+      <c r="G40" s="111" t="s">
+        <v>714</v>
+      </c>
+      <c r="H40" s="112"/>
+      <c r="I40" s="115" t="s">
+        <v>715</v>
+      </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
@@ -8473,15 +8480,15 @@
       <c r="U40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V40" s="66"/>
-      <c r="W40" s="67"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="66"/>
       <c r="X40" s="33"/>
       <c r="Y40" s="40"/>
       <c r="Z40" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="67"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="66"/>
       <c r="AC40" s="33"/>
       <c r="AD40" s="36"/>
     </row>
@@ -8591,7 +8598,6 @@
     <mergeCell ref="V29:W29"/>
     <mergeCell ref="U23:X23"/>
     <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="AA29:AB29"/>
@@ -8600,6 +8606,7 @@
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="V26:W26"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="L22:N22"/>
